--- a/tests/auxiliarScripts/dataImport.xlsx
+++ b/tests/auxiliarScripts/dataImport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="triples" sheetId="1" r:id="rId1"/>
@@ -12,9 +12,11 @@
     <sheet name="taxonomy" sheetId="4" r:id="rId3"/>
     <sheet name="props" sheetId="5" r:id="rId4"/>
     <sheet name="propsTaxonomy" sheetId="6" r:id="rId5"/>
-    <sheet name="types" sheetId="2" r:id="rId6"/>
+    <sheet name="classprops" sheetId="7" r:id="rId6"/>
+    <sheet name="types" sheetId="2" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">classprops!$A$1:$D$341</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">triples!$A$1:$G$248</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5649" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7013" uniqueCount="591">
   <si>
     <t>verb</t>
   </si>
@@ -1789,6 +1791,12 @@
   </si>
   <si>
     <t>DomainAttribute</t>
+  </si>
+  <si>
+    <t>:hasAttribute</t>
+  </si>
+  <si>
+    <t>LineComponent</t>
   </si>
 </sst>
 </file>
@@ -10794,7 +10802,7 @@
         <v>312</v>
       </c>
       <c r="D195" t="str">
-        <f t="shared" ref="D195:D248" si="3">":"&amp;A195&amp;" "&amp;B195&amp;" "&amp;C195&amp;" ."</f>
+        <f t="shared" ref="D195:D247" si="3">":"&amp;A195&amp;" "&amp;B195&amp;" "&amp;C195&amp;" ."</f>
         <v>:StorageAccessory rdf:type owl:Class .</v>
       </c>
     </row>
@@ -20452,8 +20460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D341"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D341"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25587,6 +25595,6167 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E341"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A303" workbookViewId="0">
+      <selection activeCell="A303" sqref="A303"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="59.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="94.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D1" t="str">
+        <f>":"&amp;A1&amp;" "&amp;B1&amp;" "&amp;":"&amp;C1&amp;" ."</f>
+        <v>:TensileArmour :hasAttribute :TensileWiresCount .</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D65" si="0">":"&amp;A2&amp;" "&amp;B2&amp;" "&amp;":"&amp;C2&amp;" ."</f>
+        <v>:TensileArmour :hasAttribute :TensileWireLayAngle .</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>589</v>
+      </c>
+      <c r="C3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>:MetallicMaterial :hasAttribute :UltimateTensileStress .</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>589</v>
+      </c>
+      <c r="C4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>:MetallicMaterial :hasAttribute :FractureToughness .</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>589</v>
+      </c>
+      <c r="C5" t="s">
+        <v>319</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>:MetallicMaterial :hasAttribute :MetallicLayerMaterialType .</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" t="s">
+        <v>589</v>
+      </c>
+      <c r="C6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>:FlowControlEquipment :hasAttribute :Piggable .</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" t="s">
+        <v>589</v>
+      </c>
+      <c r="C7" t="s">
+        <v>321</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>:FlowControlEquipment :hasAttribute :NumberOfRemoteProcessIsolationValves .</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" t="s">
+        <v>589</v>
+      </c>
+      <c r="C8" t="s">
+        <v>322</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>:FlowControlEquipment :hasAttribute :NumberOfChokeValves .</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" t="s">
+        <v>589</v>
+      </c>
+      <c r="C9" t="s">
+        <v>323</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>:FlowControlEquipment :hasAttribute :HasThermalInsulation .</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>589</v>
+      </c>
+      <c r="C10" t="s">
+        <v>324</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>:SubseaPipeline :hasAttribute :UnifilarDiagram .</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>589</v>
+      </c>
+      <c r="C11" t="s">
+        <v>325</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>:SubseaPipeline :hasAttribute :UnifilarDiagramRev .</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>589</v>
+      </c>
+      <c r="C12" t="s">
+        <v>326</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>:SubseaPipeline :hasAttribute :ExecutiveProjectRevision .</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>589</v>
+      </c>
+      <c r="C13" t="s">
+        <v>327</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>:SubseaPipeline :hasAttribute :BasicProjectRevision .</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>589</v>
+      </c>
+      <c r="C14" t="s">
+        <v>328</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>:SubseaPipeline :hasAttribute :MaterialRequest .</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>589</v>
+      </c>
+      <c r="C15" t="s">
+        <v>329</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>:SubseaPipeline :hasAttribute :ProjectCode .</v>
+      </c>
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>589</v>
+      </c>
+      <c r="C16" t="s">
+        <v>330</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>:SubseaPipeline :hasAttribute :ProjectAcronym .</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>589</v>
+      </c>
+      <c r="C17" t="s">
+        <v>331</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>:SubseaPipeline :hasAttribute :InternalIncidentalPressureTable .</v>
+      </c>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>589</v>
+      </c>
+      <c r="C18" t="s">
+        <v>332</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>:SubseaPipeline :hasAttribute :InternalIncidentalPressureTable_PositionReference .</v>
+      </c>
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>589</v>
+      </c>
+      <c r="C19" t="s">
+        <v>333</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>:SubseaPipeline :hasAttribute :InternalIncidentalPressureTable_Pressure .</v>
+      </c>
+      <c r="E19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>589</v>
+      </c>
+      <c r="C20" t="s">
+        <v>334</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>:SubseaPipeline :hasAttribute :InternalIncidentalPressureTable_VPosWRTWaterline .</v>
+      </c>
+      <c r="E20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>589</v>
+      </c>
+      <c r="C21" t="s">
+        <v>335</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>:SubseaPipeline :hasAttribute :MaxDesignAbsIntPresTable .</v>
+      </c>
+      <c r="E21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>589</v>
+      </c>
+      <c r="C22" t="s">
+        <v>336</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>:SubseaPipeline :hasAttribute :MaxDesignAbsIntPresTable_VPosWRTWaterline .</v>
+      </c>
+      <c r="E22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>589</v>
+      </c>
+      <c r="C23" t="s">
+        <v>337</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>:SubseaPipeline :hasAttribute :MaxDesignAbsIntPresTable_Pressure .</v>
+      </c>
+      <c r="E23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>589</v>
+      </c>
+      <c r="C24" t="s">
+        <v>338</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>:SubseaPipeline :hasAttribute :MaxDesignAbsIntPresTable_PositionReference .</v>
+      </c>
+      <c r="E24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>589</v>
+      </c>
+      <c r="C25" t="s">
+        <v>339</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>:SubseaPipeline :hasAttribute :MaterialRequestRev .</v>
+      </c>
+      <c r="E25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>589</v>
+      </c>
+      <c r="C26" t="s">
+        <v>340</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>:SubseaPipeline :hasAttribute :SubProjectId .</v>
+      </c>
+      <c r="E26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s">
+        <v>589</v>
+      </c>
+      <c r="C27" t="s">
+        <v>341</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>:SubseaPipeline :hasAttribute :Service .</v>
+      </c>
+      <c r="E27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" t="s">
+        <v>589</v>
+      </c>
+      <c r="C28" t="s">
+        <v>342</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>:SubseaPipeline :hasAttribute :InternalDiameter .</v>
+      </c>
+      <c r="E28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>589</v>
+      </c>
+      <c r="C29" t="s">
+        <v>343</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>:SubseaPipeline :hasAttribute :MaximumTemperature .</v>
+      </c>
+      <c r="E29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" t="s">
+        <v>589</v>
+      </c>
+      <c r="C30" t="s">
+        <v>344</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>:SubseaPipeline :hasAttribute :NominalLength .</v>
+      </c>
+      <c r="E30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" t="s">
+        <v>589</v>
+      </c>
+      <c r="C31" t="s">
+        <v>345</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>:SubseaPipeline :hasAttribute :CO2VolumePercentage .</v>
+      </c>
+      <c r="E31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" t="s">
+        <v>589</v>
+      </c>
+      <c r="C32" t="s">
+        <v>346</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>:SubseaPipeline :hasAttribute :H2SVolumeConcentration .</v>
+      </c>
+      <c r="E32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s">
+        <v>589</v>
+      </c>
+      <c r="C33" t="s">
+        <v>347</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>:SubseaPipeline :hasAttribute :MaximumThermalExchangeCoefficient .</v>
+      </c>
+      <c r="E33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" t="s">
+        <v>589</v>
+      </c>
+      <c r="C34" t="s">
+        <v>348</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>:SubseaPipeline :hasAttribute :MinimumThermalExchangeCoefficient .</v>
+      </c>
+      <c r="E34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" t="s">
+        <v>589</v>
+      </c>
+      <c r="C35" t="s">
+        <v>349</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>:SubseaPipeline :hasAttribute :RiserConfiguration .</v>
+      </c>
+      <c r="E35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" t="s">
+        <v>589</v>
+      </c>
+      <c r="C36" t="s">
+        <v>350</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>:MetallicStrandSet :hasAttribute :StrandsTable .</v>
+      </c>
+      <c r="E36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>589</v>
+      </c>
+      <c r="C37" t="s">
+        <v>351</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>:MetallicStrandSet :hasAttribute :StrandsTable_StrandsLength .</v>
+      </c>
+      <c r="E37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>589</v>
+      </c>
+      <c r="C38" t="s">
+        <v>352</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>:MetallicStrandSet :hasAttribute :StrandsTable_StrandsQuantity .</v>
+      </c>
+      <c r="E38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>589</v>
+      </c>
+      <c r="C39" t="s">
+        <v>353</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>:MetallicStrandSet :hasAttribute :StrandsTable_SpareQuantity .</v>
+      </c>
+      <c r="E39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" t="s">
+        <v>589</v>
+      </c>
+      <c r="C40" t="s">
+        <v>354</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>:FlexiblePipeStructure :hasAttribute :TensionerPadsShape .</v>
+      </c>
+      <c r="E40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" t="s">
+        <v>589</v>
+      </c>
+      <c r="C41" t="s">
+        <v>355</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>:FlexiblePipeStructure :hasAttribute :TensionerPadsOpeningAngle .</v>
+      </c>
+      <c r="E41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" t="s">
+        <v>589</v>
+      </c>
+      <c r="C42" t="s">
+        <v>356</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>:FlexiblePipeStructure :hasAttribute :TensionerPadsMaterial .</v>
+      </c>
+      <c r="E42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
+        <v>589</v>
+      </c>
+      <c r="C43" t="s">
+        <v>357</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>:FlexiblePipeStructure :hasAttribute :UtilizationFactor .</v>
+      </c>
+      <c r="E43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>589</v>
+      </c>
+      <c r="C44" t="s">
+        <v>358</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>:FlexiblePipeStructure :hasAttribute :FrictionCoefficientTighteningTable .</v>
+      </c>
+      <c r="E44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>589</v>
+      </c>
+      <c r="C45" t="s">
+        <v>359</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>:FlexiblePipeStructure :hasAttribute :FrictionCoefficientTighteningTable_CoefficientOfFriction .</v>
+      </c>
+      <c r="E45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>589</v>
+      </c>
+      <c r="C46" t="s">
+        <v>360</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>:FlexiblePipeStructure :hasAttribute :FrictionCoefficientTighteningTable_TighteningPerTrack .</v>
+      </c>
+      <c r="E46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>589</v>
+      </c>
+      <c r="C47" t="s">
+        <v>361</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>:FlexiblePipeStructure :hasAttribute :MaximumAmbientTemperature .</v>
+      </c>
+      <c r="E47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>589</v>
+      </c>
+      <c r="C48" t="s">
+        <v>362</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>:FlexiblePipeStructure :hasAttribute :TestConditions .</v>
+      </c>
+      <c r="E48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>589</v>
+      </c>
+      <c r="C49" t="s">
+        <v>363</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>:FlexiblePipeStructure :hasAttribute :TensionerTracksQuantity .</v>
+      </c>
+      <c r="E49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>589</v>
+      </c>
+      <c r="C50" t="s">
+        <v>364</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>:FlexiblePipeStructure :hasAttribute :IntermediateValuesStrategy .</v>
+      </c>
+      <c r="E50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" t="s">
+        <v>589</v>
+      </c>
+      <c r="C51" t="s">
+        <v>364</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>:FlexiblePipeStructure :hasAttribute :IntermediateValuesStrategy .</v>
+      </c>
+      <c r="E51" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" t="s">
+        <v>589</v>
+      </c>
+      <c r="C52" t="s">
+        <v>361</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>:FlexiblePipeStructure :hasAttribute :MaximumAmbientTemperature .</v>
+      </c>
+      <c r="E52" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" t="s">
+        <v>589</v>
+      </c>
+      <c r="C53" t="s">
+        <v>357</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>:FlexiblePipeStructure :hasAttribute :UtilizationFactor .</v>
+      </c>
+      <c r="E53" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>47</v>
+      </c>
+      <c r="B54" t="s">
+        <v>589</v>
+      </c>
+      <c r="C54" t="s">
+        <v>365</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="0"/>
+        <v>:FlexiblePipeStructure :hasAttribute :MaximumAllowableTensionTable .</v>
+      </c>
+      <c r="E54" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" t="s">
+        <v>589</v>
+      </c>
+      <c r="C55" t="s">
+        <v>366</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v>:FlexiblePipeStructure :hasAttribute :MaximumAllowableTensionTable_PulleyVAngle .</v>
+      </c>
+      <c r="E55" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" t="s">
+        <v>589</v>
+      </c>
+      <c r="C56" t="s">
+        <v>367</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v>:FlexiblePipeStructure :hasAttribute :MaximumAllowableTensionTable_PulleyRadius .</v>
+      </c>
+      <c r="E56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>47</v>
+      </c>
+      <c r="B57" t="s">
+        <v>589</v>
+      </c>
+      <c r="C57" t="s">
+        <v>368</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>:FlexiblePipeStructure :hasAttribute :MaximumAllowableTensionTable_MaximumAllowableTensile .</v>
+      </c>
+      <c r="E57" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>47</v>
+      </c>
+      <c r="B58" t="s">
+        <v>589</v>
+      </c>
+      <c r="C58" t="s">
+        <v>362</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v>:FlexiblePipeStructure :hasAttribute :TestConditions .</v>
+      </c>
+      <c r="E58" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>47</v>
+      </c>
+      <c r="B59" t="s">
+        <v>589</v>
+      </c>
+      <c r="C59" t="s">
+        <v>369</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="0"/>
+        <v>:FlexiblePipeStructure :hasAttribute :LayingMinimumRadiusTable .</v>
+      </c>
+      <c r="E59" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>47</v>
+      </c>
+      <c r="B60" t="s">
+        <v>589</v>
+      </c>
+      <c r="C60" t="s">
+        <v>370</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v>:FlexiblePipeStructure :hasAttribute :LayingMinimumRadiusTable_SectionSupportedByRigidSupport .</v>
+      </c>
+      <c r="E60" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>47</v>
+      </c>
+      <c r="B61" t="s">
+        <v>589</v>
+      </c>
+      <c r="C61" t="s">
+        <v>371</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="0"/>
+        <v>:FlexiblePipeStructure :hasAttribute :LayingMinimumRadiusTable_TensileArmourAnnulusCondition .</v>
+      </c>
+      <c r="E61" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>47</v>
+      </c>
+      <c r="B62" t="s">
+        <v>589</v>
+      </c>
+      <c r="C62" t="s">
+        <v>372</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="0"/>
+        <v>:FlexiblePipeStructure :hasAttribute :LayingMinimumRadiusTable_Compression .</v>
+      </c>
+      <c r="E62" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>47</v>
+      </c>
+      <c r="B63" t="s">
+        <v>589</v>
+      </c>
+      <c r="C63" t="s">
+        <v>373</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="0"/>
+        <v>:FlexiblePipeStructure :hasAttribute :LayingMinimumRadiusTable_AbsoluteExternalPressure .</v>
+      </c>
+      <c r="E63" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>47</v>
+      </c>
+      <c r="B64" t="s">
+        <v>589</v>
+      </c>
+      <c r="C64" t="s">
+        <v>374</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="0"/>
+        <v>:FlexiblePipeStructure :hasAttribute :LayingMinimumRadiusTable_AbsoluteInternalPressure .</v>
+      </c>
+      <c r="E64" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>47</v>
+      </c>
+      <c r="B65" t="s">
+        <v>589</v>
+      </c>
+      <c r="C65" t="s">
+        <v>375</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="0"/>
+        <v>:FlexiblePipeStructure :hasAttribute :LayingMinimumRadiusTable_MinimumAllowableBendingRadius .</v>
+      </c>
+      <c r="E65" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>47</v>
+      </c>
+      <c r="B66" t="s">
+        <v>589</v>
+      </c>
+      <c r="C66" t="s">
+        <v>376</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" ref="D66:D129" si="1">":"&amp;A66&amp;" "&amp;B66&amp;" "&amp;":"&amp;C66&amp;" ."</f>
+        <v>:FlexiblePipeStructure :hasAttribute :DimensioningCriteria .</v>
+      </c>
+      <c r="E66" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>47</v>
+      </c>
+      <c r="B67" t="s">
+        <v>589</v>
+      </c>
+      <c r="C67" t="s">
+        <v>362</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" si="1"/>
+        <v>:FlexiblePipeStructure :hasAttribute :TestConditions .</v>
+      </c>
+      <c r="E67" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>47</v>
+      </c>
+      <c r="B68" t="s">
+        <v>589</v>
+      </c>
+      <c r="C68" t="s">
+        <v>377</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="1"/>
+        <v>:FlexiblePipeStructure :hasAttribute :AbsoluteOutsidePressure .</v>
+      </c>
+      <c r="E68" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>47</v>
+      </c>
+      <c r="B69" t="s">
+        <v>589</v>
+      </c>
+      <c r="C69" t="s">
+        <v>378</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="1"/>
+        <v>:FlexiblePipeStructure :hasAttribute :PostSlippingBendingStiffness .</v>
+      </c>
+      <c r="E69" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>47</v>
+      </c>
+      <c r="B70" t="s">
+        <v>589</v>
+      </c>
+      <c r="C70" t="s">
+        <v>362</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="1"/>
+        <v>:FlexiblePipeStructure :hasAttribute :TestConditions .</v>
+      </c>
+      <c r="E70" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>47</v>
+      </c>
+      <c r="B71" t="s">
+        <v>589</v>
+      </c>
+      <c r="C71" t="s">
+        <v>379</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="1"/>
+        <v>:FlexiblePipeStructure :hasAttribute :InsideTemperature .</v>
+      </c>
+      <c r="E71" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>47</v>
+      </c>
+      <c r="B72" t="s">
+        <v>589</v>
+      </c>
+      <c r="C72" t="s">
+        <v>380</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="1"/>
+        <v>:FlexiblePipeStructure :hasAttribute :AbsoluteInsidePressure .</v>
+      </c>
+      <c r="E72" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>47</v>
+      </c>
+      <c r="B73" t="s">
+        <v>589</v>
+      </c>
+      <c r="C73" t="s">
+        <v>381</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="1"/>
+        <v>:FlexiblePipeStructure :hasAttribute :OutsideTemperature .</v>
+      </c>
+      <c r="E73" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>47</v>
+      </c>
+      <c r="B74" t="s">
+        <v>589</v>
+      </c>
+      <c r="C74" t="s">
+        <v>382</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="1"/>
+        <v>:FlexiblePipeStructure :hasAttribute :BendingMomentTable .</v>
+      </c>
+      <c r="E74" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>47</v>
+      </c>
+      <c r="B75" t="s">
+        <v>589</v>
+      </c>
+      <c r="C75" t="s">
+        <v>383</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="1"/>
+        <v>:FlexiblePipeStructure :hasAttribute :BendingMomentTable_BendingMoment .</v>
+      </c>
+      <c r="E75" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>47</v>
+      </c>
+      <c r="B76" t="s">
+        <v>589</v>
+      </c>
+      <c r="C76" t="s">
+        <v>384</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="1"/>
+        <v>:FlexiblePipeStructure :hasAttribute :BendingMomentTable_Curvature .</v>
+      </c>
+      <c r="E76" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>47</v>
+      </c>
+      <c r="B77" t="s">
+        <v>589</v>
+      </c>
+      <c r="C77" t="s">
+        <v>385</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="1"/>
+        <v>:FlexiblePipeStructure :hasAttribute :PreSlippingBendingStiffness .</v>
+      </c>
+      <c r="E77" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>47</v>
+      </c>
+      <c r="B78" t="s">
+        <v>589</v>
+      </c>
+      <c r="C78" t="s">
+        <v>386</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="1"/>
+        <v>:FlexiblePipeStructure :hasAttribute :CriticalCurvatureOfSlipping .</v>
+      </c>
+      <c r="E78" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>47</v>
+      </c>
+      <c r="B79" t="s">
+        <v>589</v>
+      </c>
+      <c r="C79" t="s">
+        <v>364</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="1"/>
+        <v>:FlexiblePipeStructure :hasAttribute :IntermediateValuesStrategy .</v>
+      </c>
+      <c r="E79" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>47</v>
+      </c>
+      <c r="B80" t="s">
+        <v>589</v>
+      </c>
+      <c r="C80" t="s">
+        <v>387</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="1"/>
+        <v>:FlexiblePipeStructure :hasAttribute :TensileArmourAnnulusCondition .</v>
+      </c>
+      <c r="E80" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>47</v>
+      </c>
+      <c r="B81" t="s">
+        <v>589</v>
+      </c>
+      <c r="C81" t="s">
+        <v>388</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="1"/>
+        <v>:FlexiblePipeStructure :hasAttribute :StructureApplicationsList .</v>
+      </c>
+      <c r="E81" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>47</v>
+      </c>
+      <c r="B82" t="s">
+        <v>589</v>
+      </c>
+      <c r="C82" t="s">
+        <v>389</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="1"/>
+        <v>:FlexiblePipeStructure :hasAttribute :AxialStiffnessUnderTensionAtSeaLevel .</v>
+      </c>
+      <c r="E82" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>47</v>
+      </c>
+      <c r="B83" t="s">
+        <v>589</v>
+      </c>
+      <c r="C83" t="s">
+        <v>390</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="1"/>
+        <v>:FlexiblePipeStructure :hasAttribute :LimpTorsionalStiffnessAtSeaLevel .</v>
+      </c>
+      <c r="E83" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>47</v>
+      </c>
+      <c r="B84" t="s">
+        <v>589</v>
+      </c>
+      <c r="C84" t="s">
+        <v>391</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="1"/>
+        <v>:FlexiblePipeStructure :hasAttribute :StructureCode .</v>
+      </c>
+      <c r="E84" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>47</v>
+      </c>
+      <c r="B85" t="s">
+        <v>589</v>
+      </c>
+      <c r="C85" t="s">
+        <v>392</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="1"/>
+        <v>:FlexiblePipeStructure :hasAttribute :TensileArmourFreeAnnulusVolume .</v>
+      </c>
+      <c r="E85" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>47</v>
+      </c>
+      <c r="B86" t="s">
+        <v>589</v>
+      </c>
+      <c r="C86" t="s">
+        <v>393</v>
+      </c>
+      <c r="D86" t="str">
+        <f t="shared" si="1"/>
+        <v>:FlexiblePipeStructure :hasAttribute :DamagingPullInStraightLine .</v>
+      </c>
+      <c r="E86" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>47</v>
+      </c>
+      <c r="B87" t="s">
+        <v>589</v>
+      </c>
+      <c r="C87" t="s">
+        <v>394</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" si="1"/>
+        <v>:FlexiblePipeStructure :hasAttribute :MinimumBendingRadiusForStorage .</v>
+      </c>
+      <c r="E87" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>47</v>
+      </c>
+      <c r="B88" t="s">
+        <v>589</v>
+      </c>
+      <c r="C88" t="s">
+        <v>395</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" si="1"/>
+        <v>:FlexiblePipeStructure :hasAttribute :AxialStiffnessUnderCompressionAtSeaLevel .</v>
+      </c>
+      <c r="E88" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>47</v>
+      </c>
+      <c r="B89" t="s">
+        <v>589</v>
+      </c>
+      <c r="C89" t="s">
+        <v>396</v>
+      </c>
+      <c r="D89" t="str">
+        <f t="shared" si="1"/>
+        <v>:FlexiblePipeStructure :hasAttribute :SpoolingTension .</v>
+      </c>
+      <c r="E89" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>47</v>
+      </c>
+      <c r="B90" t="s">
+        <v>589</v>
+      </c>
+      <c r="C90" t="s">
+        <v>397</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="1"/>
+        <v>:FlexiblePipeStructure :hasAttribute :StiffTorsionalStiffnessAtSeaLevel .</v>
+      </c>
+      <c r="E90" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>47</v>
+      </c>
+      <c r="B91" t="s">
+        <v>589</v>
+      </c>
+      <c r="C91" t="s">
+        <v>398</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="1"/>
+        <v>:FlexiblePipeStructure :hasAttribute :CalculatedAbsoluteBurstPressure .</v>
+      </c>
+      <c r="E91" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>47</v>
+      </c>
+      <c r="B92" t="s">
+        <v>589</v>
+      </c>
+      <c r="C92" t="s">
+        <v>399</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" si="1"/>
+        <v>:FlexiblePipeStructure :hasAttribute :ErosionalVelocity .</v>
+      </c>
+      <c r="E92" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>47</v>
+      </c>
+      <c r="B93" t="s">
+        <v>589</v>
+      </c>
+      <c r="C93" t="s">
+        <v>400</v>
+      </c>
+      <c r="D93" t="str">
+        <f t="shared" si="1"/>
+        <v>:FlexiblePipeStructure :hasAttribute :FrictionCoefBetweenPipeAndTensioner .</v>
+      </c>
+      <c r="E93" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>47</v>
+      </c>
+      <c r="B94" t="s">
+        <v>589</v>
+      </c>
+      <c r="C94" t="s">
+        <v>401</v>
+      </c>
+      <c r="D94" t="str">
+        <f t="shared" si="1"/>
+        <v>:FlexiblePipeStructure :hasAttribute :HydrostaticCollapseAbsPressDry .</v>
+      </c>
+      <c r="E94" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>47</v>
+      </c>
+      <c r="B95" t="s">
+        <v>589</v>
+      </c>
+      <c r="C95" t="s">
+        <v>402</v>
+      </c>
+      <c r="D95" t="str">
+        <f t="shared" si="1"/>
+        <v>:FlexiblePipeStructure :hasAttribute :OuterDiameter .</v>
+      </c>
+      <c r="E95" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>47</v>
+      </c>
+      <c r="B96" t="s">
+        <v>589</v>
+      </c>
+      <c r="C96" t="s">
+        <v>403</v>
+      </c>
+      <c r="D96" t="str">
+        <f t="shared" si="1"/>
+        <v>:FlexiblePipeStructure :hasAttribute :ThermalExchangeCoefficientFlooded .</v>
+      </c>
+      <c r="E96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>47</v>
+      </c>
+      <c r="B97" t="s">
+        <v>589</v>
+      </c>
+      <c r="C97" t="s">
+        <v>404</v>
+      </c>
+      <c r="D97" t="str">
+        <f t="shared" si="1"/>
+        <v>:FlexiblePipeStructure :hasAttribute :FlexibleStructureServicesList .</v>
+      </c>
+      <c r="E97" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>47</v>
+      </c>
+      <c r="B98" t="s">
+        <v>589</v>
+      </c>
+      <c r="C98" t="s">
+        <v>405</v>
+      </c>
+      <c r="D98" t="str">
+        <f t="shared" si="1"/>
+        <v>:FlexiblePipeStructure :hasAttribute :LinearMass .</v>
+      </c>
+      <c r="E98" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>47</v>
+      </c>
+      <c r="B99" t="s">
+        <v>589</v>
+      </c>
+      <c r="C99" t="s">
+        <v>342</v>
+      </c>
+      <c r="D99" t="str">
+        <f t="shared" si="1"/>
+        <v>:FlexiblePipeStructure :hasAttribute :InternalDiameter .</v>
+      </c>
+      <c r="E99" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>47</v>
+      </c>
+      <c r="B100" t="s">
+        <v>589</v>
+      </c>
+      <c r="C100" t="s">
+        <v>406</v>
+      </c>
+      <c r="D100" t="str">
+        <f t="shared" si="1"/>
+        <v>:FlexiblePipeStructure :hasAttribute :MaximumAllowableTensileForStraightLine .</v>
+      </c>
+      <c r="E100" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>47</v>
+      </c>
+      <c r="B101" t="s">
+        <v>589</v>
+      </c>
+      <c r="C101" t="s">
+        <v>407</v>
+      </c>
+      <c r="D101" t="str">
+        <f t="shared" si="1"/>
+        <v>:FlexiblePipeStructure :hasAttribute :MaxDesignPressure .</v>
+      </c>
+      <c r="E101" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>47</v>
+      </c>
+      <c r="B102" t="s">
+        <v>589</v>
+      </c>
+      <c r="C102" t="s">
+        <v>356</v>
+      </c>
+      <c r="D102" t="str">
+        <f t="shared" si="1"/>
+        <v>:FlexiblePipeStructure :hasAttribute :TensionerPadsMaterial .</v>
+      </c>
+      <c r="E102" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>47</v>
+      </c>
+      <c r="B103" t="s">
+        <v>589</v>
+      </c>
+      <c r="C103" t="s">
+        <v>364</v>
+      </c>
+      <c r="D103" t="str">
+        <f t="shared" si="1"/>
+        <v>:FlexiblePipeStructure :hasAttribute :IntermediateValuesStrategy .</v>
+      </c>
+      <c r="E103" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>47</v>
+      </c>
+      <c r="B104" t="s">
+        <v>589</v>
+      </c>
+      <c r="C104" t="s">
+        <v>361</v>
+      </c>
+      <c r="D104" t="str">
+        <f t="shared" si="1"/>
+        <v>:FlexiblePipeStructure :hasAttribute :MaximumAmbientTemperature .</v>
+      </c>
+      <c r="E104" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>47</v>
+      </c>
+      <c r="B105" t="s">
+        <v>589</v>
+      </c>
+      <c r="C105" t="s">
+        <v>357</v>
+      </c>
+      <c r="D105" t="str">
+        <f t="shared" si="1"/>
+        <v>:FlexiblePipeStructure :hasAttribute :UtilizationFactor .</v>
+      </c>
+      <c r="E105" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>47</v>
+      </c>
+      <c r="B106" t="s">
+        <v>589</v>
+      </c>
+      <c r="C106" t="s">
+        <v>408</v>
+      </c>
+      <c r="D106" t="str">
+        <f t="shared" si="1"/>
+        <v>:FlexiblePipeStructure :hasAttribute :MaximumAllowableTighteningTable .</v>
+      </c>
+      <c r="E106" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>47</v>
+      </c>
+      <c r="B107" t="s">
+        <v>589</v>
+      </c>
+      <c r="C107" t="s">
+        <v>409</v>
+      </c>
+      <c r="D107" t="str">
+        <f t="shared" si="1"/>
+        <v>:FlexiblePipeStructure :hasAttribute :MaximumAllowableTighteningTable_TighteningPerTrack .</v>
+      </c>
+      <c r="E107" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>47</v>
+      </c>
+      <c r="B108" t="s">
+        <v>589</v>
+      </c>
+      <c r="C108" t="s">
+        <v>410</v>
+      </c>
+      <c r="D108" t="str">
+        <f t="shared" si="1"/>
+        <v>:FlexiblePipeStructure :hasAttribute :MaximumAllowableTighteningTable_AxialLoad .</v>
+      </c>
+      <c r="E108" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>47</v>
+      </c>
+      <c r="B109" t="s">
+        <v>589</v>
+      </c>
+      <c r="C109" t="s">
+        <v>354</v>
+      </c>
+      <c r="D109" t="str">
+        <f t="shared" si="1"/>
+        <v>:FlexiblePipeStructure :hasAttribute :TensionerPadsShape .</v>
+      </c>
+      <c r="E109" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>47</v>
+      </c>
+      <c r="B110" t="s">
+        <v>589</v>
+      </c>
+      <c r="C110" t="s">
+        <v>355</v>
+      </c>
+      <c r="D110" t="str">
+        <f t="shared" si="1"/>
+        <v>:FlexiblePipeStructure :hasAttribute :TensionerPadsOpeningAngle .</v>
+      </c>
+      <c r="E110" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>47</v>
+      </c>
+      <c r="B111" t="s">
+        <v>589</v>
+      </c>
+      <c r="C111" t="s">
+        <v>362</v>
+      </c>
+      <c r="D111" t="str">
+        <f t="shared" si="1"/>
+        <v>:FlexiblePipeStructure :hasAttribute :TestConditions .</v>
+      </c>
+      <c r="E111" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>47</v>
+      </c>
+      <c r="B112" t="s">
+        <v>589</v>
+      </c>
+      <c r="C112" t="s">
+        <v>363</v>
+      </c>
+      <c r="D112" t="str">
+        <f t="shared" si="1"/>
+        <v>:FlexiblePipeStructure :hasAttribute :TensionerTracksQuantity .</v>
+      </c>
+      <c r="E112" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>262</v>
+      </c>
+      <c r="B113" t="s">
+        <v>589</v>
+      </c>
+      <c r="C113" t="s">
+        <v>411</v>
+      </c>
+      <c r="D113" t="str">
+        <f t="shared" si="1"/>
+        <v>:BuoyancyModule :hasAttribute :NominalFloatVolume .</v>
+      </c>
+      <c r="E113" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>262</v>
+      </c>
+      <c r="B114" t="s">
+        <v>589</v>
+      </c>
+      <c r="C114" t="s">
+        <v>412</v>
+      </c>
+      <c r="D114" t="str">
+        <f t="shared" si="1"/>
+        <v>:BuoyancyModule :hasAttribute :LongTermFloatVolume .</v>
+      </c>
+      <c r="E114" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>262</v>
+      </c>
+      <c r="B115" t="s">
+        <v>589</v>
+      </c>
+      <c r="C115" t="s">
+        <v>413</v>
+      </c>
+      <c r="D115" t="str">
+        <f t="shared" si="1"/>
+        <v>:BuoyancyModule :hasAttribute :ShortTermFloatVolume .</v>
+      </c>
+      <c r="E115" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>262</v>
+      </c>
+      <c r="B116" t="s">
+        <v>589</v>
+      </c>
+      <c r="C116" t="s">
+        <v>414</v>
+      </c>
+      <c r="D116" t="str">
+        <f t="shared" si="1"/>
+        <v>:BuoyancyModule :hasAttribute :LongTermFloatDensity .</v>
+      </c>
+      <c r="E116" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>262</v>
+      </c>
+      <c r="B117" t="s">
+        <v>589</v>
+      </c>
+      <c r="C117" t="s">
+        <v>415</v>
+      </c>
+      <c r="D117" t="str">
+        <f t="shared" si="1"/>
+        <v>:BuoyancyModule :hasAttribute :NominalFloatDensity .</v>
+      </c>
+      <c r="E117" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>262</v>
+      </c>
+      <c r="B118" t="s">
+        <v>589</v>
+      </c>
+      <c r="C118" t="s">
+        <v>416</v>
+      </c>
+      <c r="D118" t="str">
+        <f t="shared" si="1"/>
+        <v>:BuoyancyModule :hasAttribute :ShortTermFloatDensity .</v>
+      </c>
+      <c r="E118" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>133</v>
+      </c>
+      <c r="B119" t="s">
+        <v>589</v>
+      </c>
+      <c r="C119" t="s">
+        <v>417</v>
+      </c>
+      <c r="D119" t="str">
+        <f t="shared" si="1"/>
+        <v>:HangOffCollar :hasAttribute :UpperItubeDiameter .</v>
+      </c>
+      <c r="E119" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>133</v>
+      </c>
+      <c r="B120" t="s">
+        <v>589</v>
+      </c>
+      <c r="C120" t="s">
+        <v>418</v>
+      </c>
+      <c r="D120" t="str">
+        <f t="shared" si="1"/>
+        <v>:HangOffCollar :hasAttribute :MaxDynamicLoad .</v>
+      </c>
+      <c r="E120" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>133</v>
+      </c>
+      <c r="B121" t="s">
+        <v>589</v>
+      </c>
+      <c r="C121" t="s">
+        <v>419</v>
+      </c>
+      <c r="D121" t="str">
+        <f t="shared" si="1"/>
+        <v>:HangOffCollar :hasAttribute :SafeWorkingLoad .</v>
+      </c>
+      <c r="E121" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>133</v>
+      </c>
+      <c r="B122" t="s">
+        <v>589</v>
+      </c>
+      <c r="C122" t="s">
+        <v>420</v>
+      </c>
+      <c r="D122" t="str">
+        <f t="shared" si="1"/>
+        <v>:HangOffCollar :hasAttribute :FlangeType .</v>
+      </c>
+      <c r="E122" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>133</v>
+      </c>
+      <c r="B123" t="s">
+        <v>589</v>
+      </c>
+      <c r="C123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D123" t="str">
+        <f t="shared" si="1"/>
+        <v>:HangOffCollar :hasAttribute :CollarInternalDiameter .</v>
+      </c>
+      <c r="E123" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>54</v>
+      </c>
+      <c r="B124" t="s">
+        <v>589</v>
+      </c>
+      <c r="C124" t="s">
+        <v>422</v>
+      </c>
+      <c r="D124" t="str">
+        <f t="shared" si="1"/>
+        <v>:UNSStudSet :hasAttribute :PitchToleranceClass .</v>
+      </c>
+      <c r="E124" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>54</v>
+      </c>
+      <c r="B125" t="s">
+        <v>589</v>
+      </c>
+      <c r="C125" t="s">
+        <v>423</v>
+      </c>
+      <c r="D125" t="str">
+        <f t="shared" si="1"/>
+        <v>:UNSStudSet :hasAttribute :ThreadStandard .</v>
+      </c>
+      <c r="E125" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>54</v>
+      </c>
+      <c r="B126" t="s">
+        <v>589</v>
+      </c>
+      <c r="C126" t="s">
+        <v>424</v>
+      </c>
+      <c r="D126" t="str">
+        <f t="shared" si="1"/>
+        <v>:UNSStudSet :hasAttribute :ThreadsPerInch .</v>
+      </c>
+      <c r="E126" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>56</v>
+      </c>
+      <c r="B127" t="s">
+        <v>589</v>
+      </c>
+      <c r="C127" t="s">
+        <v>425</v>
+      </c>
+      <c r="D127" t="str">
+        <f t="shared" si="1"/>
+        <v>:FlexibleStructureLayerMaterial :hasAttribute :ThermalConductivityCoefficient .</v>
+      </c>
+      <c r="E127" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>56</v>
+      </c>
+      <c r="B128" t="s">
+        <v>589</v>
+      </c>
+      <c r="C128" t="s">
+        <v>426</v>
+      </c>
+      <c r="D128" t="str">
+        <f t="shared" si="1"/>
+        <v>:FlexibleStructureLayerMaterial :hasAttribute :SpecificHeatCapacity .</v>
+      </c>
+      <c r="E128" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>56</v>
+      </c>
+      <c r="B129" t="s">
+        <v>589</v>
+      </c>
+      <c r="C129" t="s">
+        <v>427</v>
+      </c>
+      <c r="D129" t="str">
+        <f t="shared" si="1"/>
+        <v>:FlexibleStructureLayerMaterial :hasAttribute :SpecificWeight .</v>
+      </c>
+      <c r="E129" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>56</v>
+      </c>
+      <c r="B130" t="s">
+        <v>589</v>
+      </c>
+      <c r="C130" t="s">
+        <v>428</v>
+      </c>
+      <c r="D130" t="str">
+        <f t="shared" ref="D130:D193" si="2">":"&amp;A130&amp;" "&amp;B130&amp;" "&amp;":"&amp;C130&amp;" ."</f>
+        <v>:FlexibleStructureLayerMaterial :hasAttribute :PoissonRatioAt23Degrees .</v>
+      </c>
+      <c r="E130" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>56</v>
+      </c>
+      <c r="B131" t="s">
+        <v>589</v>
+      </c>
+      <c r="C131" t="s">
+        <v>429</v>
+      </c>
+      <c r="D131" t="str">
+        <f t="shared" si="2"/>
+        <v>:FlexibleStructureLayerMaterial :hasAttribute :ElasticityModulusAt23Degrees .</v>
+      </c>
+      <c r="E131" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>56</v>
+      </c>
+      <c r="B132" t="s">
+        <v>589</v>
+      </c>
+      <c r="C132" t="s">
+        <v>430</v>
+      </c>
+      <c r="D132" t="str">
+        <f t="shared" si="2"/>
+        <v>:FlexibleStructureLayerMaterial :hasAttribute :MaterialComposition .</v>
+      </c>
+      <c r="E132" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>56</v>
+      </c>
+      <c r="B133" t="s">
+        <v>589</v>
+      </c>
+      <c r="C133" t="s">
+        <v>431</v>
+      </c>
+      <c r="D133" t="str">
+        <f t="shared" si="2"/>
+        <v>:FlexibleStructureLayerMaterial :hasAttribute :TechnicalNotes .</v>
+      </c>
+      <c r="E133" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>66</v>
+      </c>
+      <c r="B134" t="s">
+        <v>589</v>
+      </c>
+      <c r="C134" t="s">
+        <v>432</v>
+      </c>
+      <c r="D134" t="str">
+        <f t="shared" si="2"/>
+        <v>:RingGasket :hasAttribute :RingGasketOuterDiameter .</v>
+      </c>
+      <c r="E134" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>66</v>
+      </c>
+      <c r="B135" t="s">
+        <v>589</v>
+      </c>
+      <c r="C135" t="s">
+        <v>433</v>
+      </c>
+      <c r="D135" t="str">
+        <f t="shared" si="2"/>
+        <v>:RingGasket :hasAttribute :RingGasketPressureRating .</v>
+      </c>
+      <c r="E135" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>66</v>
+      </c>
+      <c r="B136" t="s">
+        <v>589</v>
+      </c>
+      <c r="C136" t="s">
+        <v>434</v>
+      </c>
+      <c r="D136" t="str">
+        <f t="shared" si="2"/>
+        <v>:RingGasket :hasAttribute :RingGasketStandard .</v>
+      </c>
+      <c r="E136" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>66</v>
+      </c>
+      <c r="B137" t="s">
+        <v>589</v>
+      </c>
+      <c r="C137" t="s">
+        <v>435</v>
+      </c>
+      <c r="D137" t="str">
+        <f t="shared" si="2"/>
+        <v>:RingGasket :hasAttribute :RingGasketSpecification .</v>
+      </c>
+      <c r="E137" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>66</v>
+      </c>
+      <c r="B138" t="s">
+        <v>589</v>
+      </c>
+      <c r="C138" t="s">
+        <v>436</v>
+      </c>
+      <c r="D138" t="str">
+        <f t="shared" si="2"/>
+        <v>:RingGasket :hasAttribute :RingGasketInnerDIameter .</v>
+      </c>
+      <c r="E138" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>66</v>
+      </c>
+      <c r="B139" t="s">
+        <v>589</v>
+      </c>
+      <c r="C139" t="s">
+        <v>437</v>
+      </c>
+      <c r="D139" t="str">
+        <f t="shared" si="2"/>
+        <v>:RingGasket :hasAttribute :RingGasketType .</v>
+      </c>
+      <c r="E139" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>66</v>
+      </c>
+      <c r="B140" t="s">
+        <v>589</v>
+      </c>
+      <c r="C140" t="s">
+        <v>438</v>
+      </c>
+      <c r="D140" t="str">
+        <f t="shared" si="2"/>
+        <v>:RingGasket :hasAttribute :RingGasketMaterial .</v>
+      </c>
+      <c r="E140" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>73</v>
+      </c>
+      <c r="B141" t="s">
+        <v>589</v>
+      </c>
+      <c r="C141" t="s">
+        <v>439</v>
+      </c>
+      <c r="D141" t="str">
+        <f t="shared" si="2"/>
+        <v>:Shackle :hasAttribute :ShackleOuterDiameter .</v>
+      </c>
+      <c r="E141" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>73</v>
+      </c>
+      <c r="B142" t="s">
+        <v>589</v>
+      </c>
+      <c r="C142" t="s">
+        <v>440</v>
+      </c>
+      <c r="D142" t="str">
+        <f t="shared" si="2"/>
+        <v>:Shackle :hasAttribute :ShackleThickness .</v>
+      </c>
+      <c r="E142" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>73</v>
+      </c>
+      <c r="B143" t="s">
+        <v>589</v>
+      </c>
+      <c r="C143" t="s">
+        <v>441</v>
+      </c>
+      <c r="D143" t="str">
+        <f t="shared" si="2"/>
+        <v>:Shackle :hasAttribute :ShackleInnerDiameter .</v>
+      </c>
+      <c r="E143" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>73</v>
+      </c>
+      <c r="B144" t="s">
+        <v>589</v>
+      </c>
+      <c r="C144" t="s">
+        <v>442</v>
+      </c>
+      <c r="D144" t="str">
+        <f t="shared" si="2"/>
+        <v>:Shackle :hasAttribute :ShackleOpeningWidth .</v>
+      </c>
+      <c r="E144" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>73</v>
+      </c>
+      <c r="B145" t="s">
+        <v>589</v>
+      </c>
+      <c r="C145" t="s">
+        <v>443</v>
+      </c>
+      <c r="D145" t="str">
+        <f t="shared" si="2"/>
+        <v>:Shackle :hasAttribute :WorkingLoadLimit .</v>
+      </c>
+      <c r="E145" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>74</v>
+      </c>
+      <c r="B146" t="s">
+        <v>589</v>
+      </c>
+      <c r="C146" t="s">
+        <v>422</v>
+      </c>
+      <c r="D146" t="str">
+        <f t="shared" si="2"/>
+        <v>:MetricStudSet :hasAttribute :PitchToleranceClass .</v>
+      </c>
+      <c r="E146" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>74</v>
+      </c>
+      <c r="B147" t="s">
+        <v>589</v>
+      </c>
+      <c r="C147" t="s">
+        <v>423</v>
+      </c>
+      <c r="D147" t="str">
+        <f t="shared" si="2"/>
+        <v>:MetricStudSet :hasAttribute :ThreadStandard .</v>
+      </c>
+      <c r="E147" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>74</v>
+      </c>
+      <c r="B148" t="s">
+        <v>589</v>
+      </c>
+      <c r="C148" t="s">
+        <v>444</v>
+      </c>
+      <c r="D148" t="str">
+        <f t="shared" si="2"/>
+        <v>:MetricStudSet :hasAttribute :ThreadPitch .</v>
+      </c>
+      <c r="E148" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>76</v>
+      </c>
+      <c r="B149" t="s">
+        <v>589</v>
+      </c>
+      <c r="C149" t="s">
+        <v>445</v>
+      </c>
+      <c r="D149" t="str">
+        <f t="shared" si="2"/>
+        <v>:SplitCollar :hasAttribute :PipeMountPosition .</v>
+      </c>
+      <c r="E149" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>91</v>
+      </c>
+      <c r="B150" t="s">
+        <v>589</v>
+      </c>
+      <c r="C150" t="s">
+        <v>446</v>
+      </c>
+      <c r="D150" t="str">
+        <f t="shared" si="2"/>
+        <v>:StudSet :hasAttribute :AssemblyTorque .</v>
+      </c>
+      <c r="E150" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>91</v>
+      </c>
+      <c r="B151" t="s">
+        <v>589</v>
+      </c>
+      <c r="C151" t="s">
+        <v>447</v>
+      </c>
+      <c r="D151" t="str">
+        <f t="shared" si="2"/>
+        <v>:StudSet :hasAttribute :Lubricant .</v>
+      </c>
+      <c r="E151" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>91</v>
+      </c>
+      <c r="B152" t="s">
+        <v>589</v>
+      </c>
+      <c r="C152" t="s">
+        <v>448</v>
+      </c>
+      <c r="D152" t="str">
+        <f t="shared" si="2"/>
+        <v>:StudSet :hasAttribute :LubricantFrictionFactor .</v>
+      </c>
+      <c r="E152" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>91</v>
+      </c>
+      <c r="B153" t="s">
+        <v>589</v>
+      </c>
+      <c r="C153" t="s">
+        <v>449</v>
+      </c>
+      <c r="D153" t="str">
+        <f t="shared" si="2"/>
+        <v>:StudSet :hasAttribute :Quantity .</v>
+      </c>
+      <c r="E153" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>91</v>
+      </c>
+      <c r="B154" t="s">
+        <v>589</v>
+      </c>
+      <c r="C154" t="s">
+        <v>450</v>
+      </c>
+      <c r="D154" t="str">
+        <f t="shared" si="2"/>
+        <v>:StudSet :hasAttribute :NominalDiameter .</v>
+      </c>
+      <c r="E154" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>91</v>
+      </c>
+      <c r="B155" t="s">
+        <v>589</v>
+      </c>
+      <c r="C155" t="s">
+        <v>451</v>
+      </c>
+      <c r="D155" t="str">
+        <f t="shared" si="2"/>
+        <v>:StudSet :hasAttribute :SpareQuantity .</v>
+      </c>
+      <c r="E155" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>91</v>
+      </c>
+      <c r="B156" t="s">
+        <v>589</v>
+      </c>
+      <c r="C156" t="s">
+        <v>452</v>
+      </c>
+      <c r="D156" t="str">
+        <f t="shared" si="2"/>
+        <v>:StudSet :hasAttribute :FullyThreaded .</v>
+      </c>
+      <c r="E156" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>112</v>
+      </c>
+      <c r="B157" t="s">
+        <v>589</v>
+      </c>
+      <c r="C157" t="s">
+        <v>453</v>
+      </c>
+      <c r="D157" t="str">
+        <f t="shared" si="2"/>
+        <v>:PolymericMaterial :hasAttribute :MaxPermissibleDeformationDynamic .</v>
+      </c>
+      <c r="E157" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>112</v>
+      </c>
+      <c r="B158" t="s">
+        <v>589</v>
+      </c>
+      <c r="C158" t="s">
+        <v>454</v>
+      </c>
+      <c r="D158" t="str">
+        <f t="shared" si="2"/>
+        <v>:PolymericMaterial :hasAttribute :DiffusionTable .</v>
+      </c>
+      <c r="E158" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>112</v>
+      </c>
+      <c r="B159" t="s">
+        <v>589</v>
+      </c>
+      <c r="C159" t="s">
+        <v>455</v>
+      </c>
+      <c r="D159" t="str">
+        <f t="shared" si="2"/>
+        <v>:PolymericMaterial :hasAttribute :DiffusionTable_DiffusionCoefficient .</v>
+      </c>
+      <c r="E159" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>112</v>
+      </c>
+      <c r="B160" t="s">
+        <v>589</v>
+      </c>
+      <c r="C160" t="s">
+        <v>456</v>
+      </c>
+      <c r="D160" t="str">
+        <f t="shared" si="2"/>
+        <v>:PolymericMaterial :hasAttribute :DiffusionTable_PolymerState .</v>
+      </c>
+      <c r="E160" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>112</v>
+      </c>
+      <c r="B161" t="s">
+        <v>589</v>
+      </c>
+      <c r="C161" t="s">
+        <v>457</v>
+      </c>
+      <c r="D161" t="str">
+        <f t="shared" si="2"/>
+        <v>:PolymericMaterial :hasAttribute :DiffusionTable_Temperature .</v>
+      </c>
+      <c r="E161" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>112</v>
+      </c>
+      <c r="B162" t="s">
+        <v>589</v>
+      </c>
+      <c r="C162" t="s">
+        <v>458</v>
+      </c>
+      <c r="D162" t="str">
+        <f t="shared" si="2"/>
+        <v>:PolymericMaterial :hasAttribute :DiffusionTable_MoleculeIdentifier .</v>
+      </c>
+      <c r="E162" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>112</v>
+      </c>
+      <c r="B163" t="s">
+        <v>589</v>
+      </c>
+      <c r="C163" t="s">
+        <v>459</v>
+      </c>
+      <c r="D163" t="str">
+        <f t="shared" si="2"/>
+        <v>:PolymericMaterial :hasAttribute :SolubilityTable .</v>
+      </c>
+      <c r="E163" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>112</v>
+      </c>
+      <c r="B164" t="s">
+        <v>589</v>
+      </c>
+      <c r="C164" t="s">
+        <v>460</v>
+      </c>
+      <c r="D164" t="str">
+        <f t="shared" si="2"/>
+        <v>:PolymericMaterial :hasAttribute :SolubilityTable_MoleculeIdentifier .</v>
+      </c>
+      <c r="E164" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>112</v>
+      </c>
+      <c r="B165" t="s">
+        <v>589</v>
+      </c>
+      <c r="C165" t="s">
+        <v>461</v>
+      </c>
+      <c r="D165" t="str">
+        <f t="shared" si="2"/>
+        <v>:PolymericMaterial :hasAttribute :SolubilityTable_PolymerState .</v>
+      </c>
+      <c r="E165" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>112</v>
+      </c>
+      <c r="B166" t="s">
+        <v>589</v>
+      </c>
+      <c r="C166" t="s">
+        <v>462</v>
+      </c>
+      <c r="D166" t="str">
+        <f t="shared" si="2"/>
+        <v>:PolymericMaterial :hasAttribute :SolubilityTable_Temperature .</v>
+      </c>
+      <c r="E166" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>112</v>
+      </c>
+      <c r="B167" t="s">
+        <v>589</v>
+      </c>
+      <c r="C167" t="s">
+        <v>463</v>
+      </c>
+      <c r="D167" t="str">
+        <f t="shared" si="2"/>
+        <v>:PolymericMaterial :hasAttribute :SolubilityTable_SolubilityCoefficient .</v>
+      </c>
+      <c r="E167" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>112</v>
+      </c>
+      <c r="B168" t="s">
+        <v>589</v>
+      </c>
+      <c r="C168" t="s">
+        <v>464</v>
+      </c>
+      <c r="D168" t="str">
+        <f t="shared" si="2"/>
+        <v>:PolymericMaterial :hasAttribute :MinimumTemperature .</v>
+      </c>
+      <c r="E168" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>112</v>
+      </c>
+      <c r="B169" t="s">
+        <v>589</v>
+      </c>
+      <c r="C169" t="s">
+        <v>465</v>
+      </c>
+      <c r="D169" t="str">
+        <f t="shared" si="2"/>
+        <v>:PolymericMaterial :hasAttribute :PermeabilityTable .</v>
+      </c>
+      <c r="E169" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>112</v>
+      </c>
+      <c r="B170" t="s">
+        <v>589</v>
+      </c>
+      <c r="C170" t="s">
+        <v>466</v>
+      </c>
+      <c r="D170" t="str">
+        <f t="shared" si="2"/>
+        <v>:PolymericMaterial :hasAttribute :PermeabilityTable_PolymerState .</v>
+      </c>
+      <c r="E170" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>112</v>
+      </c>
+      <c r="B171" t="s">
+        <v>589</v>
+      </c>
+      <c r="C171" t="s">
+        <v>467</v>
+      </c>
+      <c r="D171" t="str">
+        <f t="shared" si="2"/>
+        <v>:PolymericMaterial :hasAttribute :PermeabilityTable_Temperature .</v>
+      </c>
+      <c r="E171" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>112</v>
+      </c>
+      <c r="B172" t="s">
+        <v>589</v>
+      </c>
+      <c r="C172" t="s">
+        <v>468</v>
+      </c>
+      <c r="D172" t="str">
+        <f t="shared" si="2"/>
+        <v>:PolymericMaterial :hasAttribute :PermeabilityTable_PermeabilityCoefficient .</v>
+      </c>
+      <c r="E172" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>112</v>
+      </c>
+      <c r="B173" t="s">
+        <v>589</v>
+      </c>
+      <c r="C173" t="s">
+        <v>469</v>
+      </c>
+      <c r="D173" t="str">
+        <f t="shared" si="2"/>
+        <v>:PolymericMaterial :hasAttribute :PermeabilityTable_MoleculeIdentifier .</v>
+      </c>
+      <c r="E173" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>112</v>
+      </c>
+      <c r="B174" t="s">
+        <v>589</v>
+      </c>
+      <c r="C174" t="s">
+        <v>470</v>
+      </c>
+      <c r="D174" t="str">
+        <f t="shared" si="2"/>
+        <v>:PolymericMaterial :hasAttribute :MaxPermissibleDeformationStatic .</v>
+      </c>
+      <c r="E174" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>112</v>
+      </c>
+      <c r="B175" t="s">
+        <v>589</v>
+      </c>
+      <c r="C175" t="s">
+        <v>471</v>
+      </c>
+      <c r="D175" t="str">
+        <f t="shared" si="2"/>
+        <v>:PolymericMaterial :hasAttribute :EModVsTempTable_ElasticityModulus .</v>
+      </c>
+      <c r="E175" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>112</v>
+      </c>
+      <c r="B176" t="s">
+        <v>589</v>
+      </c>
+      <c r="C176" t="s">
+        <v>472</v>
+      </c>
+      <c r="D176" t="str">
+        <f t="shared" si="2"/>
+        <v>:PolymericMaterial :hasAttribute :PolymericLayerMaterialType .</v>
+      </c>
+      <c r="E176" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>24</v>
+      </c>
+      <c r="B177" t="s">
+        <v>589</v>
+      </c>
+      <c r="C177" t="s">
+        <v>473</v>
+      </c>
+      <c r="D177" t="str">
+        <f t="shared" si="2"/>
+        <v>:PullInCollar :hasAttribute :WireRopeQuantity .</v>
+      </c>
+      <c r="E177" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>24</v>
+      </c>
+      <c r="B178" t="s">
+        <v>589</v>
+      </c>
+      <c r="C178" t="s">
+        <v>474</v>
+      </c>
+      <c r="D178" t="str">
+        <f t="shared" si="2"/>
+        <v>:PullInCollar :hasAttribute :WireRopeSlingLength .</v>
+      </c>
+      <c r="E178" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>24</v>
+      </c>
+      <c r="B179" t="s">
+        <v>589</v>
+      </c>
+      <c r="C179" t="s">
+        <v>475</v>
+      </c>
+      <c r="D179" t="str">
+        <f t="shared" si="2"/>
+        <v>:PullInCollar :hasAttribute :WireRopeSlingDiameter .</v>
+      </c>
+      <c r="E179" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>114</v>
+      </c>
+      <c r="B180" t="s">
+        <v>589</v>
+      </c>
+      <c r="C180" t="s">
+        <v>422</v>
+      </c>
+      <c r="D180" t="str">
+        <f t="shared" si="2"/>
+        <v>:UNSBoltSet :hasAttribute :PitchToleranceClass .</v>
+      </c>
+      <c r="E180" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>114</v>
+      </c>
+      <c r="B181" t="s">
+        <v>589</v>
+      </c>
+      <c r="C181" t="s">
+        <v>423</v>
+      </c>
+      <c r="D181" t="str">
+        <f t="shared" si="2"/>
+        <v>:UNSBoltSet :hasAttribute :ThreadStandard .</v>
+      </c>
+      <c r="E181" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>114</v>
+      </c>
+      <c r="B182" t="s">
+        <v>589</v>
+      </c>
+      <c r="C182" t="s">
+        <v>424</v>
+      </c>
+      <c r="D182" t="str">
+        <f t="shared" si="2"/>
+        <v>:UNSBoltSet :hasAttribute :ThreadsPerInch .</v>
+      </c>
+      <c r="E182" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>114</v>
+      </c>
+      <c r="B183" t="s">
+        <v>589</v>
+      </c>
+      <c r="C183" t="s">
+        <v>450</v>
+      </c>
+      <c r="D183" t="str">
+        <f t="shared" si="2"/>
+        <v>:UNSBoltSet :hasAttribute :NominalDiameter .</v>
+      </c>
+      <c r="E183" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>115</v>
+      </c>
+      <c r="B184" t="s">
+        <v>589</v>
+      </c>
+      <c r="C184" t="s">
+        <v>476</v>
+      </c>
+      <c r="D184" t="str">
+        <f t="shared" si="2"/>
+        <v>:FlexiblePipeSegment :hasAttribute :EarlyLeakMaxPressTable_PressValRef .</v>
+      </c>
+      <c r="E184" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>115</v>
+      </c>
+      <c r="B185" t="s">
+        <v>589</v>
+      </c>
+      <c r="C185" t="s">
+        <v>477</v>
+      </c>
+      <c r="D185" t="str">
+        <f t="shared" si="2"/>
+        <v>:FlexiblePipeSegment :hasAttribute :StrIntOnNoTensNomPressValRef .</v>
+      </c>
+      <c r="E185" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>115</v>
+      </c>
+      <c r="B186" t="s">
+        <v>589</v>
+      </c>
+      <c r="C186" t="s">
+        <v>478</v>
+      </c>
+      <c r="D186" t="str">
+        <f t="shared" si="2"/>
+        <v>:FlexiblePipeSegment :hasAttribute :OffLeakPLevMaxPress .</v>
+      </c>
+      <c r="E186" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>115</v>
+      </c>
+      <c r="B187" t="s">
+        <v>589</v>
+      </c>
+      <c r="C187" t="s">
+        <v>479</v>
+      </c>
+      <c r="D187" t="str">
+        <f t="shared" si="2"/>
+        <v>:FlexiblePipeSegment :hasAttribute :StrIntOnNoTensNomPress .</v>
+      </c>
+      <c r="E187" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>115</v>
+      </c>
+      <c r="B188" t="s">
+        <v>589</v>
+      </c>
+      <c r="C188" t="s">
+        <v>480</v>
+      </c>
+      <c r="D188" t="str">
+        <f t="shared" si="2"/>
+        <v>:FlexiblePipeSegment :hasAttribute :FatMaxPressValRef .</v>
+      </c>
+      <c r="E188" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>115</v>
+      </c>
+      <c r="B189" t="s">
+        <v>589</v>
+      </c>
+      <c r="C189" t="s">
+        <v>481</v>
+      </c>
+      <c r="D189" t="str">
+        <f t="shared" si="2"/>
+        <v>:FlexiblePipeSegment :hasAttribute :OffLeakPLevNomPressValRefMult .</v>
+      </c>
+      <c r="E189" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>115</v>
+      </c>
+      <c r="B190" t="s">
+        <v>589</v>
+      </c>
+      <c r="C190" t="s">
+        <v>482</v>
+      </c>
+      <c r="D190" t="str">
+        <f t="shared" si="2"/>
+        <v>:FlexiblePipeSegment :hasAttribute :OffLeakPLevMaxPressValRefMult .</v>
+      </c>
+      <c r="E190" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>115</v>
+      </c>
+      <c r="B191" t="s">
+        <v>589</v>
+      </c>
+      <c r="C191" t="s">
+        <v>483</v>
+      </c>
+      <c r="D191" t="str">
+        <f t="shared" si="2"/>
+        <v>:FlexiblePipeSegment :hasAttribute :FatNomPressValRefMult .</v>
+      </c>
+      <c r="E191" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>115</v>
+      </c>
+      <c r="B192" t="s">
+        <v>589</v>
+      </c>
+      <c r="C192" t="s">
+        <v>484</v>
+      </c>
+      <c r="D192" t="str">
+        <f t="shared" si="2"/>
+        <v>:FlexiblePipeSegment :hasAttribute :FatMaxPressValRefMult .</v>
+      </c>
+      <c r="E192" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>115</v>
+      </c>
+      <c r="B193" t="s">
+        <v>589</v>
+      </c>
+      <c r="C193" t="s">
+        <v>485</v>
+      </c>
+      <c r="D193" t="str">
+        <f t="shared" si="2"/>
+        <v>:FlexiblePipeSegment :hasAttribute :StrIntOnNoTensMaxPress .</v>
+      </c>
+      <c r="E193" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>115</v>
+      </c>
+      <c r="B194" t="s">
+        <v>589</v>
+      </c>
+      <c r="C194" t="s">
+        <v>486</v>
+      </c>
+      <c r="D194" t="str">
+        <f t="shared" ref="D194:D257" si="3">":"&amp;A194&amp;" "&amp;B194&amp;" "&amp;":"&amp;C194&amp;" ."</f>
+        <v>:FlexiblePipeSegment :hasAttribute :EarlyLeakNomPressTable_TensLimitValRef .</v>
+      </c>
+      <c r="E194" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>115</v>
+      </c>
+      <c r="B195" t="s">
+        <v>589</v>
+      </c>
+      <c r="C195" t="s">
+        <v>487</v>
+      </c>
+      <c r="D195" t="str">
+        <f t="shared" si="3"/>
+        <v>:FlexiblePipeSegment :hasAttribute :FatNomPressValRef .</v>
+      </c>
+      <c r="E195" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>115</v>
+      </c>
+      <c r="B196" t="s">
+        <v>589</v>
+      </c>
+      <c r="C196" t="s">
+        <v>488</v>
+      </c>
+      <c r="D196" t="str">
+        <f t="shared" si="3"/>
+        <v>:FlexiblePipeSegment :hasAttribute :FatMaxPress .</v>
+      </c>
+      <c r="E196" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>115</v>
+      </c>
+      <c r="B197" t="s">
+        <v>589</v>
+      </c>
+      <c r="C197" t="s">
+        <v>489</v>
+      </c>
+      <c r="D197" t="str">
+        <f t="shared" si="3"/>
+        <v>:FlexiblePipeSegment :hasAttribute :EarlyLeakNomPressTable_Press .</v>
+      </c>
+      <c r="E197" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>115</v>
+      </c>
+      <c r="B198" t="s">
+        <v>589</v>
+      </c>
+      <c r="C198" t="s">
+        <v>490</v>
+      </c>
+      <c r="D198" t="str">
+        <f t="shared" si="3"/>
+        <v>:FlexiblePipeSegment :hasAttribute :EarlyLeakMaxPressTable_TensLimit .</v>
+      </c>
+      <c r="E198" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>115</v>
+      </c>
+      <c r="B199" t="s">
+        <v>589</v>
+      </c>
+      <c r="C199" t="s">
+        <v>491</v>
+      </c>
+      <c r="D199" t="str">
+        <f t="shared" si="3"/>
+        <v>:FlexiblePipeSegment :hasAttribute :FatNomPress .</v>
+      </c>
+      <c r="E199" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>115</v>
+      </c>
+      <c r="B200" t="s">
+        <v>589</v>
+      </c>
+      <c r="C200" t="s">
+        <v>492</v>
+      </c>
+      <c r="D200" t="str">
+        <f t="shared" si="3"/>
+        <v>:FlexiblePipeSegment :hasAttribute :EarlyLeakNomPressTable_PressValRef .</v>
+      </c>
+      <c r="E200" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>115</v>
+      </c>
+      <c r="B201" t="s">
+        <v>589</v>
+      </c>
+      <c r="C201" t="s">
+        <v>493</v>
+      </c>
+      <c r="D201" t="str">
+        <f t="shared" si="3"/>
+        <v>:FlexiblePipeSegment :hasAttribute :EarlyLeakNomPressTable_PressValRefMult .</v>
+      </c>
+      <c r="E201" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>115</v>
+      </c>
+      <c r="B202" t="s">
+        <v>589</v>
+      </c>
+      <c r="C202" t="s">
+        <v>494</v>
+      </c>
+      <c r="D202" t="str">
+        <f t="shared" si="3"/>
+        <v>:FlexiblePipeSegment :hasAttribute :EarlyLeakMaxPressTable_TensLimitValRef .</v>
+      </c>
+      <c r="E202" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>115</v>
+      </c>
+      <c r="B203" t="s">
+        <v>589</v>
+      </c>
+      <c r="C203" t="s">
+        <v>495</v>
+      </c>
+      <c r="D203" t="str">
+        <f t="shared" si="3"/>
+        <v>:FlexiblePipeSegment :hasAttribute :StrIntOffPLevNomPress .</v>
+      </c>
+      <c r="E203" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>115</v>
+      </c>
+      <c r="B204" t="s">
+        <v>589</v>
+      </c>
+      <c r="C204" t="s">
+        <v>496</v>
+      </c>
+      <c r="D204" t="str">
+        <f t="shared" si="3"/>
+        <v>:FlexiblePipeSegment :hasAttribute :StrIntOffPLevNomPressValRefMult .</v>
+      </c>
+      <c r="E204" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>115</v>
+      </c>
+      <c r="B205" t="s">
+        <v>589</v>
+      </c>
+      <c r="C205" t="s">
+        <v>497</v>
+      </c>
+      <c r="D205" t="str">
+        <f t="shared" si="3"/>
+        <v>:FlexiblePipeSegment :hasAttribute :StrIntOffPLevMaxPressValRefMult .</v>
+      </c>
+      <c r="E205" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>115</v>
+      </c>
+      <c r="B206" t="s">
+        <v>589</v>
+      </c>
+      <c r="C206" t="s">
+        <v>498</v>
+      </c>
+      <c r="D206" t="str">
+        <f t="shared" si="3"/>
+        <v>:FlexiblePipeSegment :hasAttribute :StrIntOnNoTensNomPressValRefMult .</v>
+      </c>
+      <c r="E206" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>115</v>
+      </c>
+      <c r="B207" t="s">
+        <v>589</v>
+      </c>
+      <c r="C207" t="s">
+        <v>499</v>
+      </c>
+      <c r="D207" t="str">
+        <f t="shared" si="3"/>
+        <v>:FlexiblePipeSegment :hasAttribute :StrIntOffPLevMaxPress .</v>
+      </c>
+      <c r="E207" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>115</v>
+      </c>
+      <c r="B208" t="s">
+        <v>589</v>
+      </c>
+      <c r="C208" t="s">
+        <v>500</v>
+      </c>
+      <c r="D208" t="str">
+        <f t="shared" si="3"/>
+        <v>:FlexiblePipeSegment :hasAttribute :StrIntOnNoTensMaxPressValRefMult .</v>
+      </c>
+      <c r="E208" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>115</v>
+      </c>
+      <c r="B209" t="s">
+        <v>589</v>
+      </c>
+      <c r="C209" t="s">
+        <v>501</v>
+      </c>
+      <c r="D209" t="str">
+        <f t="shared" si="3"/>
+        <v>:FlexiblePipeSegment :hasAttribute :EarlyLeakMaxPressTable_PressValRefMult .</v>
+      </c>
+      <c r="E209" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>115</v>
+      </c>
+      <c r="B210" t="s">
+        <v>589</v>
+      </c>
+      <c r="C210" t="s">
+        <v>502</v>
+      </c>
+      <c r="D210" t="str">
+        <f t="shared" si="3"/>
+        <v>:FlexiblePipeSegment :hasAttribute :EarlyLeakMaxPressTable_PressIntValStrat .</v>
+      </c>
+      <c r="E210" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>115</v>
+      </c>
+      <c r="B211" t="s">
+        <v>589</v>
+      </c>
+      <c r="C211" t="s">
+        <v>503</v>
+      </c>
+      <c r="D211" t="str">
+        <f t="shared" si="3"/>
+        <v>:FlexiblePipeSegment :hasAttribute :EarlyLeakMaxPressTable_Press .</v>
+      </c>
+      <c r="E211" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>115</v>
+      </c>
+      <c r="B212" t="s">
+        <v>589</v>
+      </c>
+      <c r="C212" t="s">
+        <v>504</v>
+      </c>
+      <c r="D212" t="str">
+        <f t="shared" si="3"/>
+        <v>:FlexiblePipeSegment :hasAttribute :EarlyLeakNomPressTable_TensLimit .</v>
+      </c>
+      <c r="E212" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>115</v>
+      </c>
+      <c r="B213" t="s">
+        <v>589</v>
+      </c>
+      <c r="C213" t="s">
+        <v>505</v>
+      </c>
+      <c r="D213" t="str">
+        <f t="shared" si="3"/>
+        <v>:FlexiblePipeSegment :hasAttribute :StrIntOffPLevNomPressValRef .</v>
+      </c>
+      <c r="E213" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>115</v>
+      </c>
+      <c r="B214" t="s">
+        <v>589</v>
+      </c>
+      <c r="C214" t="s">
+        <v>506</v>
+      </c>
+      <c r="D214" t="str">
+        <f t="shared" si="3"/>
+        <v>:FlexiblePipeSegment :hasAttribute :OffLeakPLevMaxPressValRef .</v>
+      </c>
+      <c r="E214" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>115</v>
+      </c>
+      <c r="B215" t="s">
+        <v>589</v>
+      </c>
+      <c r="C215" t="s">
+        <v>507</v>
+      </c>
+      <c r="D215" t="str">
+        <f t="shared" si="3"/>
+        <v>:FlexiblePipeSegment :hasAttribute :StrIntOffPLevMaxPressValRef .</v>
+      </c>
+      <c r="E215" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>115</v>
+      </c>
+      <c r="B216" t="s">
+        <v>589</v>
+      </c>
+      <c r="C216" t="s">
+        <v>508</v>
+      </c>
+      <c r="D216" t="str">
+        <f t="shared" si="3"/>
+        <v>:FlexiblePipeSegment :hasAttribute :StrIntOnNoTensMaxPressValRef .</v>
+      </c>
+      <c r="E216" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>115</v>
+      </c>
+      <c r="B217" t="s">
+        <v>589</v>
+      </c>
+      <c r="C217" t="s">
+        <v>509</v>
+      </c>
+      <c r="D217" t="str">
+        <f t="shared" si="3"/>
+        <v>:FlexiblePipeSegment :hasAttribute :OffLeakPLevNomPressValRef .</v>
+      </c>
+      <c r="E217" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>115</v>
+      </c>
+      <c r="B218" t="s">
+        <v>589</v>
+      </c>
+      <c r="C218" t="s">
+        <v>510</v>
+      </c>
+      <c r="D218" t="str">
+        <f t="shared" si="3"/>
+        <v>:FlexiblePipeSegment :hasAttribute :OffLeakPLevNomPress .</v>
+      </c>
+      <c r="E218" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>115</v>
+      </c>
+      <c r="B219" t="s">
+        <v>589</v>
+      </c>
+      <c r="C219" t="s">
+        <v>511</v>
+      </c>
+      <c r="D219" t="str">
+        <f t="shared" si="3"/>
+        <v>:FlexiblePipeSegment :hasAttribute :EarlyLeakNomPressTable_PressIntValStrat .</v>
+      </c>
+      <c r="E219" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>115</v>
+      </c>
+      <c r="B220" t="s">
+        <v>589</v>
+      </c>
+      <c r="C220" t="s">
+        <v>512</v>
+      </c>
+      <c r="D220" t="str">
+        <f t="shared" si="3"/>
+        <v>:FlexiblePipeSegment :hasAttribute :ManufacturingNonConformities .</v>
+      </c>
+      <c r="E220" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>115</v>
+      </c>
+      <c r="B221" t="s">
+        <v>589</v>
+      </c>
+      <c r="C221" t="s">
+        <v>513</v>
+      </c>
+      <c r="D221" t="str">
+        <f t="shared" si="3"/>
+        <v>:FlexiblePipeSegment :hasAttribute :IdInUnifilarDiagram .</v>
+      </c>
+      <c r="E221" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>115</v>
+      </c>
+      <c r="B222" t="s">
+        <v>589</v>
+      </c>
+      <c r="C222" t="s">
+        <v>514</v>
+      </c>
+      <c r="D222" t="str">
+        <f t="shared" si="3"/>
+        <v>:FlexiblePipeSegment :hasAttribute :AssemblyShouldObeyModelPolarity .</v>
+      </c>
+      <c r="E222" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>115</v>
+      </c>
+      <c r="B223" t="s">
+        <v>589</v>
+      </c>
+      <c r="C223" t="s">
+        <v>344</v>
+      </c>
+      <c r="D223" t="str">
+        <f t="shared" si="3"/>
+        <v>:FlexiblePipeSegment :hasAttribute :NominalLength .</v>
+      </c>
+      <c r="E223" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>115</v>
+      </c>
+      <c r="B224" t="s">
+        <v>589</v>
+      </c>
+      <c r="C224" t="s">
+        <v>515</v>
+      </c>
+      <c r="D224" t="str">
+        <f t="shared" si="3"/>
+        <v>:FlexiblePipeSegment :hasAttribute :MaxLengthTolerance .</v>
+      </c>
+      <c r="E224" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>115</v>
+      </c>
+      <c r="B225" t="s">
+        <v>589</v>
+      </c>
+      <c r="C225" t="s">
+        <v>516</v>
+      </c>
+      <c r="D225" t="str">
+        <f t="shared" si="3"/>
+        <v>:FlexiblePipeSegment :hasAttribute :ManufacturingDate .</v>
+      </c>
+      <c r="E225" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>115</v>
+      </c>
+      <c r="B226" t="s">
+        <v>589</v>
+      </c>
+      <c r="C226" t="s">
+        <v>517</v>
+      </c>
+      <c r="D226" t="str">
+        <f t="shared" si="3"/>
+        <v>:FlexiblePipeSegment :hasAttribute :SpecialRequirements .</v>
+      </c>
+      <c r="E226" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>115</v>
+      </c>
+      <c r="B227" t="s">
+        <v>589</v>
+      </c>
+      <c r="C227" t="s">
+        <v>518</v>
+      </c>
+      <c r="D227" t="str">
+        <f t="shared" si="3"/>
+        <v>:FlexiblePipeSegment :hasAttribute :PipeSectionApplication .</v>
+      </c>
+      <c r="E227" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>30</v>
+      </c>
+      <c r="B228" t="s">
+        <v>589</v>
+      </c>
+      <c r="C228" t="s">
+        <v>436</v>
+      </c>
+      <c r="D228" t="str">
+        <f t="shared" si="3"/>
+        <v>:PipePullingHead :hasAttribute :RingGasketInnerDIameter .</v>
+      </c>
+      <c r="E228" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>30</v>
+      </c>
+      <c r="B229" t="s">
+        <v>589</v>
+      </c>
+      <c r="C229" t="s">
+        <v>438</v>
+      </c>
+      <c r="D229" t="str">
+        <f t="shared" si="3"/>
+        <v>:PipePullingHead :hasAttribute :RingGasketMaterial .</v>
+      </c>
+      <c r="E229" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>30</v>
+      </c>
+      <c r="B230" t="s">
+        <v>589</v>
+      </c>
+      <c r="C230" t="s">
+        <v>432</v>
+      </c>
+      <c r="D230" t="str">
+        <f t="shared" si="3"/>
+        <v>:PipePullingHead :hasAttribute :RingGasketOuterDiameter .</v>
+      </c>
+      <c r="E230" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>30</v>
+      </c>
+      <c r="B231" t="s">
+        <v>589</v>
+      </c>
+      <c r="C231" t="s">
+        <v>433</v>
+      </c>
+      <c r="D231" t="str">
+        <f t="shared" si="3"/>
+        <v>:PipePullingHead :hasAttribute :RingGasketPressureRating .</v>
+      </c>
+      <c r="E231" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>30</v>
+      </c>
+      <c r="B232" t="s">
+        <v>589</v>
+      </c>
+      <c r="C232" t="s">
+        <v>435</v>
+      </c>
+      <c r="D232" t="str">
+        <f t="shared" si="3"/>
+        <v>:PipePullingHead :hasAttribute :RingGasketSpecification .</v>
+      </c>
+      <c r="E232" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>30</v>
+      </c>
+      <c r="B233" t="s">
+        <v>589</v>
+      </c>
+      <c r="C233" t="s">
+        <v>434</v>
+      </c>
+      <c r="D233" t="str">
+        <f t="shared" si="3"/>
+        <v>:PipePullingHead :hasAttribute :RingGasketStandard .</v>
+      </c>
+      <c r="E233" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>30</v>
+      </c>
+      <c r="B234" t="s">
+        <v>589</v>
+      </c>
+      <c r="C234" t="s">
+        <v>437</v>
+      </c>
+      <c r="D234" t="str">
+        <f t="shared" si="3"/>
+        <v>:PipePullingHead :hasAttribute :RingGasketType .</v>
+      </c>
+      <c r="E234" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>30</v>
+      </c>
+      <c r="B235" t="s">
+        <v>589</v>
+      </c>
+      <c r="C235" t="s">
+        <v>419</v>
+      </c>
+      <c r="D235" t="str">
+        <f t="shared" si="3"/>
+        <v>:PipePullingHead :hasAttribute :SafeWorkingLoad .</v>
+      </c>
+      <c r="E235" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>30</v>
+      </c>
+      <c r="B236" t="s">
+        <v>589</v>
+      </c>
+      <c r="C236" t="s">
+        <v>64</v>
+      </c>
+      <c r="D236" t="str">
+        <f t="shared" si="3"/>
+        <v>:PipePullingHead :hasAttribute :PullingHeadType .</v>
+      </c>
+      <c r="E236" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>30</v>
+      </c>
+      <c r="B237" t="s">
+        <v>589</v>
+      </c>
+      <c r="C237" t="s">
+        <v>420</v>
+      </c>
+      <c r="D237" t="str">
+        <f t="shared" si="3"/>
+        <v>:PipePullingHead :hasAttribute :FlangeType .</v>
+      </c>
+      <c r="E237" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>132</v>
+      </c>
+      <c r="B238" t="s">
+        <v>589</v>
+      </c>
+      <c r="C238" t="s">
+        <v>422</v>
+      </c>
+      <c r="D238" t="str">
+        <f t="shared" si="3"/>
+        <v>:MetricBoltSet :hasAttribute :PitchToleranceClass .</v>
+      </c>
+      <c r="E238" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>132</v>
+      </c>
+      <c r="B239" t="s">
+        <v>589</v>
+      </c>
+      <c r="C239" t="s">
+        <v>423</v>
+      </c>
+      <c r="D239" t="str">
+        <f t="shared" si="3"/>
+        <v>:MetricBoltSet :hasAttribute :ThreadStandard .</v>
+      </c>
+      <c r="E239" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>132</v>
+      </c>
+      <c r="B240" t="s">
+        <v>589</v>
+      </c>
+      <c r="C240" t="s">
+        <v>444</v>
+      </c>
+      <c r="D240" t="str">
+        <f t="shared" si="3"/>
+        <v>:MetricBoltSet :hasAttribute :ThreadPitch .</v>
+      </c>
+      <c r="E240" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>132</v>
+      </c>
+      <c r="B241" t="s">
+        <v>589</v>
+      </c>
+      <c r="C241" t="s">
+        <v>450</v>
+      </c>
+      <c r="D241" t="str">
+        <f t="shared" si="3"/>
+        <v>:MetricBoltSet :hasAttribute :NominalDiameter .</v>
+      </c>
+      <c r="E241" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>78</v>
+      </c>
+      <c r="B242" t="s">
+        <v>589</v>
+      </c>
+      <c r="C242" t="s">
+        <v>420</v>
+      </c>
+      <c r="D242" t="str">
+        <f t="shared" si="3"/>
+        <v>:EndFitting :hasAttribute :FlangeType .</v>
+      </c>
+      <c r="E242" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>78</v>
+      </c>
+      <c r="B243" t="s">
+        <v>589</v>
+      </c>
+      <c r="C243" t="s">
+        <v>519</v>
+      </c>
+      <c r="D243" t="str">
+        <f t="shared" si="3"/>
+        <v>:EndFitting :hasAttribute :FlangeFaceType .</v>
+      </c>
+      <c r="E243" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>78</v>
+      </c>
+      <c r="B244" t="s">
+        <v>589</v>
+      </c>
+      <c r="C244" t="s">
+        <v>520</v>
+      </c>
+      <c r="D244" t="str">
+        <f t="shared" si="3"/>
+        <v>:EndFitting :hasAttribute :BoreDiameter .</v>
+      </c>
+      <c r="E244" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>78</v>
+      </c>
+      <c r="B245" t="s">
+        <v>589</v>
+      </c>
+      <c r="C245" t="s">
+        <v>521</v>
+      </c>
+      <c r="D245" t="str">
+        <f t="shared" si="3"/>
+        <v>:EndFitting :hasAttribute :HasModaSensor .</v>
+      </c>
+      <c r="E245" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>78</v>
+      </c>
+      <c r="B246" t="s">
+        <v>589</v>
+      </c>
+      <c r="C246" t="s">
+        <v>522</v>
+      </c>
+      <c r="D246" t="str">
+        <f t="shared" si="3"/>
+        <v>:EndFitting :hasAttribute :HasN2InjectionPort .</v>
+      </c>
+      <c r="E246" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>78</v>
+      </c>
+      <c r="B247" t="s">
+        <v>589</v>
+      </c>
+      <c r="C247" t="s">
+        <v>523</v>
+      </c>
+      <c r="D247" t="str">
+        <f t="shared" si="3"/>
+        <v>:EndFitting :hasAttribute :HasFaceORing .</v>
+      </c>
+      <c r="E247" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>78</v>
+      </c>
+      <c r="B248" t="s">
+        <v>589</v>
+      </c>
+      <c r="C248" t="s">
+        <v>436</v>
+      </c>
+      <c r="D248" t="str">
+        <f t="shared" si="3"/>
+        <v>:EndFitting :hasAttribute :RingGasketInnerDIameter .</v>
+      </c>
+      <c r="E248" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>78</v>
+      </c>
+      <c r="B249" t="s">
+        <v>589</v>
+      </c>
+      <c r="C249" t="s">
+        <v>432</v>
+      </c>
+      <c r="D249" t="str">
+        <f t="shared" si="3"/>
+        <v>:EndFitting :hasAttribute :RingGasketOuterDiameter .</v>
+      </c>
+      <c r="E249" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>78</v>
+      </c>
+      <c r="B250" t="s">
+        <v>589</v>
+      </c>
+      <c r="C250" t="s">
+        <v>433</v>
+      </c>
+      <c r="D250" t="str">
+        <f t="shared" si="3"/>
+        <v>:EndFitting :hasAttribute :RingGasketPressureRating .</v>
+      </c>
+      <c r="E250" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>78</v>
+      </c>
+      <c r="B251" t="s">
+        <v>589</v>
+      </c>
+      <c r="C251" t="s">
+        <v>435</v>
+      </c>
+      <c r="D251" t="str">
+        <f t="shared" si="3"/>
+        <v>:EndFitting :hasAttribute :RingGasketSpecification .</v>
+      </c>
+      <c r="E251" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>78</v>
+      </c>
+      <c r="B252" t="s">
+        <v>589</v>
+      </c>
+      <c r="C252" t="s">
+        <v>434</v>
+      </c>
+      <c r="D252" t="str">
+        <f t="shared" si="3"/>
+        <v>:EndFitting :hasAttribute :RingGasketStandard .</v>
+      </c>
+      <c r="E252" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>78</v>
+      </c>
+      <c r="B253" t="s">
+        <v>589</v>
+      </c>
+      <c r="C253" t="s">
+        <v>437</v>
+      </c>
+      <c r="D253" t="str">
+        <f t="shared" si="3"/>
+        <v>:EndFitting :hasAttribute :RingGasketType .</v>
+      </c>
+      <c r="E253" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>149</v>
+      </c>
+      <c r="B254" t="s">
+        <v>589</v>
+      </c>
+      <c r="C254" t="s">
+        <v>524</v>
+      </c>
+      <c r="D254" t="str">
+        <f t="shared" si="3"/>
+        <v>:GroovePoint :hasAttribute :GrooveSupportSurfaceFilletRadius .</v>
+      </c>
+      <c r="E254" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>149</v>
+      </c>
+      <c r="B255" t="s">
+        <v>589</v>
+      </c>
+      <c r="C255" t="s">
+        <v>525</v>
+      </c>
+      <c r="D255" t="str">
+        <f t="shared" si="3"/>
+        <v>:GroovePoint :hasAttribute :GrooveSupportSurfaceDiameter .</v>
+      </c>
+      <c r="E255" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>149</v>
+      </c>
+      <c r="B256" t="s">
+        <v>589</v>
+      </c>
+      <c r="C256" t="s">
+        <v>431</v>
+      </c>
+      <c r="D256" t="str">
+        <f t="shared" si="3"/>
+        <v>:GroovePoint :hasAttribute :TechnicalNotes .</v>
+      </c>
+      <c r="E256" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>149</v>
+      </c>
+      <c r="B257" t="s">
+        <v>589</v>
+      </c>
+      <c r="C257" t="s">
+        <v>526</v>
+      </c>
+      <c r="D257" t="str">
+        <f t="shared" si="3"/>
+        <v>:GroovePoint :hasAttribute :GrooveDiameter .</v>
+      </c>
+      <c r="E257" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>149</v>
+      </c>
+      <c r="B258" t="s">
+        <v>589</v>
+      </c>
+      <c r="C258" t="s">
+        <v>527</v>
+      </c>
+      <c r="D258" t="str">
+        <f t="shared" ref="D258:D321" si="4">":"&amp;A258&amp;" "&amp;B258&amp;" "&amp;":"&amp;C258&amp;" ."</f>
+        <v>:GroovePoint :hasAttribute :GrooveHeight .</v>
+      </c>
+      <c r="E258" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>149</v>
+      </c>
+      <c r="B259" t="s">
+        <v>589</v>
+      </c>
+      <c r="C259" t="s">
+        <v>419</v>
+      </c>
+      <c r="D259" t="str">
+        <f t="shared" si="4"/>
+        <v>:GroovePoint :hasAttribute :SafeWorkingLoad .</v>
+      </c>
+      <c r="E259" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>149</v>
+      </c>
+      <c r="B260" t="s">
+        <v>589</v>
+      </c>
+      <c r="C260" t="s">
+        <v>528</v>
+      </c>
+      <c r="D260" t="str">
+        <f t="shared" si="4"/>
+        <v>:GroovePoint :hasAttribute :GrooveMinimumSupportArea .</v>
+      </c>
+      <c r="E260" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>149</v>
+      </c>
+      <c r="B261" t="s">
+        <v>589</v>
+      </c>
+      <c r="C261" t="s">
+        <v>529</v>
+      </c>
+      <c r="D261" t="str">
+        <f t="shared" si="4"/>
+        <v>:GroovePoint :hasAttribute :GrvCntrPntDstnceFrmTermFlange .</v>
+      </c>
+      <c r="E261" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>149</v>
+      </c>
+      <c r="B262" t="s">
+        <v>589</v>
+      </c>
+      <c r="C262" t="s">
+        <v>530</v>
+      </c>
+      <c r="D262" t="str">
+        <f t="shared" si="4"/>
+        <v>:GroovePoint :hasAttribute :TestProp .</v>
+      </c>
+      <c r="E262" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>149</v>
+      </c>
+      <c r="B263" t="s">
+        <v>589</v>
+      </c>
+      <c r="C263" t="s">
+        <v>531</v>
+      </c>
+      <c r="D263" t="str">
+        <f t="shared" si="4"/>
+        <v>:GroovePoint :hasAttribute :TestProp2 .</v>
+      </c>
+      <c r="E263" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>252</v>
+      </c>
+      <c r="B264" t="s">
+        <v>589</v>
+      </c>
+      <c r="C264" t="s">
+        <v>419</v>
+      </c>
+      <c r="D264" t="str">
+        <f t="shared" si="4"/>
+        <v>:AnchoringCollar :hasAttribute :SafeWorkingLoad .</v>
+      </c>
+      <c r="E264" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>252</v>
+      </c>
+      <c r="B265" t="s">
+        <v>589</v>
+      </c>
+      <c r="C265" t="s">
+        <v>532</v>
+      </c>
+      <c r="D265" t="str">
+        <f t="shared" si="4"/>
+        <v>:AnchoringCollar :hasAttribute :ExternalDiameter .</v>
+      </c>
+      <c r="E265" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>252</v>
+      </c>
+      <c r="B266" t="s">
+        <v>589</v>
+      </c>
+      <c r="C266" t="s">
+        <v>533</v>
+      </c>
+      <c r="D266" t="str">
+        <f t="shared" si="4"/>
+        <v>:AnchoringCollar :hasAttribute :ClampInternalDiameter .</v>
+      </c>
+      <c r="E266" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>252</v>
+      </c>
+      <c r="B267" t="s">
+        <v>589</v>
+      </c>
+      <c r="C267" t="s">
+        <v>534</v>
+      </c>
+      <c r="D267" t="str">
+        <f t="shared" si="4"/>
+        <v>:AnchoringCollar :hasAttribute :GalvanicMaterial .</v>
+      </c>
+      <c r="E267" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>252</v>
+      </c>
+      <c r="B268" t="s">
+        <v>589</v>
+      </c>
+      <c r="C268" t="s">
+        <v>535</v>
+      </c>
+      <c r="D268" t="str">
+        <f t="shared" si="4"/>
+        <v>:AnchoringCollar :hasAttribute :IndividualAnodeMass .</v>
+      </c>
+      <c r="E268" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>252</v>
+      </c>
+      <c r="B269" t="s">
+        <v>589</v>
+      </c>
+      <c r="C269" t="s">
+        <v>536</v>
+      </c>
+      <c r="D269" t="str">
+        <f t="shared" si="4"/>
+        <v>:AnchoringCollar :hasAttribute :MetallicStrandLength .</v>
+      </c>
+      <c r="E269" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>252</v>
+      </c>
+      <c r="B270" t="s">
+        <v>589</v>
+      </c>
+      <c r="C270" t="s">
+        <v>537</v>
+      </c>
+      <c r="D270" t="str">
+        <f t="shared" si="4"/>
+        <v>:AnchoringCollar :hasAttribute :MetallicStrandSpareQuantity .</v>
+      </c>
+      <c r="E270" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>252</v>
+      </c>
+      <c r="B271" t="s">
+        <v>589</v>
+      </c>
+      <c r="C271" t="s">
+        <v>538</v>
+      </c>
+      <c r="D271" t="str">
+        <f t="shared" si="4"/>
+        <v>:AnchoringCollar :hasAttribute :AnodeCollarsQuantity .</v>
+      </c>
+      <c r="E271" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>252</v>
+      </c>
+      <c r="B272" t="s">
+        <v>589</v>
+      </c>
+      <c r="C272" t="s">
+        <v>539</v>
+      </c>
+      <c r="D272" t="str">
+        <f t="shared" si="4"/>
+        <v>:AnchoringCollar :hasAttribute :AnodeCollarsAxialSpacing .</v>
+      </c>
+      <c r="E272" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>256</v>
+      </c>
+      <c r="B273" t="s">
+        <v>589</v>
+      </c>
+      <c r="C273" t="s">
+        <v>540</v>
+      </c>
+      <c r="D273" t="str">
+        <f t="shared" si="4"/>
+        <v>:AntiWearSheath :hasAttribute :TapesQuantity .</v>
+      </c>
+      <c r="E273" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>260</v>
+      </c>
+      <c r="B274" t="s">
+        <v>589</v>
+      </c>
+      <c r="C274" t="s">
+        <v>541</v>
+      </c>
+      <c r="D274" t="str">
+        <f t="shared" si="4"/>
+        <v>:CommissioningActivity :hasAttribute :Planned_Start_Timestamp .</v>
+      </c>
+      <c r="E274" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>262</v>
+      </c>
+      <c r="B275" t="s">
+        <v>589</v>
+      </c>
+      <c r="C275" t="s">
+        <v>445</v>
+      </c>
+      <c r="D275" t="str">
+        <f t="shared" si="4"/>
+        <v>:BuoyancyModule :hasAttribute :PipeMountPosition .</v>
+      </c>
+      <c r="E275" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>300</v>
+      </c>
+      <c r="B276" t="s">
+        <v>589</v>
+      </c>
+      <c r="C276" t="s">
+        <v>542</v>
+      </c>
+      <c r="D276" t="str">
+        <f t="shared" si="4"/>
+        <v>:BendRestrictor :hasAttribute :BendMomentVsShearForceTable .</v>
+      </c>
+      <c r="E276" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>300</v>
+      </c>
+      <c r="B277" t="s">
+        <v>589</v>
+      </c>
+      <c r="C277" t="s">
+        <v>543</v>
+      </c>
+      <c r="D277" t="str">
+        <f t="shared" si="4"/>
+        <v>:BendRestrictor :hasAttribute :BendMomentVsShearForceTable_ShearForce .</v>
+      </c>
+      <c r="E277" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>300</v>
+      </c>
+      <c r="B278" t="s">
+        <v>589</v>
+      </c>
+      <c r="C278" t="s">
+        <v>544</v>
+      </c>
+      <c r="D278" t="str">
+        <f t="shared" si="4"/>
+        <v>:BendRestrictor :hasAttribute :BendMomentVsShearForceTable_BendingMoment .</v>
+      </c>
+      <c r="E278" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>300</v>
+      </c>
+      <c r="B279" t="s">
+        <v>589</v>
+      </c>
+      <c r="C279" t="s">
+        <v>545</v>
+      </c>
+      <c r="D279" t="str">
+        <f t="shared" si="4"/>
+        <v>:BendRestrictor :hasAttribute :BendMomentVsShearForceTable_Condition .</v>
+      </c>
+      <c r="E279" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>274</v>
+      </c>
+      <c r="B280" t="s">
+        <v>589</v>
+      </c>
+      <c r="C280" t="s">
+        <v>546</v>
+      </c>
+      <c r="D280" t="str">
+        <f t="shared" si="4"/>
+        <v>:CompositeMaterial :hasAttribute :RuptDefPerpendFibers .</v>
+      </c>
+      <c r="E280" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>274</v>
+      </c>
+      <c r="B281" t="s">
+        <v>589</v>
+      </c>
+      <c r="C281" t="s">
+        <v>547</v>
+      </c>
+      <c r="D281" t="str">
+        <f t="shared" si="4"/>
+        <v>:CompositeMaterial :hasAttribute :UltTensStrPerpendFibers .</v>
+      </c>
+      <c r="E281" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>274</v>
+      </c>
+      <c r="B282" t="s">
+        <v>589</v>
+      </c>
+      <c r="C282" t="s">
+        <v>548</v>
+      </c>
+      <c r="D282" t="str">
+        <f t="shared" si="4"/>
+        <v>:CompositeMaterial :hasAttribute :RuptDefAlongFibers .</v>
+      </c>
+      <c r="E282" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>274</v>
+      </c>
+      <c r="B283" t="s">
+        <v>589</v>
+      </c>
+      <c r="C283" t="s">
+        <v>549</v>
+      </c>
+      <c r="D283" t="str">
+        <f t="shared" si="4"/>
+        <v>:CompositeMaterial :hasAttribute :UltTensStrAlongFibers .</v>
+      </c>
+      <c r="E283" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>274</v>
+      </c>
+      <c r="B284" t="s">
+        <v>589</v>
+      </c>
+      <c r="C284" t="s">
+        <v>550</v>
+      </c>
+      <c r="D284" t="str">
+        <f t="shared" si="4"/>
+        <v>:CompositeMaterial :hasAttribute :CompositeLayerMaterialType .</v>
+      </c>
+      <c r="E284" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>278</v>
+      </c>
+      <c r="B285" t="s">
+        <v>589</v>
+      </c>
+      <c r="C285" t="s">
+        <v>446</v>
+      </c>
+      <c r="D285" t="str">
+        <f t="shared" si="4"/>
+        <v>:BoltSet :hasAttribute :AssemblyTorque .</v>
+      </c>
+      <c r="E285" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>278</v>
+      </c>
+      <c r="B286" t="s">
+        <v>589</v>
+      </c>
+      <c r="C286" t="s">
+        <v>344</v>
+      </c>
+      <c r="D286" t="str">
+        <f t="shared" si="4"/>
+        <v>:BoltSet :hasAttribute :NominalLength .</v>
+      </c>
+      <c r="E286" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>278</v>
+      </c>
+      <c r="B287" t="s">
+        <v>589</v>
+      </c>
+      <c r="C287" t="s">
+        <v>447</v>
+      </c>
+      <c r="D287" t="str">
+        <f t="shared" si="4"/>
+        <v>:BoltSet :hasAttribute :Lubricant .</v>
+      </c>
+      <c r="E287" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>278</v>
+      </c>
+      <c r="B288" t="s">
+        <v>589</v>
+      </c>
+      <c r="C288" t="s">
+        <v>448</v>
+      </c>
+      <c r="D288" t="str">
+        <f t="shared" si="4"/>
+        <v>:BoltSet :hasAttribute :LubricantFrictionFactor .</v>
+      </c>
+      <c r="E288" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>278</v>
+      </c>
+      <c r="B289" t="s">
+        <v>589</v>
+      </c>
+      <c r="C289" t="s">
+        <v>449</v>
+      </c>
+      <c r="D289" t="str">
+        <f t="shared" si="4"/>
+        <v>:BoltSet :hasAttribute :Quantity .</v>
+      </c>
+      <c r="E289" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>278</v>
+      </c>
+      <c r="B290" t="s">
+        <v>589</v>
+      </c>
+      <c r="C290" t="s">
+        <v>451</v>
+      </c>
+      <c r="D290" t="str">
+        <f t="shared" si="4"/>
+        <v>:BoltSet :hasAttribute :SpareQuantity .</v>
+      </c>
+      <c r="E290" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>278</v>
+      </c>
+      <c r="B291" t="s">
+        <v>589</v>
+      </c>
+      <c r="C291" t="s">
+        <v>452</v>
+      </c>
+      <c r="D291" t="str">
+        <f t="shared" si="4"/>
+        <v>:BoltSet :hasAttribute :FullyThreaded .</v>
+      </c>
+      <c r="E291" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>280</v>
+      </c>
+      <c r="B292" t="s">
+        <v>589</v>
+      </c>
+      <c r="C292" t="s">
+        <v>551</v>
+      </c>
+      <c r="D292" t="str">
+        <f t="shared" si="4"/>
+        <v>:Asset :hasAttribute :IsSpare .</v>
+      </c>
+      <c r="E292" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>280</v>
+      </c>
+      <c r="B293" t="s">
+        <v>589</v>
+      </c>
+      <c r="C293" t="s">
+        <v>552</v>
+      </c>
+      <c r="D293" t="str">
+        <f t="shared" si="4"/>
+        <v>:Asset :hasAttribute :SerialNumber .</v>
+      </c>
+      <c r="E293" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>283</v>
+      </c>
+      <c r="B294" t="s">
+        <v>589</v>
+      </c>
+      <c r="C294" t="s">
+        <v>553</v>
+      </c>
+      <c r="D294" t="str">
+        <f t="shared" si="4"/>
+        <v>:CarcassLayer :hasAttribute :MetallicLayerPitch .</v>
+      </c>
+      <c r="E294" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>283</v>
+      </c>
+      <c r="B295" t="s">
+        <v>589</v>
+      </c>
+      <c r="C295" t="s">
+        <v>554</v>
+      </c>
+      <c r="D295" t="str">
+        <f t="shared" si="4"/>
+        <v>:CarcassLayer :hasAttribute :StressAtDesignPressure .</v>
+      </c>
+      <c r="E295" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>288</v>
+      </c>
+      <c r="B296" t="s">
+        <v>589</v>
+      </c>
+      <c r="C296" t="s">
+        <v>555</v>
+      </c>
+      <c r="D296" t="str">
+        <f t="shared" si="4"/>
+        <v>:FlexibleStructureLayer :hasAttribute :LayerGeometryProfileWidth .</v>
+      </c>
+      <c r="E296" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>288</v>
+      </c>
+      <c r="B297" t="s">
+        <v>589</v>
+      </c>
+      <c r="C297" t="s">
+        <v>556</v>
+      </c>
+      <c r="D297" t="str">
+        <f t="shared" si="4"/>
+        <v>:FlexibleStructureLayer :hasAttribute :LayerGeometryInertiaX .</v>
+      </c>
+      <c r="E297" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>288</v>
+      </c>
+      <c r="B298" t="s">
+        <v>589</v>
+      </c>
+      <c r="C298" t="s">
+        <v>557</v>
+      </c>
+      <c r="D298" t="str">
+        <f t="shared" si="4"/>
+        <v>:FlexibleStructureLayer :hasAttribute :LayerGeometryName .</v>
+      </c>
+      <c r="E298" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>288</v>
+      </c>
+      <c r="B299" t="s">
+        <v>589</v>
+      </c>
+      <c r="C299" t="s">
+        <v>558</v>
+      </c>
+      <c r="D299" t="str">
+        <f t="shared" si="4"/>
+        <v>:FlexibleStructureLayer :hasAttribute :LayerGeometryProfileThickness .</v>
+      </c>
+      <c r="E299" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>288</v>
+      </c>
+      <c r="B300" t="s">
+        <v>589</v>
+      </c>
+      <c r="C300" t="s">
+        <v>559</v>
+      </c>
+      <c r="D300" t="str">
+        <f t="shared" si="4"/>
+        <v>:FlexibleStructureLayer :hasAttribute :LayerGeometryCrossSection .</v>
+      </c>
+      <c r="E300" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>288</v>
+      </c>
+      <c r="B301" t="s">
+        <v>589</v>
+      </c>
+      <c r="C301" t="s">
+        <v>560</v>
+      </c>
+      <c r="D301" t="str">
+        <f t="shared" si="4"/>
+        <v>:FlexibleStructureLayer :hasAttribute :LayerGeometryManufacturer .</v>
+      </c>
+      <c r="E301" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>288</v>
+      </c>
+      <c r="B302" t="s">
+        <v>589</v>
+      </c>
+      <c r="C302" t="s">
+        <v>561</v>
+      </c>
+      <c r="D302" t="str">
+        <f t="shared" si="4"/>
+        <v>:FlexibleStructureLayer :hasAttribute :LayerGeometryThickness .</v>
+      </c>
+      <c r="E302" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>288</v>
+      </c>
+      <c r="B303" t="s">
+        <v>589</v>
+      </c>
+      <c r="C303" t="s">
+        <v>562</v>
+      </c>
+      <c r="D303" t="str">
+        <f t="shared" si="4"/>
+        <v>:FlexibleStructureLayer :hasAttribute :LayerGeometryInertiaY .</v>
+      </c>
+      <c r="E303" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>288</v>
+      </c>
+      <c r="B304" t="s">
+        <v>589</v>
+      </c>
+      <c r="C304" t="s">
+        <v>563</v>
+      </c>
+      <c r="D304" t="str">
+        <f t="shared" si="4"/>
+        <v>:FlexibleStructureLayer :hasAttribute :LayerAnnular .</v>
+      </c>
+      <c r="E304" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>288</v>
+      </c>
+      <c r="B305" t="s">
+        <v>589</v>
+      </c>
+      <c r="C305" t="s">
+        <v>564</v>
+      </c>
+      <c r="D305" t="str">
+        <f t="shared" si="4"/>
+        <v>:FlexibleStructureLayer :hasAttribute :LayerWatertightLowerLayerInternalFreeVolume .</v>
+      </c>
+      <c r="E305" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>288</v>
+      </c>
+      <c r="B306" t="s">
+        <v>589</v>
+      </c>
+      <c r="C306" t="s">
+        <v>565</v>
+      </c>
+      <c r="D306" t="str">
+        <f t="shared" si="4"/>
+        <v>:FlexibleStructureLayer :hasAttribute :LayerContinuity .</v>
+      </c>
+      <c r="E306" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>288</v>
+      </c>
+      <c r="B307" t="s">
+        <v>589</v>
+      </c>
+      <c r="C307" t="s">
+        <v>566</v>
+      </c>
+      <c r="D307" t="str">
+        <f t="shared" si="4"/>
+        <v>:FlexibleStructureLayer :hasAttribute :LayerThickness .</v>
+      </c>
+      <c r="E307" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>288</v>
+      </c>
+      <c r="B308" t="s">
+        <v>589</v>
+      </c>
+      <c r="C308" t="s">
+        <v>567</v>
+      </c>
+      <c r="D308" t="str">
+        <f t="shared" si="4"/>
+        <v>:FlexibleStructureLayer :hasAttribute :LayerWatertight .</v>
+      </c>
+      <c r="E308" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>288</v>
+      </c>
+      <c r="B309" t="s">
+        <v>589</v>
+      </c>
+      <c r="C309" t="s">
+        <v>568</v>
+      </c>
+      <c r="D309" t="str">
+        <f t="shared" si="4"/>
+        <v>:FlexibleStructureLayer :hasAttribute :LayerAnnularType .</v>
+      </c>
+      <c r="E309" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>288</v>
+      </c>
+      <c r="B310" t="s">
+        <v>589</v>
+      </c>
+      <c r="C310" t="s">
+        <v>405</v>
+      </c>
+      <c r="D310" t="str">
+        <f t="shared" si="4"/>
+        <v>:FlexibleStructureLayer :hasAttribute :LinearMass .</v>
+      </c>
+      <c r="E310" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>288</v>
+      </c>
+      <c r="B311" t="s">
+        <v>589</v>
+      </c>
+      <c r="C311" t="s">
+        <v>342</v>
+      </c>
+      <c r="D311" t="str">
+        <f t="shared" si="4"/>
+        <v>:FlexibleStructureLayer :hasAttribute :InternalDiameter .</v>
+      </c>
+      <c r="E311" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>291</v>
+      </c>
+      <c r="B312" t="s">
+        <v>589</v>
+      </c>
+      <c r="C312" t="s">
+        <v>569</v>
+      </c>
+      <c r="D312" t="str">
+        <f t="shared" si="4"/>
+        <v>:HoldingBandage :hasAttribute :ModulusOfElasticity .</v>
+      </c>
+      <c r="E312" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>291</v>
+      </c>
+      <c r="B313" t="s">
+        <v>589</v>
+      </c>
+      <c r="C313" t="s">
+        <v>540</v>
+      </c>
+      <c r="D313" t="str">
+        <f t="shared" si="4"/>
+        <v>:HoldingBandage :hasAttribute :TapesQuantity .</v>
+      </c>
+      <c r="E313" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>291</v>
+      </c>
+      <c r="B314" t="s">
+        <v>589</v>
+      </c>
+      <c r="C314" t="s">
+        <v>554</v>
+      </c>
+      <c r="D314" t="str">
+        <f t="shared" si="4"/>
+        <v>:HoldingBandage :hasAttribute :StressAtDesignPressure .</v>
+      </c>
+      <c r="E314" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>590</v>
+      </c>
+      <c r="B315" t="s">
+        <v>589</v>
+      </c>
+      <c r="C315" t="s">
+        <v>570</v>
+      </c>
+      <c r="D315" t="str">
+        <f t="shared" si="4"/>
+        <v>:LineComponent :hasAttribute :SupplierProvidedMaterialName .</v>
+      </c>
+      <c r="E315" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>590</v>
+      </c>
+      <c r="B316" t="s">
+        <v>589</v>
+      </c>
+      <c r="C316" t="s">
+        <v>571</v>
+      </c>
+      <c r="D316" t="str">
+        <f t="shared" si="4"/>
+        <v>:LineComponent :hasAttribute :MaterialSupplierName .</v>
+      </c>
+      <c r="E316" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>590</v>
+      </c>
+      <c r="B317" t="s">
+        <v>589</v>
+      </c>
+      <c r="C317" t="s">
+        <v>572</v>
+      </c>
+      <c r="D317" t="str">
+        <f t="shared" si="4"/>
+        <v>:LineComponent :hasAttribute :ManufacturerDefinedMaterialName .</v>
+      </c>
+      <c r="E317" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>590</v>
+      </c>
+      <c r="B318" t="s">
+        <v>589</v>
+      </c>
+      <c r="C318" t="s">
+        <v>573</v>
+      </c>
+      <c r="D318" t="str">
+        <f t="shared" si="4"/>
+        <v>:LineComponent :hasAttribute :DrawingDimensionsTable .</v>
+      </c>
+      <c r="E318" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>590</v>
+      </c>
+      <c r="B319" t="s">
+        <v>589</v>
+      </c>
+      <c r="C319" t="s">
+        <v>574</v>
+      </c>
+      <c r="D319" t="str">
+        <f t="shared" si="4"/>
+        <v>:LineComponent :hasAttribute :DrawingDimensionsTable_DimensionDescription .</v>
+      </c>
+      <c r="E319" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>590</v>
+      </c>
+      <c r="B320" t="s">
+        <v>589</v>
+      </c>
+      <c r="C320" t="s">
+        <v>575</v>
+      </c>
+      <c r="D320" t="str">
+        <f t="shared" si="4"/>
+        <v>:LineComponent :hasAttribute :DrawingDimensionsTable_DimensionUnit .</v>
+      </c>
+      <c r="E320" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>590</v>
+      </c>
+      <c r="B321" t="s">
+        <v>589</v>
+      </c>
+      <c r="C321" t="s">
+        <v>576</v>
+      </c>
+      <c r="D321" t="str">
+        <f t="shared" si="4"/>
+        <v>:LineComponent :hasAttribute :DrawingDimensionsTable_DimensionName .</v>
+      </c>
+      <c r="E321" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>590</v>
+      </c>
+      <c r="B322" t="s">
+        <v>589</v>
+      </c>
+      <c r="C322" t="s">
+        <v>577</v>
+      </c>
+      <c r="D322" t="str">
+        <f t="shared" ref="D322:D341" si="5">":"&amp;A322&amp;" "&amp;B322&amp;" "&amp;":"&amp;C322&amp;" ."</f>
+        <v>:LineComponent :hasAttribute :DrawingDimensionsTable_DimensionValue .</v>
+      </c>
+      <c r="E322" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>590</v>
+      </c>
+      <c r="B323" t="s">
+        <v>589</v>
+      </c>
+      <c r="C323" t="s">
+        <v>513</v>
+      </c>
+      <c r="D323" t="str">
+        <f t="shared" si="5"/>
+        <v>:LineComponent :hasAttribute :IdInUnifilarDiagram .</v>
+      </c>
+      <c r="E323" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>590</v>
+      </c>
+      <c r="B324" t="s">
+        <v>589</v>
+      </c>
+      <c r="C324" t="s">
+        <v>578</v>
+      </c>
+      <c r="D324" t="str">
+        <f t="shared" si="5"/>
+        <v>:LineComponent :hasAttribute :ProjectDrawingRevision .</v>
+      </c>
+      <c r="E324" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>590</v>
+      </c>
+      <c r="B325" t="s">
+        <v>589</v>
+      </c>
+      <c r="C325" t="s">
+        <v>579</v>
+      </c>
+      <c r="D325" t="str">
+        <f t="shared" si="5"/>
+        <v>:LineComponent :hasAttribute :ProjectDrawingCode .</v>
+      </c>
+      <c r="E325" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>590</v>
+      </c>
+      <c r="B326" t="s">
+        <v>589</v>
+      </c>
+      <c r="C326" t="s">
+        <v>580</v>
+      </c>
+      <c r="D326" t="str">
+        <f t="shared" si="5"/>
+        <v>:LineComponent :hasAttribute :InternalVolume .</v>
+      </c>
+      <c r="E326" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>590</v>
+      </c>
+      <c r="B327" t="s">
+        <v>589</v>
+      </c>
+      <c r="C327" t="s">
+        <v>581</v>
+      </c>
+      <c r="D327" t="str">
+        <f t="shared" si="5"/>
+        <v>:LineComponent :hasAttribute :DisplacedVolume .</v>
+      </c>
+      <c r="E327" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>590</v>
+      </c>
+      <c r="B328" t="s">
+        <v>589</v>
+      </c>
+      <c r="C328" t="s">
+        <v>582</v>
+      </c>
+      <c r="D328" t="str">
+        <f t="shared" si="5"/>
+        <v>:LineComponent :hasAttribute :PartNumber .</v>
+      </c>
+      <c r="E328" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>590</v>
+      </c>
+      <c r="B329" t="s">
+        <v>589</v>
+      </c>
+      <c r="C329" t="s">
+        <v>583</v>
+      </c>
+      <c r="D329" t="str">
+        <f t="shared" si="5"/>
+        <v>:LineComponent :hasAttribute :Mass .</v>
+      </c>
+      <c r="E329" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>296</v>
+      </c>
+      <c r="B330" t="s">
+        <v>589</v>
+      </c>
+      <c r="C330" t="s">
+        <v>584</v>
+      </c>
+      <c r="D330" t="str">
+        <f t="shared" si="5"/>
+        <v>:CommissioningTask :hasAttribute :Creator .</v>
+      </c>
+      <c r="E330" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>296</v>
+      </c>
+      <c r="B331" t="s">
+        <v>589</v>
+      </c>
+      <c r="C331" t="s">
+        <v>585</v>
+      </c>
+      <c r="D331" t="str">
+        <f t="shared" si="5"/>
+        <v>:CommissioningTask :hasAttribute :CreatorId .</v>
+      </c>
+      <c r="E331" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>296</v>
+      </c>
+      <c r="B332" t="s">
+        <v>589</v>
+      </c>
+      <c r="C332" t="s">
+        <v>586</v>
+      </c>
+      <c r="D332" t="str">
+        <f t="shared" si="5"/>
+        <v>:CommissioningTask :hasAttribute :Content .</v>
+      </c>
+      <c r="E332" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>296</v>
+      </c>
+      <c r="B333" t="s">
+        <v>589</v>
+      </c>
+      <c r="C333" t="s">
+        <v>587</v>
+      </c>
+      <c r="D333" t="str">
+        <f t="shared" si="5"/>
+        <v>:CommissioningTask :hasAttribute :Timestamp .</v>
+      </c>
+      <c r="E333" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>296</v>
+      </c>
+      <c r="B334" t="s">
+        <v>589</v>
+      </c>
+      <c r="C334" t="s">
+        <v>584</v>
+      </c>
+      <c r="D334" t="str">
+        <f t="shared" si="5"/>
+        <v>:CommissioningTask :hasAttribute :Creator .</v>
+      </c>
+      <c r="E334" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>296</v>
+      </c>
+      <c r="B335" t="s">
+        <v>589</v>
+      </c>
+      <c r="C335" t="s">
+        <v>585</v>
+      </c>
+      <c r="D335" t="str">
+        <f t="shared" si="5"/>
+        <v>:CommissioningTask :hasAttribute :CreatorId .</v>
+      </c>
+      <c r="E335" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>296</v>
+      </c>
+      <c r="B336" t="s">
+        <v>589</v>
+      </c>
+      <c r="C336" t="s">
+        <v>586</v>
+      </c>
+      <c r="D336" t="str">
+        <f t="shared" si="5"/>
+        <v>:CommissioningTask :hasAttribute :Content .</v>
+      </c>
+      <c r="E336" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>296</v>
+      </c>
+      <c r="B337" t="s">
+        <v>589</v>
+      </c>
+      <c r="C337" t="s">
+        <v>587</v>
+      </c>
+      <c r="D337" t="str">
+        <f t="shared" si="5"/>
+        <v>:CommissioningTask :hasAttribute :Timestamp .</v>
+      </c>
+      <c r="E337" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>296</v>
+      </c>
+      <c r="B338" t="s">
+        <v>589</v>
+      </c>
+      <c r="C338" t="s">
+        <v>584</v>
+      </c>
+      <c r="D338" t="str">
+        <f t="shared" si="5"/>
+        <v>:CommissioningTask :hasAttribute :Creator .</v>
+      </c>
+      <c r="E338" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>296</v>
+      </c>
+      <c r="B339" t="s">
+        <v>589</v>
+      </c>
+      <c r="C339" t="s">
+        <v>585</v>
+      </c>
+      <c r="D339" t="str">
+        <f t="shared" si="5"/>
+        <v>:CommissioningTask :hasAttribute :CreatorId .</v>
+      </c>
+      <c r="E339" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>296</v>
+      </c>
+      <c r="B340" t="s">
+        <v>589</v>
+      </c>
+      <c r="C340" t="s">
+        <v>586</v>
+      </c>
+      <c r="D340" t="str">
+        <f t="shared" si="5"/>
+        <v>:CommissioningTask :hasAttribute :Content .</v>
+      </c>
+      <c r="E340" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>296</v>
+      </c>
+      <c r="B341" t="s">
+        <v>589</v>
+      </c>
+      <c r="C341" t="s">
+        <v>587</v>
+      </c>
+      <c r="D341" t="str">
+        <f t="shared" si="5"/>
+        <v>:CommissioningTask :hasAttribute :Timestamp .</v>
+      </c>
+      <c r="E341" t="s">
+        <v>296</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/tests/auxiliarScripts/dataImport.xlsx
+++ b/tests/auxiliarScripts/dataImport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="triples" sheetId="1" r:id="rId1"/>
@@ -13,9 +13,11 @@
     <sheet name="props" sheetId="5" r:id="rId4"/>
     <sheet name="propsTaxonomy" sheetId="6" r:id="rId5"/>
     <sheet name="classprops" sheetId="7" r:id="rId6"/>
-    <sheet name="types" sheetId="2" r:id="rId7"/>
+    <sheet name="classMetadata" sheetId="8" r:id="rId7"/>
+    <sheet name="types" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">classMetadata!$A$1:$H$247</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">classprops!$A$1:$D$341</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">triples!$A$1:$G$248</definedName>
   </definedNames>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7013" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9012" uniqueCount="951">
   <si>
     <t>verb</t>
   </si>
@@ -1797,14 +1799,1102 @@
   </si>
   <si>
     <t>LineComponent</t>
+  </si>
+  <si>
+    <t>Alias</t>
+  </si>
+  <si>
+    <t>Stopper Collar</t>
+  </si>
+  <si>
+    <t>A component used to prevent the movement or displacement of other parts in subsea systems. The Stopper Collar is installed around the pipe or component and acts as a physical barrier to stop or limit movement, ensuring components stay in their intended positions. It is crucial for maintaining alignment and stability during installation, operation, or maintenance, providing secure positioning and preventing unwanted shifts or displacements.</t>
+  </si>
+  <si>
+    <t>Colar Batente</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>IfcPipeFitting</t>
+  </si>
+  <si>
+    <t>Stopper Clamp; Locking Collar; Positioning Collar; Retention Collar; Stopper Clamp; Locking Collar; Positioning Collar; Retention Collar</t>
+  </si>
+  <si>
+    <t>USERDEFINED</t>
+  </si>
+  <si>
+    <t>Commissioning Digital Process Step</t>
+  </si>
+  <si>
+    <t>Passo do Processo Digital</t>
+  </si>
+  <si>
+    <t>IfcTask</t>
+  </si>
+  <si>
+    <t>Tensile Armour</t>
+  </si>
+  <si>
+    <t>Protective layer designed to withstand high tensile stresses and mechanical loads, Tensile Armour is composed of high-strength steel wires or reinforced materials arranged in a helical configuration around the riser. It provides essential resistance to tension and shields the inner layers from mechanical damage and wear, ensuring the riser's integrity and durability during installation and operation in extreme underwater conditions.</t>
+  </si>
+  <si>
+    <t>Armadura de Tração</t>
+  </si>
+  <si>
+    <t>IfcPipeSegment</t>
+  </si>
+  <si>
+    <t>Metallic Material</t>
+  </si>
+  <si>
+    <t>Material used in the fabrication of metallic layers in subsea flexible pipes, chosen for its strength, durability, and resistance to harsh environmental conditions. The Metallic Material provides structural reinforcement, enhances pressure resistance, and supports the pipe's overall integrity. Commonly used materials include stainless steel, carbon steel, or other corrosion-resistant alloys, which are selected based on their ability to withstand the operational demands of deepwater environments, such as high pressure, tension, and dynamic loading.</t>
+  </si>
+  <si>
+    <t>Material Metálico</t>
+  </si>
+  <si>
+    <t>IfcMaterial</t>
+  </si>
+  <si>
+    <t>Commissioning Responsible Actor</t>
+  </si>
+  <si>
+    <t>Ator Responsável</t>
+  </si>
+  <si>
+    <t>IfcActor</t>
+  </si>
+  <si>
+    <t>Commissioning Person</t>
+  </si>
+  <si>
+    <t>Pessoa</t>
+  </si>
+  <si>
+    <t>IfcPerson</t>
+  </si>
+  <si>
+    <t>Commissioning Preservation Order</t>
+  </si>
+  <si>
+    <t>Ordem de Preservação</t>
+  </si>
+  <si>
+    <t>IfcClassificationReference</t>
+  </si>
+  <si>
+    <t>OP</t>
+  </si>
+  <si>
+    <t>Anode Collar Set</t>
+  </si>
+  <si>
+    <t>Sacrificial anode collar set used for corrosion protection in subsea environments. It is designed to attach around pipes or risers and undergo controlled corrosion, thus protecting the metallic structures from rust and degradation. Typically made from zinc or aluminum, it ensures the longevity of subsea equipment by sacrificing itself to prevent corrosion on critical infrastructure.</t>
+  </si>
+  <si>
+    <t>Conjunto de Colares de Anodo</t>
+  </si>
+  <si>
+    <t>Colar de anodo sacrifical usado para proteção contra corrosão em ambientes submarinos. É projetado para ser acoplado ao redor de tubos ou risers e sofrer corrosão controlada, protegendo assim as estruturas metálicas contra ferrugem e degradação. Geralmente fabricado de zinco ou alumínio, garante a longevidade dos equipamentos submarinos ao se sacrificar para evitar a corrosão em infraestruturas críticas.</t>
+  </si>
+  <si>
+    <t>Anode Clamp; Cathodic Protection Collar; Anode Bracket; Anode Clamp; Cathodic Protection Collar; Anode Bracket</t>
+  </si>
+  <si>
+    <t>Subsea Well</t>
+  </si>
+  <si>
+    <t>A Subsea Well is a well located on the seafloor from which hydrocarbons such as oil and gas are extracted. Positioned underwater, it typically involves a wellhead assembly that includes valves, controls, and monitoring equipment to manage the extraction process. The Subsea Well is connected to surface facilities via pipelines and umbilicals, which facilitate the transport of extracted resources and the provision of necessary services like power and communication. Designed to operate under high pressure and harsh marine conditions, the subsea well is a critical component of offshore oil and gas production systems.</t>
+  </si>
+  <si>
+    <t>Poço</t>
+  </si>
+  <si>
+    <t>IfcBuilding</t>
+  </si>
+  <si>
+    <t>Pull In Collar</t>
+  </si>
+  <si>
+    <t>A device used in subsea operations to assist in the installation of flexible pipes or risers by providing a secure attachment point for pulling the pipe into position. The Pull In Collar is typically installed around the pipe and serves as a handling point for pulling equipment during installation. It ensures a controlled and secure method of pulling the pipe into place, preventing damage to the pipe while facilitating smooth and efficient installation in subsea environments.</t>
+  </si>
+  <si>
+    <t>Colar de Pull In</t>
+  </si>
+  <si>
+    <t>Pull-In Clamp; Pulling Collar; Installation Collar; Tension Collar; Pull-In Clamp; Pulling Collar; Installation Collar; Tension Collar</t>
+  </si>
+  <si>
+    <t>Commissioning Responsible Group</t>
+  </si>
+  <si>
+    <t>Grupo Responsável</t>
+  </si>
+  <si>
+    <t>IfcGroup</t>
+  </si>
+  <si>
+    <t>Interlocked Carcass</t>
+  </si>
+  <si>
+    <t>The Interlocked Carcass is a metallic layer used in certain subsea flexible pipes to provide internal pressure resistance and prevent collapse. It is designed with interlocking metal strips that offer high strength while maintaining flexibility. This layer enhances the structural integrity of the flexible pipe, protecting it from external pressures and harsh subsea conditions. The Interlocked Carcass allows the pipe to bend without losing its shape or collapsing under deepwater pressure.</t>
+  </si>
+  <si>
+    <t>Carcaça</t>
+  </si>
+  <si>
+    <t>Physical Connection</t>
+  </si>
+  <si>
+    <t>A Physical Connection refers to the actual link or interface between two or more components, such as pipes, equipment, or systems, that allows for the transfer of fluids, energy, or data.</t>
+  </si>
+  <si>
+    <t>Conexão Física</t>
+  </si>
+  <si>
+    <t>Device used in subsea flexible pipes to provide gradual stiffness transition between the flexible pipe and a fixed structure, preventing excessive bending at critical areas such as terminations or connectors. The Bend Stiffener is designed to manage stress concentration by stiffening the pipe over a defined length, reducing the risk of damage due to repeated bending, fatigue, or over-flexing. Typically made from high-strength materials, it ensures the long-term structural integrity of the pipe in dynamic subsea environments.</t>
+  </si>
+  <si>
+    <t>Commissioning Evidence</t>
+  </si>
+  <si>
+    <t>Evidência de Comissionamento</t>
+  </si>
+  <si>
+    <t>IfcDocumentInformation</t>
+  </si>
+  <si>
+    <t>Pipe Pulling Head</t>
+  </si>
+  <si>
+    <t>A component used in subsea flexible pipe installations to provide a secure attachment point for pulling the pipe into position during installation or retrieval operations. The Pulling Head is fitted to the end of the flexible pipe, allowing connection to pulling equipment such as winches or cranes. It is designed to withstand high loads, ensuring that the pipe can be pulled safely without causing damage. The Pulling Head is essential for handling, testing, and securing the pipe in place during subsea installation.</t>
+  </si>
+  <si>
+    <t>Cabeça de Tração do Duto</t>
+  </si>
+  <si>
+    <t>Pull Head; Pulling Tool; Cable Head; Pulling Grip; Installation Head; Pull Head; Pulling Tool; Cable Head; Pulling Grip; Installation Head</t>
+  </si>
+  <si>
+    <t>The Line Termination includes components at the endpoints of flexible and rigid pipelines, as well as umbilical systems. These terminations provide secure connections to other equipment, enabling the transfer of fluids, gases, or control signals. Designed for stability and integrity, Line Termination components ensure durable and reliable performance across various pipeline types.</t>
+  </si>
+  <si>
+    <t>Plastic Hose</t>
+  </si>
+  <si>
+    <t>Device used in subsea operations to facilitate the safe handling, lifting, and maneuvering of flexible pipes or heavy components during installation or retrieval. Typically attached around the pipe or component, it provides secure lifting points for cranes or other lifting equipment. Designed to distribute the load evenly, it prevents damage to the pipe or equipment while ensuring efficient and controlled movements in subsea environments.</t>
+  </si>
+  <si>
+    <t>Handling Clamp; Lifting Collar; Support Collar; Installation Collar; Handling Clamp; Lifting Collar; Support Collar; Installation Collar</t>
+  </si>
+  <si>
+    <t>Pipe Termination</t>
+  </si>
+  <si>
+    <t>The Pipe Termination refers to the components at the end of a pipeline that provide the final connection to other equipment or systems. These terminations are crucial for ensuring a secure and reliable interface between the pipeline and surrounding infrastructure, allowing for the proper transfer of fluids or gases and maintaining the integrity of the overall system.</t>
+  </si>
+  <si>
+    <t>Terminador de Duto</t>
+  </si>
+  <si>
+    <t>A high-strength, metallic layer used in subsea flexible pipes to provide resistance against both internal and external pressure. The Pressure Armour prevents the pipe from expanding under high internal pressures and protects against collapse due to external pressure. Typically made from helically wound steel or other strong materials, it supports the pipe's structural integrity and ensures reliable operation in harsh subsea environments.</t>
+  </si>
+  <si>
+    <t>IfcPipeSegmentType</t>
+  </si>
+  <si>
+    <t>Pressure Armour</t>
+  </si>
+  <si>
+    <t>Armadura de Pressão</t>
+  </si>
+  <si>
+    <t>The joining point between two components, enabling fluid, gas, or structural continuity. Connections are designed to ensure secure, leak-free operation in harsh subsea environments.</t>
+  </si>
+  <si>
+    <t>Conexão</t>
+  </si>
+  <si>
+    <t>Subsea Pipeline</t>
+  </si>
+  <si>
+    <t>A Subsea Pipeline is a conduit installed on the seafloor designed to transport oil, gas, or other fluids from underwater production facilities to processing or storage locations on the surface or shore. Engineered to withstand harsh underwater conditions, including high pressures, corrosive environments, and dynamic movements, the Subsea Pipeline is constructed with durable materials and advanced technologies to ensure reliable and efficient fluid transfer.</t>
+  </si>
+  <si>
+    <t>Linha Submarina</t>
+  </si>
+  <si>
+    <t>Metallic Strand Set</t>
+  </si>
+  <si>
+    <t>Galvanic connection cables set providing reliable electrical link between anodes and metal infrastructure for effective corrosion mitigation.</t>
+  </si>
+  <si>
+    <t>Conjunto de Cordoalhas de Continuidade</t>
+  </si>
+  <si>
+    <t>IfcCableSegment</t>
+  </si>
+  <si>
+    <t>Point Location</t>
+  </si>
+  <si>
+    <t>Basis for all locations that can conventionally be situated at a single geographic point.</t>
+  </si>
+  <si>
+    <t>Localização de Ponto</t>
+  </si>
+  <si>
+    <t>Flexible Pipe Structure</t>
+  </si>
+  <si>
+    <t>The Flexible Pipe Structure is the layered configuration of a flexible pipe, designed to provide flexibility and strength in subsea environments. It consists of multiple layers, each serving a specific function, such as pressure containment, protection, or reinforcement. This structure is engineered to handle the demands of deepwater conditions, including high pressure and dynamic movements, ensuring the pipe's integrity and performance.</t>
+  </si>
+  <si>
+    <t>Estrutura de Duto Flexível</t>
+  </si>
+  <si>
+    <t>A estrutura do duto flexível é a configuração em camadas de um duto flexível, projetada para fornecer flexibilidade e resistência em ambientes subsea. Ela consiste em múltiplas camadas, cada uma servindo a uma função específica, como contenção de pressão, proteção ou reforço. Essa estrutura é projetada para atender às exigências das condições de águas profundas, incluindo alta pressão e movimentos dinâmicos, garantindo a integridade e o desempenho do duto.</t>
+  </si>
+  <si>
+    <t>Flexible Structure; Subsea Flexible Design; Subsea Flexible Configuration; Flexible Structure; Subsea Flexible Design; Subsea Flexible Configuration</t>
+  </si>
+  <si>
+    <t>Designed to support and stabilize the riser where it transitions from the seabed to the floating platform or vessel, the Top Bend Stiffener is composed of high-strength materials such as steel or composites. It helps prevent excessive bending, distributes mechanical loads, and enhances flexibility management, ensuring the riser's structural integrity and performance during installation and operation in dynamic offshore conditions.</t>
+  </si>
+  <si>
+    <t>Device used in subsea systems to provide controlled buoyancy to flexible pipes, risers, or umbilicals, reducing the load on the structure and managing the configuration of the line in the water column. The Buoyancy Module is typically composed of syntactic foam or other materials with low density, designed to withstand high external pressures while maintaining its buoyant properties over time. It plays a key role in optimizing the performance and positioning of subsea lines, ensuring they maintain the required shape and depth in dynamic ocean conditions.</t>
+  </si>
+  <si>
+    <t>Dispositivo utilizado em sistemas submarinos para fornecer flutuabilidade controlada a dutos flexíveis, risers ou umbilicais, reduzindo a carga na estrutura e gerenciando a configuração da linha na coluna d'água. O Módulo de Flutuação é tipicamente composto por espuma sintática ou outros materiais de baixa densidade, projetados para suportar altas pressões externas enquanto mantêm suas propriedades de flutuabilidade ao longo do tempo. Ele desempenha um papel fundamental na otimização do desempenho e do posicionamento das linhas subsea, garantindo que mantenham a forma e a profundidade necessárias em condições oceânicas dinâmicas.</t>
+  </si>
+  <si>
+    <t>Device used to secure and support flexible pipes or risers during installation, particularly when they are suspended from a platform or vessel. It provides a stable attachment point, distributing the load and preventing excessive movement or strain on the pipe. The Hang Off Collar is crucial for maintaining the integrity of the pipe while it is held in place before final connection or during temporary suspension in subsea operations.</t>
+  </si>
+  <si>
+    <t>Hang-Off Clamp; Hang-Off Device; Support Collar; Termination Collar; Hang-Off Clamp; Hang-Off Device; Support Collar; Termination Collar</t>
+  </si>
+  <si>
+    <t>Riser Balcony</t>
+  </si>
+  <si>
+    <t>Installation location for supports and accessories on the riser balcony of the production unit.</t>
+  </si>
+  <si>
+    <t>Plataforma do Riser</t>
+  </si>
+  <si>
+    <t>Protective Sheath</t>
+  </si>
+  <si>
+    <t>A layer in subsea flexible pipes designed to shield internal components from external environmental factors such as abrasion, mechanical damage, or chemical exposure. The Protective Sheath serves as the outermost barrier, providing defense against harsh subsea conditions while preserving the integrity of the underlying layers. Typically made from durable polymeric materials, it plays a critical role in extending the lifespan of the flexible pipe by protecting it from physical and chemical wear.</t>
+  </si>
+  <si>
+    <t>Capa de Proteção</t>
+  </si>
+  <si>
+    <t>UNS Stud Set</t>
+  </si>
+  <si>
+    <t>UNS stud sets are essential fastening components for subsea oil and gas components, tailored to securely join equipment parts. Each set comprises bolts, nuts, and washers, all in UNS sizing and crafted from high-strength, corrosion-resistant materials to endure the challenging subsea environment. These components provide robust fastening, ensuring structural integrity and leak prevention in end fittings. UNS stud sets are engineered to withstand high pressure and extreme temperatures, playing a vital role in the safety and longevity of subsea interconnections.</t>
+  </si>
+  <si>
+    <t>Conjunto de Estojos UNS</t>
+  </si>
+  <si>
+    <t>IfcMechanicalFastener</t>
+  </si>
+  <si>
+    <t>Floating Production Unit</t>
+  </si>
+  <si>
+    <t>Offshore platform used in oil and gas exploration and production, designed to extract, process, and store hydrocarbons. The Floating Production Unit (FPU) is anchored or moored to the seabed and can operate in deep waters, often connected to subsea wells via flexible pipes and umbilicals. It accommodates processing equipment for separating oil, gas, and water, as well as facilities for temporary storage or transfer of processed hydrocarbons to tankers or pipelines. FPUs are essential for the efficient and safe production of oil and gas in challenging offshore environments.</t>
+  </si>
+  <si>
+    <t>Unidade de Produção Flutuante (UEP)</t>
+  </si>
+  <si>
+    <t>Plataforma offshore usada na exploração e produção de petróleo e gás, projetada para extrair, processar e armazenar hidrocarbonetos. A Unidade de Produção Flutuante (FPU) é ancorada ou amarrada ao leito marinho e pode operar em águas profundas, frequentemente conectada a poços submarinos por meio de dutos flexíveis e umbilicais. Ela acomoda equipamentos de processamento para separação de petróleo, gás e água, bem como instalações para armazenamento temporário ou transferência de hidrocarbonetos processados para navios-tanque ou dutos. As FPUs são essenciais para a produção eficiente e segura de petróleo e gás em ambientes offshore desafiadores.</t>
+  </si>
+  <si>
+    <t>FPSO; FLNG; FPU; Floating Platform; Floating Production Facility; FPSO; FLNG; FPU; Floating Platform; Floating Production Facility</t>
+  </si>
+  <si>
+    <t>Flexible Structure Layer Material</t>
+  </si>
+  <si>
+    <t>Material used to fabricate the individual layers of a subsea flexible structure, each layer serving a distinct function such as pressure containment, tensile reinforcement, or external protection. The Flexible Structure Layer Material is selected based on its specific properties, such as strength, flexibility, corrosion resistance, or thermal insulation, to ensure the overall performance and durability of the flexible pipe in harsh subsea conditions. These materials may include polymers, metals, composites, or other high-performance substances tailored to the pipe's operational demands.</t>
+  </si>
+  <si>
+    <t>Materiais de Camadas de Estruturas Flexíveis Submarinas</t>
+  </si>
+  <si>
+    <t>Subsea Oil Field</t>
+  </si>
+  <si>
+    <t>A subsea oil field refers to an underwater reservoir of hydrocarbons located beneath the seabed. It involves the extraction of oil and gas from deposits situated in deepwater or shallow marine environments. The subsea oil field includes a range of equipment and infrastructure, such as subsea wells, pipelines, and production systems, all designed to safely and efficiently extract and transport hydrocarbons to processing facilities on the surface or shore. The development and operation of subsea oil fields require specialized technology and expertise to manage the challenges of deepwater environments and ensure the successful production and handling of resources.</t>
+  </si>
+  <si>
+    <t>Campo de Petróleo Submarino</t>
+  </si>
+  <si>
+    <t>IfcSite</t>
+  </si>
+  <si>
+    <t>Subsea Oil Reservoir; Subsea Oil Site; Subsea Petroleum Field; Subsea Hydrocarbon Field; Subsea Oil Reservoir; Subsea Oil Site; Subsea Petroleum Field; Subsea Hydrocarbon Field</t>
+  </si>
+  <si>
+    <t>Basis for all model installation locations.</t>
+  </si>
+  <si>
+    <t>Localização</t>
+  </si>
+  <si>
+    <t>Compact Object</t>
+  </si>
+  <si>
+    <t>A mobile physical object, usually manufactured in a standardized manner.</t>
+  </si>
+  <si>
+    <t>Objeto Compacto</t>
+  </si>
+  <si>
+    <t>Pulling Head</t>
+  </si>
+  <si>
+    <t>Cabeça de Tração</t>
+  </si>
+  <si>
+    <t>Pulling Tool; Cable Head; Pulling Grip; Installation Head; Pulling Tool; Cable Head; Pulling Grip; Installation Head</t>
+  </si>
+  <si>
+    <t>Reinforcement layer in subsea flexible pipes used in oil and gas exploration, designed to protect the pipe from external wear and abrasion caused by contact with the seabed, equipment, or other subsea elements. Its primary role is to provide a durable protective barrier that shields the underlying layers from mechanical damage, extending the lifespan of the flexible pipe. Typically made from wear-resistant polymeric materials, the Anti Wear Sheath ensures the pipe's integrity by reducing the risk of surface damage under harsh operating conditions.</t>
+  </si>
+  <si>
+    <t>Ring Gasket</t>
+  </si>
+  <si>
+    <t>The seal ring is a crucial component used in subsea oil and gas interconnection end fittings to ensure a secure and leak-proof connection between pipes or equipment. Typically made from high-performance materials such as elastomers or metals, the seal ring is designed to withstand extreme pressure, temperature, and environmental conditions found in subsea operations. It is installed within the end fitting to create a reliable seal that prevents fluid leakage and maintains the integrity of the interconnection. The seal ring’s precise design and material selection are essential for ensuring long-term durability and performance in harsh subsea environments.</t>
+  </si>
+  <si>
+    <t>Junta de Conexão</t>
+  </si>
+  <si>
+    <t>Gasket; O-Ring; Sealing Ring; Packing Ring; Seal Gasket;  Seal Ring; Gasket; O-Ring; Sealing Ring; Packing Ring; Seal Gasket;  Seal Ring</t>
+  </si>
+  <si>
+    <t>Reinforcement layer used in subsea flexible pipes to secure and hold internal components in place during manufacturing and operation. The Holding Bandage helps maintain the alignment and stability of the various layers of the pipe, preventing displacement or movement under dynamic conditions. Typically made from high-strength, flexible materials, it contributes to the overall durability and structural integrity of the pipe, ensuring reliable performance in harsh subsea environments.</t>
+  </si>
+  <si>
+    <t>Inner Tube</t>
+  </si>
+  <si>
+    <t>The Inner Tube is the innermost layer of a subsea flexible pipe, responsible for containing and transporting the fluid, such as oil or gas. It is designed to withstand internal pressures and prevent fluid leakage while offering resistance to the corrosive and abrasive nature of the transported substances. The Inner Tube is typically made from high-performance polymeric materials that ensure durability, flexibility, and chemical resistance, making it a critical component in maintaining the integrity of the flexible pipe in subsea operations.</t>
+  </si>
+  <si>
+    <t>Tubo Interno</t>
+  </si>
+  <si>
+    <t>Topside Connection Point</t>
+  </si>
+  <si>
+    <t>Designed to connect the riser to the floating platform or vessel, the Topside Connection Point is a crucial component that ensures a secure and reliable interface between the riser and the topside facilities. Composed of high-strength materials, this connector is engineered to handle the mechanical loads and dynamic conditions of offshore environments. It facilitates the transfer of fluids and provides structural stability, playing a key role in maintaining the overall integrity and functionality of the riser system.</t>
+  </si>
+  <si>
+    <t>Ponto de Conexão de Topo</t>
+  </si>
+  <si>
+    <t>A layer within a subsea flexible pipe designed to contain the internal fluid and withstand the internal pressure exerted by the transported medium, such as oil, gas, or water. The Internal Pressure Sheath plays a crucial role in preventing fluid leakage and maintaining pressure integrity within the pipe. Typically made from high-performance polymeric materials, it ensures the safe transport of fluids under high-pressure conditions, contributing to the pipe's overall structural stability and long-term reliability in harsh subsea environments.</t>
+  </si>
+  <si>
+    <t>A device used to connect and secure components in subsea systems, particularly during lifting, handling, or mooring operations. The Shackle typically consists of a U-shaped metal piece with a removable pin or bolt, allowing it to link components such as chains, slings, or cables. It provides a strong and reliable connection point, ensuring that loads can be safely transferred or lifted without risk of detachment or failure. Shackles are essential for securing flexible lines and other equipment during installation and maintenance in subsea environments.</t>
+  </si>
+  <si>
+    <t>Manilha</t>
+  </si>
+  <si>
+    <t>Clevis; U-Bolt; Bow Shackle; D-Shackle; Anchor Shackle; Clevis; U-Bolt; Bow Shackle; D-Shackle; Anchor Shackle</t>
+  </si>
+  <si>
+    <t>Metric Stud Set</t>
+  </si>
+  <si>
+    <t>Metric studs are crucial fastening components for subsea oil and gas components, designed specifically to secure equipment parts. Each set includes bolts, nuts, and washers in metric sizing, made from high-strength, corrosion-resistant materials to withstand the demanding subsea environment. These components offer dependable fastening, ensuring structural integrity and leak prevention in end fittings. Metric stud sets are engineered to endure high pressure and extreme temperatures, making them essential for the safety and durability of subsea interconnections.</t>
+  </si>
+  <si>
+    <t>Conjunto de Estojos Métrico</t>
+  </si>
+  <si>
+    <t>Metric Stud; Metric Threaded Rod; Metric Stud; Metric Threaded Rod</t>
+  </si>
+  <si>
+    <t>Split Collar</t>
+  </si>
+  <si>
+    <t>A component used to encircle and secure parts of subsea systems, such as flexible pipes, risers, or accessories. The Split Collar is designed with a split or gap, allowing it to be clamped around the pipe or component and then fastened together. This design facilitates easy installation and removal, making it useful for applications where adjustments or maintenance are required. The Split Collar provides structural support, alignment, and stability, ensuring that the connected components remain securely in place.</t>
+  </si>
+  <si>
+    <t>Colar Bipartido</t>
+  </si>
+  <si>
+    <t>Wound Layer</t>
+  </si>
+  <si>
+    <t>Basis for all layers constructed by helical winding of one or more elements.</t>
+  </si>
+  <si>
+    <t>Camada Espiralada</t>
+  </si>
+  <si>
+    <t>End fitting</t>
+  </si>
+  <si>
+    <t>Component used in subsea flexible pipes to provide a secure transition between the flexible pipe and rigid structures, such as subsea equipment or topside facilities, as well as to connect two sections of flexible pipe. The End Fitting ensures the structural integrity and sealing of the pipe, allowing for the connection of the flexible line to other equipment or sections while withstanding internal pressures and environmental forces. It is a critical interface that accommodates the pipe's mechanical, hydraulic, and thermal loads, ensuring long-term reliable performance in harsh subsea conditions.</t>
+  </si>
+  <si>
+    <t>Conector de Extremidade</t>
+  </si>
+  <si>
+    <t>Componente utilizado em dutos flexíveis para fornecer uma transição segura entre o duto flexível e estruturas rígidas, como equipamentos submersos ou instalações no topo, bem como para conectar duas seções de duto flexível. O Terminador garante a integridade estrutural e o vedamento do duto, permitindo a conexão da linha flexível a outros equipamentos ou seções, resistindo a pressões internas e forças ambientais. É uma interface crítica que acomoda as cargas mecânicas, hidráulicas e térmicas do duto, garantindo desempenho confiável a longo prazo em condições submarinas adversas.</t>
+  </si>
+  <si>
+    <t>Termination Fitting; Connector Fitting; End Termination; Termination Assembly; Termination Fitting; Connector Fitting; End Termination; Termination Assembly</t>
+  </si>
+  <si>
+    <t>Material used in subsea flexible pipes, typically applied as a reinforcing layer to provide additional strength and resistance to external forces. High Strength Tape is designed to improve the tensile properties of the flexible pipe, enhancing its ability to withstand high internal pressures, tension, and dynamic loads in harsh subsea environments. It is typically made from advanced fibers or composite materials, ensuring durability and long-term performance in demanding conditions.</t>
+  </si>
+  <si>
+    <t>Tape Layer</t>
+  </si>
+  <si>
+    <t>A layer within the structure of a subsea flexible pipe composed of tape-like materials. This layer is designed to provide additional reinforcement and protection. Typically made from high-strength polymers or other durable materials, the tape layer contributes to the pipe’s overall flexibility, structural integrity, and resistance to external environmental factors. Engineered for harsh underwater conditions, it helps maintain the performance and durability of the flexible pipe system.</t>
+  </si>
+  <si>
+    <t>Camada de Fita</t>
+  </si>
+  <si>
+    <t>Material used in subsea flexible pipes to provide thermal insulation, ensuring that the temperature of the transported fluids remains stable during flow. Insulation Tape is applied in layers around the pipe to minimize heat loss or gain, which is critical for maintaining the fluid's properties, such as viscosity, in deepwater environments. It is typically made from materials with low thermal conductivity, such as polymers or composites, and is essential for enhancing the efficiency and performance of subsea pipelines in harsh temperature conditions.</t>
+  </si>
+  <si>
+    <t>Subsea Flexible Pipes Bsdd Dictionary</t>
+  </si>
+  <si>
+    <t>Bsdd Dictionary of Subsea Flexible Pipelines.</t>
+  </si>
+  <si>
+    <t>Dicionário Bsdd de Dutos Flexíveis Submarinos</t>
+  </si>
+  <si>
+    <t>IfcClassification</t>
+  </si>
+  <si>
+    <t>A protective layer within a subsea flexible pipe, positioned between other structural layers to provide additional protection and separation. The Intermediate Sheath serves to isolate different layers, preventing abrasion, wear, or interaction that could compromise the integrity of the pipe. Typically made from polymeric materials, this sheath also contributes to the overall durability and flexibility of the pipe, ensuring it can withstand the dynamic conditions of subsea environments while maintaining the performance of the internal and external layers.</t>
+  </si>
+  <si>
+    <t>Stud Set</t>
+  </si>
+  <si>
+    <t>Stud sets are essential fastening components used in subsea oil and gas interconnection end fittings to securely assemble and connect various parts of the equipment. Each set typically includes bolts, nuts, and washers, all made from high-strength, corrosion-resistant materials to endure the harsh subsea environment. These components are designed to provide reliable mechanical fastening, ensuring the structural integrity and leak-proof performance of the end fittings. The stud sets are carefully engineered to withstand high pressure and extreme temperatures, making them critical for maintaining the operational safety and longevity of subsea interconnections.</t>
+  </si>
+  <si>
+    <t>Estojos</t>
+  </si>
+  <si>
+    <t>Stud; Threaded Rod; Stud; Threaded Rod</t>
+  </si>
+  <si>
+    <t>A device used in subsea flexible pipes to provide localized stiffness at specific points along the length of the pipe, preventing excessive bending and reducing stress concentration. The Intermediate Bend Stiffener is typically installed between critical areas to ensure that the pipe maintains a controlled bending radius, protecting it from over-flexing or fatigue. Made from durable materials, it helps prolong the service life of the flexible pipe by distributing loads more evenly and reducing the risk of damage in dynamic subsea environments.</t>
+  </si>
+  <si>
+    <t>Dispositivo usado em tubos flexíveis submarinos para fornecer rigidez localizada em pontos específicos ao longo do comprimento do tubo, evitando dobras excessivas e reduzindo a concentração de tensões. O Enrijecedor de Curvatura Intermediário é tipicamente instalado entre áreas críticas para garantir que o tubo mantenha um raio de curvatura controlado, protegendo-o contra flexões excessivas ou fadiga. Feito de materiais duráveis, ajuda a prolongar a vida útil do tubo flexível, distribuindo as cargas de forma mais uniforme e reduzindo o risco de danos em ambientes submarinos dinâmicos.</t>
+  </si>
+  <si>
+    <t>Internal Pressure Sheath</t>
+  </si>
+  <si>
+    <t>Barreira Interna de Pressão</t>
+  </si>
+  <si>
+    <t>Pipe Segment</t>
+  </si>
+  <si>
+    <t>Pipeline segment for movement/flow of fluids.</t>
+  </si>
+  <si>
+    <t>Segmento de Duto</t>
+  </si>
+  <si>
+    <t>A layer used in subsea flexible pipes to reduce friction between different components or layers, enhancing the overall flexibility and durability of the pipe. The Low Resistance Tape minimizes wear and abrasion caused by the movement of adjacent layers during operation, particularly in dynamic subsea conditions. Made from materials with low friction properties, it helps extend the lifespan of the pipe by reducing internal stresses and preventing damage to critical layers, ensuring smooth and efficient operation under harsh underwater conditions.</t>
+  </si>
+  <si>
+    <t>Transport Line Segment</t>
+  </si>
+  <si>
+    <t>Line for conducting some type of flow.</t>
+  </si>
+  <si>
+    <t>Segmento de Linha de Transporte</t>
+  </si>
+  <si>
+    <t>Subsea Connection Point</t>
+  </si>
+  <si>
+    <t>The Subsea Connection Point is the interface on subsea equipment where a flexible pipe connects. It serves as the critical link between the flexible pipe and subsea systems, enabling the transfer of fluids or gases. Designed to withstand high pressures and harsh underwater conditions, the Subsea External Point ensures a secure and reliable connection, facilitating efficient operation of various subsea systems.</t>
+  </si>
+  <si>
+    <t>Ponto de Conexão Submarino</t>
+  </si>
+  <si>
+    <t>Intermediate Sheath</t>
+  </si>
+  <si>
+    <t>Barreira Intermediária de Vedação</t>
+  </si>
+  <si>
+    <t>Model Location Point</t>
+  </si>
+  <si>
+    <t>A specific reference point or coordinate used to define the precise location of equipment, infrastructure, or components within a 3D model.</t>
+  </si>
+  <si>
+    <t>Ponto de Localização no Modelo</t>
+  </si>
+  <si>
+    <t>Material used in subsea flexible pipe construction, typically applied as a wrapping layer to provide protection and containment for internal components. Fabric Tape is designed to secure and hold various layers of the pipe in place during manufacturing and operation, preventing displacement or damage to the underlying layers. It also adds a layer of abrasion resistance, contributing to the overall durability of the pipe in dynamic subsea environments. Made from high-strength, flexible materials, Fabric Tape plays a key role in maintaining the integrity of the flexible pipe structure.</t>
+  </si>
+  <si>
+    <t>Subsea Layout</t>
+  </si>
+  <si>
+    <t>The arrangement or map of components and systems within a subsea environment, including pipelines, risers, manifolds, and other infrastructure.</t>
+  </si>
+  <si>
+    <t>Arranjo Submarino</t>
+  </si>
+  <si>
+    <t>Solid Layer</t>
+  </si>
+  <si>
+    <t>Continuous layer used in subsea flexible pipes or similar structures, typically fabricated through extrusion. It provides structural reinforcement, pressure containment, or environmental protection, ensuring the integrity and performance of the pipe by offering consistent support or shielding.</t>
+  </si>
+  <si>
+    <t>Camada Sólida</t>
+  </si>
+  <si>
+    <t>Camada maciça formada por extrusão contínua de um material</t>
+  </si>
+  <si>
+    <t>Low Resistance Tape</t>
+  </si>
+  <si>
+    <t>Fita de Baixa Resistência</t>
+  </si>
+  <si>
+    <t>Polymeric Material</t>
+  </si>
+  <si>
+    <t>Material made from polymers, used to fabricate flexible layers in subsea flexible pipes. Polymeric Material is selected for its properties such as flexibility, chemical resistance, and durability, making it suitable for withstanding the harsh conditions of subsea environments. These materials are commonly used in layers that provide insulation, protection, or pressure containment, ensuring the overall performance and integrity of the flexible pipe under dynamic loads and extreme underwater conditions.</t>
+  </si>
+  <si>
+    <t>Material Polimérico</t>
+  </si>
+  <si>
+    <t>UNS Bolt Set</t>
+  </si>
+  <si>
+    <t>A set of bolts conforming to the Unified Numbering System (UNS) standard, ensuring material consistency and reliability in subsea applications.</t>
+  </si>
+  <si>
+    <t>Conjunto de Parafusos UNS</t>
+  </si>
+  <si>
+    <t>Flexible Pipe Segment</t>
+  </si>
+  <si>
+    <t>A segment of a flexible pipe that forms part of the overall pipeline system. The Flexible Pipe Segment is designed to transport fluids or gases over varying distances and conditions on the seafloor. Each section is engineered to handle specific environmental and operational requirements, contributing to the flexibility, durability, and performance of the subsea pipeline system.</t>
+  </si>
+  <si>
+    <t>Tramo de Duto Flexível</t>
+  </si>
+  <si>
+    <t>Um segmento de duto flexível que faz parte do sistema de pipeline geral. O Tramo Flexível é projetado para transportar fluidos ou gases por distâncias e condições variadas no fundo do mar. Cada seção é projetada para atender a requisitos ambientais e operacionais específicos, contribuindo para a flexibilidade, durabilidade e desempenho do sistema de dutos submarinos.</t>
+  </si>
+  <si>
+    <t>Flexible Pipe Segment; Flexible Pipe Section; Subsea Pipe Segment; Flexible Line Section; Flexible Pipe Segment; Flexible Pipe Section; Subsea Pipe Segment; Flexible Line Section</t>
+  </si>
+  <si>
+    <t>Reference Drawing</t>
+  </si>
+  <si>
+    <t>A technical drawing providing detailed information about a specific component, system, or assembly, used as a guide for manufacturing, installation, or maintenance in subsea projects.</t>
+  </si>
+  <si>
+    <t>Desenhos de Referência</t>
+  </si>
+  <si>
+    <t>A protective layer in subsea flexible pipes designed to absorb damage from external environmental factors, such as abrasion or impact, over time. The Sacrificial Sheath is intended to wear out or degrade under harsh conditions, thereby preserving the integrity of the underlying layers and prolonging the overall lifespan of the pipe. Made from durable materials, this sheath acts as the first line of defense, allowing for the controlled degradation of the pipe's outer surface without affecting its core structural or functional performance.</t>
+  </si>
+  <si>
+    <t>Sacrificial Sheath</t>
+  </si>
+  <si>
+    <t>Camada de Sacrifício</t>
+  </si>
+  <si>
+    <t>Wire Layer</t>
+  </si>
+  <si>
+    <t>Basis for all wired layers.</t>
+  </si>
+  <si>
+    <t>Camada de Arame</t>
+  </si>
+  <si>
+    <t>Linear Location</t>
+  </si>
+  <si>
+    <t>Base for locations that extend along a geographically significant route.</t>
+  </si>
+  <si>
+    <t>Localização Linear</t>
+  </si>
+  <si>
+    <t>A specific layer within the structure of a subsea flexible pipe, each designed to fulfill a distinct function. These layers work together to provide essential properties such as pressure containment, reinforcement, and environmental protection. Engineered to withstand harsh underwater conditions, each layer contributes to the overall flexibility, durability, and performance of the subsea flexible pipe system.</t>
+  </si>
+  <si>
+    <t>Reinforcement layer in subsea flexible pipes used in oil and gas exploration, designed to prevent the collapse of the pipe under high external pressure conditions, such as those encountered in deepwater environments. Its primary role is to provide structural support against external forces that could compress or deform the pipe, particularly during situations where the internal pressure is reduced or absent, like when the pipe is emptied. Typically made from high-strength metallic or polymeric materials, the Anti Collapse Sheath ensures the integrity of the flexible pipe under extreme conditions.</t>
+  </si>
+  <si>
+    <t>Metric Bolt Set</t>
+  </si>
+  <si>
+    <t>A set of bolts and accompanying hardware sized using the metric measurement system, commonly used in subsea applications for international compatibility and standardization.</t>
+  </si>
+  <si>
+    <t>Conjunto de Parafusos Métrico</t>
+  </si>
+  <si>
+    <t>Hang Off Collar</t>
+  </si>
+  <si>
+    <t>Sistema de Suspensão</t>
+  </si>
+  <si>
+    <t>Handling Collar</t>
+  </si>
+  <si>
+    <t>Colar de Manuseio</t>
+  </si>
+  <si>
+    <t>HCR Hose</t>
+  </si>
+  <si>
+    <t>High Collapse Resistant Hose</t>
+  </si>
+  <si>
+    <t>Commissioning Program</t>
+  </si>
+  <si>
+    <t>Programa de Comissionamento</t>
+  </si>
+  <si>
+    <t>Program</t>
+  </si>
+  <si>
+    <t>Groove Point</t>
+  </si>
+  <si>
+    <t>The Groove Point is a designated point on the center line of the End Fitting, used to indicate the exact position of a groove. The groove itself is a recessed area designed specifically to lock the End Fitting during onboard installation, ensuring that it remains securely in place during the process. The Groove Support Point provides a reference for locating the groove, facilitating the precise alignment and positioning required for a smooth installation.</t>
+  </si>
+  <si>
+    <t>Ponto de Groove</t>
+  </si>
+  <si>
+    <t>Ponto na linha de centro do End Fitting para indicar a posição do Groove</t>
+  </si>
+  <si>
+    <t>IfcDistributionPort</t>
+  </si>
+  <si>
+    <t>Commissioning Contract</t>
+  </si>
+  <si>
+    <t>Contrato de Comissionamento</t>
+  </si>
+  <si>
+    <t>Contract</t>
+  </si>
+  <si>
+    <t>Commissioning Issue</t>
+  </si>
+  <si>
+    <t>Pendência de Comissionamento</t>
+  </si>
+  <si>
+    <t>Pendency_Classification</t>
+  </si>
+  <si>
+    <t>Anchoring Collar</t>
+  </si>
+  <si>
+    <t>A mechanical device used to stabilize and secure flexible pipes, risers, or umbilical systems to fixed structures in subsea applications. By clamping onto the outer layers of the pipe, it prevents unwanted movement during installation and operation, helping to maintain alignment and integrity under tension or compression.</t>
+  </si>
+  <si>
+    <t>Colar de Ancoragem</t>
+  </si>
+  <si>
+    <t>Um dispositivo mecânico usado para estabilizar e fixar dutos flexíveis ou risers a estruturas fixas em aplicações submarinas, além de dar suporte aos sistemas umbilicais. Ao se prender às camadas externas do tubo, evita movimentos indesejados durante a instalação e operação, ajudando a manter o alinhamento e a integridade sob tensão ou compressão.</t>
+  </si>
+  <si>
+    <t>Anchor Clamp; Anchoring Device; Fixation Collar; Securing Collar; Anchor Clamp; Anchoring Device; Fixation Collar; Securing Collar</t>
+  </si>
+  <si>
+    <t>Anti Wear Sheath</t>
+  </si>
+  <si>
+    <t>Capa Anti-Atrito</t>
+  </si>
+  <si>
+    <t>Camada de reforço em dutos flexíveis usados na exploração de petróleo e gás, projetada para proteger o duto do desgaste externo e da abrasão causados pelo contato com o fundo marinho, equipamentos ou outros elementos submarinos. Seu papel principal é fornecer uma barreira protetora durável que protege as camadas subjacentes contra danos mecânicos, aumentando a vida útil do tubo flexível. Geralmente feita de materiais poliméricos resistentes ao desgaste, a Capa Anti-Atrito garante a integridade do duto ao reduzir o risco de danos na superfície em condições operacionais adversas.</t>
+  </si>
+  <si>
+    <t>Commissioning Item Check</t>
+  </si>
+  <si>
+    <t>FVI</t>
+  </si>
+  <si>
+    <t>Verificação de Item Comissionável</t>
+  </si>
+  <si>
+    <t>Commissioning Activity</t>
+  </si>
+  <si>
+    <t>Atividade de Comissionamento</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>Bend Stiffener</t>
+  </si>
+  <si>
+    <t>Enrijecedor de Curvatura</t>
+  </si>
+  <si>
+    <t>Buoyancy Module</t>
+  </si>
+  <si>
+    <t>Módulo de Flutuação</t>
+  </si>
+  <si>
+    <t>Buoyancy Element; Floatation Module; Buoyancy Unit; Subsea Buoyancy Module; Buoyancy Element; Floatation Module; Buoyancy Unit; Subsea Buoyancy Module</t>
+  </si>
+  <si>
+    <t>Intermediate Bend Stiffener</t>
+  </si>
+  <si>
+    <t>Enrijecedor de Curvatura Intermediário</t>
+  </si>
+  <si>
+    <t>Intermediate Bending Stiffener; Stiffener; Curvature Stiffener; Intermediate Bending Stiffener; Stiffener; Curvature Stiffener</t>
+  </si>
+  <si>
+    <t>Distribution Connection Point</t>
+  </si>
+  <si>
+    <t>Location in a model that indicates the specific point where fluid distribution components are connected. The Distribution Connection Point provides precise information for the assembly and installation of these components, ensuring proper alignment and functionality within the system. This point is critical for defining the interface between fluid distribution elements in subsea or other fluid-handling systems.</t>
+  </si>
+  <si>
+    <t>Ponto de Conexão de Distribuição</t>
+  </si>
+  <si>
+    <t>Localização em um modelo que indica o ponto específico onde os componentes de distribuição de fluido são conectados. O Ponto de Conexão de Distribuição fornece informações precisas para a montagem e instalação desses componentes, garantindo o alinhamento adequado e a funcionalidade dentro do sistema. Este ponto é crucial para definir a interface entre os elementos de distribuição de fluido em sistemas submarinos ou outros sistemas de manuseio de fluido.</t>
+  </si>
+  <si>
+    <t>Dimensions Drawing</t>
+  </si>
+  <si>
+    <t>Technical drawing providing detailed measurements, geometric specifications, and angular data of components. The Dimensions Drawing includes critical information such as length, diameter, thickness, and angles, ensuring the precise fabrication, assembly, and installation of the parts. This drawing is essential for meeting design requirements and ensuring that all components fit accurately within the overall system, supporting efficient manufacturing and quality control.</t>
+  </si>
+  <si>
+    <t>Desenho de Cotas</t>
+  </si>
+  <si>
+    <t>Desenho técnico que fornece medições detalhadas, especificações geométricas e dados angulares dos componentes utilizados. O Desenho de Cotas inclui informações críticas como comprimento, diâmetro, espessura e ângulos, garantindo a fabricação, montagem e instalação precisas das peças. Esse desenho é essencial para atender aos requisitos de projeto e garantir que todos os componentes se encaixem corretamente no sistema como um todo, apoiando a fabricação eficiente e o controle de qualidade.</t>
+  </si>
+  <si>
+    <t>Component used in subsea systems to provide additional weight to flexible pipes, risers, or umbilicals, ensuring proper stability and positioning on the seabed. The Deadweight Collar is designed to counteract buoyant forces, preventing unwanted movement of the pipe due to ocean currents or other environmental factors. Typically made from dense materials, it plays a crucial role in maintaining the alignment and stability of lines in dynamic environments, ensuring that the system remains securely anchored.</t>
+  </si>
+  <si>
+    <t>Componente utilizado em sistemas submersos para fornecer peso adicional a dutos flexíveis, risers ou umbilicais, garantindo a estabilidade e o posicionamento adequados no fundo marinho. O Colar de Peso Morto é projetado para contrabalançar as forças de flutuabilidade, prevenindo o movimento indesejado do duto devido a correntes oceânicas ou outros fatores ambientais. Geralmente feito de materiais densos, ele desempenha um papel crucial na manutenção do alinhamento e da estabilidade das linhas submersas em ambientes dinâmicos, garantindo que o sistema permaneça firmemente ancorado.</t>
+  </si>
+  <si>
+    <t>Weight Collar; Sinking Collar; Ballast Collar; Dead Weight Clamp; Weight Collar; Sinking Collar; Ballast Collar; Dead Weight Clamp</t>
+  </si>
+  <si>
+    <t>Deadweight Collar</t>
+  </si>
+  <si>
+    <t>Colar de Peso Morto</t>
+  </si>
+  <si>
+    <t>A broad concept that encompasses the design, development, and planning of various components or systems.</t>
+  </si>
+  <si>
+    <t>Projeto</t>
+  </si>
+  <si>
+    <t>IfcProject</t>
+  </si>
+  <si>
+    <t>Anti Collapse Sheath</t>
+  </si>
+  <si>
+    <t>Capa Anti-Colapso</t>
+  </si>
+  <si>
+    <t>Camada de reforço em dutos flexíveis submarinos usados na exploração de petróleo e gás, projetada para evitar o colapso do duto sob altas pressões externas, como as encontradas em ambientes de águas profundas. Sua função principal é fornecer suporte estrutural contra forças externas que poderiam comprimir ou deformar o duto, especialmente durante situações em que a pressão interna é reduzida ou ausente, como quando o duto está vazio. Normalmente feita de materiais metálicos ou poliméricos de alta resistência, a Capa Anti-Colapso garante a integridade do duto flexível em condições extremas.</t>
+  </si>
+  <si>
+    <t>Device used in subsea flexible pipes to limit the bending radius and prevent over-bending that could damage the pipe. Typically installed near critical areas such as connectors or end fittings, where excessive bending could compromise the structural integrity of the pipe. The Bend Restrictor consists of multiple interlocking segments that allow flexibility up to a certain radius, beyond which the segments lock to prevent further bending, protecting the pipe from deformation or failure in harsh subsea environments.</t>
+  </si>
+  <si>
+    <t>Dispositivo usado em dutos flexíveis para limitar o raio de curvatura e evitar curvaturas excessivas que poderiam danificar o duto. Normalmente instalado perto de áreas críticas, como conectores ou acessórios finais, onde curvaturas excessivas poderiam comprometer a integridade estrutural do duto. O Restritor de Curvatura consiste em múltiplos segmentos interligados que permitem flexibilidade até um certo raio, além do qual os segmentos se bloqueiam para impedir mais curvaturas, protegendo o duto contra deformações ou falhas em ambientes submarinos adversos.</t>
+  </si>
+  <si>
+    <t>Composite Material</t>
+  </si>
+  <si>
+    <t>Material made from two or more distinct components, typically reinforcing fibers and a matrix, used in the construction of layers in flexible pipes for subsea applications. The Composite Material offers a combination of high strength, corrosion resistance, and flexibility, making it suitable for withstanding the harsh conditions of deepwater environments. Its use in flexible pipe layers enhances the pipe's structural integrity, resistance to external pressure, and durability under cyclical loading, while also reducing weight compared to traditional metallic materials.</t>
+  </si>
+  <si>
+    <t>Material Compósito</t>
+  </si>
+  <si>
+    <t>Material composto por dois ou mais componentes distintos, geralmente fibras de reforço e uma matriz, usado na construção de camadas em dutos flexíveis para aplicações subsea. O Material Compósito oferece uma combinação de alta resistência, resistência à corrosão e flexibilidade, tornando-o adequado para suportar as condições severas de ambientes de águas profundas. Seu uso nas camadas do duto flexível melhora a integridade estrutural do duto, resistência à pressão externa e durabilidade sob carregamento cíclico, ao mesmo tempo em que reduz o peso em comparação com materiais metálicos tradicionais.</t>
+  </si>
+  <si>
+    <t>Fabric Tape</t>
+  </si>
+  <si>
+    <t>Fita Construtiva</t>
+  </si>
+  <si>
+    <t>Material utilizado na construção de dutos flexíveis, geralmente aplicado como uma camada de envolvimento para fornecer proteção e contenção para os componentes internos. A Fita Construtiva é projetada para segurar e manter as várias camadas do duto no lugar durante a fabricação e operação, evitando o deslocamento ou danos às camadas subjacentes. Ela também adiciona uma camada de resistência à abrasão, contribuindo para a durabilidade geral do duto em ambientes dinâmicos. Feita de materiais flexíveis e de alta resistência, a Fita Construtiva desempenha um papel crucial na manutenção da integridade da estrutura do duto flexível.</t>
+  </si>
+  <si>
+    <t>Armour Layer</t>
+  </si>
+  <si>
+    <t>A reinforcement layer in subsea flexible pipes used in oil and gas exploration, designed to provide mechanical strength and protection against external forces, such as pressure and movement. It ensures structural integrity by preventing deformation and failure during operation. Typically made from high-strength metal wires, like carbon steel or stainless steel, the Armor Layer enhances the pipe's durability in harsh underwater conditions.</t>
+  </si>
+  <si>
+    <t>Camada de Armadura</t>
+  </si>
+  <si>
+    <t>Bolt Set</t>
+  </si>
+  <si>
+    <t>A collection of bolts and nuts, and washers designed for fastening components in subsea systems. Bolt sets are critical for ensuring structural integrity and are selected based on size, material, and application requirements.</t>
+  </si>
+  <si>
+    <t>Conjunto de Parafusos</t>
+  </si>
+  <si>
+    <t>An asset refers to valuable resources such as platforms, equipment, pipelines, and processing facilities crucial for production and transportation. These assets are managed to optimize performance, ensure safety, and maximize operational efficiency throughout their lifecycle.</t>
+  </si>
+  <si>
+    <t>Ativo</t>
+  </si>
+  <si>
+    <t>Commissioning Project</t>
+  </si>
+  <si>
+    <t>Projeto de Comissionamento</t>
+  </si>
+  <si>
+    <t>Mooring Accessory</t>
+  </si>
+  <si>
+    <t>A Mooring Accessory includes components like anchors, chains, and connectors used to secure offshore platforms or vessels to the seabed, ensuring stability and safety in harsh marine conditions.</t>
+  </si>
+  <si>
+    <t>Acessório de Amarração</t>
+  </si>
+  <si>
+    <t>Carcass Layer</t>
+  </si>
+  <si>
+    <t>A reinforcement layer in subsea flexible pipes that provides structural strength and stability. It helps maintain the shape and integrity of the pipe under operational pressure, ensuring the flexibility of the pipe while protecting the internal components. Typically made from metal or polymer materials, it acts as a foundation for the other protective layers.</t>
+  </si>
+  <si>
+    <t>Camada de Carcaça</t>
+  </si>
+  <si>
+    <t>Items always found as part of larger objects, with varying levels of complexity.</t>
+  </si>
+  <si>
+    <t>Componente</t>
+  </si>
+  <si>
+    <t>Equipment Location</t>
+  </si>
+  <si>
+    <t>Base for installation sites for large underwater equipment.</t>
+  </si>
+  <si>
+    <t>Localização de Equipamento</t>
+  </si>
+  <si>
+    <t>Flexible Structure Layer</t>
+  </si>
+  <si>
+    <t>Camadas de Estruturas Flexíveis</t>
+  </si>
+  <si>
+    <t>Hardware Item</t>
+  </si>
+  <si>
+    <t>Simple mechanical items such as hardware, fasteners, seals, etc.</t>
+  </si>
+  <si>
+    <t>Item de Hardware</t>
+  </si>
+  <si>
+    <t>High Strength Tape</t>
+  </si>
+  <si>
+    <t>Fita de Alta Resistência</t>
+  </si>
+  <si>
+    <t>Holding Bandage</t>
+  </si>
+  <si>
+    <t>Bandagem de Reforço</t>
+  </si>
+  <si>
+    <t>Insulation Tape</t>
+  </si>
+  <si>
+    <t>Fita de Isolamento</t>
+  </si>
+  <si>
+    <t>A component designed to complement and enhance the functionality of subsea flexible pipes. Line Ancillaries include a variety of parts such as connectors, clamps, or collars that facilitate the installation, operation, and maintenance of flexible pipes used in subsea systems. These ancillaries ensure proper alignment, secure connections, and protection against environmental factors, contributing to the reliable performance and integrity of the flexible pipe system in harsh underwater conditions.</t>
+  </si>
+  <si>
+    <t>Location that contains the entire length of an interconnection, with its various sections, terminations, inline equipment, etc.</t>
+  </si>
+  <si>
+    <t>Interligação</t>
+  </si>
+  <si>
+    <t>Commissioning Task</t>
+  </si>
+  <si>
+    <t>Tarefa de Comissionamento</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Linear Object</t>
+  </si>
+  <si>
+    <t>Base for any type of interconnecting element with linear geometry.</t>
+  </si>
+  <si>
+    <t>Objeto Linear</t>
+  </si>
+  <si>
+    <t>Logical Connection</t>
+  </si>
+  <si>
+    <t>Represents a logical/functional connection between two installation locations.</t>
+  </si>
+  <si>
+    <t>Conexão Lógica</t>
+  </si>
+  <si>
+    <t>Commissioning Loop Check</t>
+  </si>
+  <si>
+    <t>Verificação de Malha</t>
+  </si>
+  <si>
+    <t>FVM</t>
+  </si>
+  <si>
+    <t>Bend Restrictor</t>
+  </si>
+  <si>
+    <t>Restritor de Curvatura</t>
+  </si>
+  <si>
+    <t>Bend Limiter; Bending Restrictor; Curvature Limiter; Bend Limiter; Bending Restrictor; Curvature Limiter</t>
+  </si>
+  <si>
+    <t>Top Bend Stiffener</t>
+  </si>
+  <si>
+    <t>Enrijecedor de Curvatura de Topo</t>
+  </si>
+  <si>
+    <t>Top Bending Stiffener; Stiffener; Curvature Stiffener; Top Bending Stiffener; Stiffener; Curvature Stiffener</t>
+  </si>
+  <si>
+    <t>Line Ancillary</t>
+  </si>
+  <si>
+    <t>Acessório de Linha</t>
+  </si>
+  <si>
+    <t>Line Termination</t>
+  </si>
+  <si>
+    <t>Terminador de Linha</t>
+  </si>
+  <si>
+    <t>dcterms:identifier</t>
+  </si>
+  <si>
+    <t>skos:prefLabel @en</t>
+  </si>
+  <si>
+    <t>skos:prefLabel @pt-BR</t>
+  </si>
+  <si>
+    <t>:ifc_equivalentClass</t>
+  </si>
+  <si>
+    <t>skos:definition @en</t>
+  </si>
+  <si>
+    <t>skos:definition @pt-BR</t>
+  </si>
+  <si>
+    <t>:ifc_objectType</t>
+  </si>
+  <si>
+    <t>:ifc_predefinedType</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1832,8 +2922,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -25597,7 +26688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A303" workbookViewId="0">
+    <sheetView topLeftCell="A303" workbookViewId="0">
       <selection activeCell="A303" sqref="A303"/>
     </sheetView>
   </sheetViews>
@@ -31756,6 +32847,6524 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I247"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="164.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" t="s">
+        <v>595</v>
+      </c>
+      <c r="C2" t="s">
+        <v>595</v>
+      </c>
+      <c r="D2" t="s">
+        <v>595</v>
+      </c>
+      <c r="E2" t="s">
+        <v>595</v>
+      </c>
+      <c r="F2" t="s">
+        <v>595</v>
+      </c>
+      <c r="G2" t="s">
+        <v>595</v>
+      </c>
+      <c r="H2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" t="s">
+        <v>595</v>
+      </c>
+      <c r="C3" t="s">
+        <v>595</v>
+      </c>
+      <c r="D3" t="s">
+        <v>595</v>
+      </c>
+      <c r="E3" t="s">
+        <v>595</v>
+      </c>
+      <c r="F3" t="s">
+        <v>595</v>
+      </c>
+      <c r="G3" t="s">
+        <v>595</v>
+      </c>
+      <c r="H3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" t="s">
+        <v>595</v>
+      </c>
+      <c r="C4" t="s">
+        <v>595</v>
+      </c>
+      <c r="D4" t="s">
+        <v>595</v>
+      </c>
+      <c r="E4" t="s">
+        <v>595</v>
+      </c>
+      <c r="F4" t="s">
+        <v>595</v>
+      </c>
+      <c r="G4" t="s">
+        <v>595</v>
+      </c>
+      <c r="H4" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" t="s">
+        <v>595</v>
+      </c>
+      <c r="C5" t="s">
+        <v>595</v>
+      </c>
+      <c r="D5" t="s">
+        <v>595</v>
+      </c>
+      <c r="E5" t="s">
+        <v>595</v>
+      </c>
+      <c r="F5" t="s">
+        <v>595</v>
+      </c>
+      <c r="G5" t="s">
+        <v>595</v>
+      </c>
+      <c r="H5" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" t="s">
+        <v>836</v>
+      </c>
+      <c r="C6" t="s">
+        <v>837</v>
+      </c>
+      <c r="D6" t="s">
+        <v>838</v>
+      </c>
+      <c r="E6" t="s">
+        <v>839</v>
+      </c>
+      <c r="F6" t="s">
+        <v>596</v>
+      </c>
+      <c r="G6" t="s">
+        <v>252</v>
+      </c>
+      <c r="H6" t="s">
+        <v>598</v>
+      </c>
+      <c r="I6" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>620</v>
+      </c>
+      <c r="C7" t="s">
+        <v>621</v>
+      </c>
+      <c r="D7" t="s">
+        <v>622</v>
+      </c>
+      <c r="E7" t="s">
+        <v>623</v>
+      </c>
+      <c r="F7" t="s">
+        <v>596</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>598</v>
+      </c>
+      <c r="I7" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" t="s">
+        <v>595</v>
+      </c>
+      <c r="C8" t="s">
+        <v>595</v>
+      </c>
+      <c r="D8" t="s">
+        <v>595</v>
+      </c>
+      <c r="E8" t="s">
+        <v>595</v>
+      </c>
+      <c r="F8" t="s">
+        <v>595</v>
+      </c>
+      <c r="G8" t="s">
+        <v>595</v>
+      </c>
+      <c r="H8" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>270</v>
+      </c>
+      <c r="B9" t="s">
+        <v>874</v>
+      </c>
+      <c r="C9" t="s">
+        <v>812</v>
+      </c>
+      <c r="D9" t="s">
+        <v>875</v>
+      </c>
+      <c r="E9" t="s">
+        <v>876</v>
+      </c>
+      <c r="F9" t="s">
+        <v>605</v>
+      </c>
+      <c r="G9" t="s">
+        <v>270</v>
+      </c>
+      <c r="H9" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B10" t="s">
+        <v>841</v>
+      </c>
+      <c r="C10" t="s">
+        <v>714</v>
+      </c>
+      <c r="D10" t="s">
+        <v>842</v>
+      </c>
+      <c r="E10" t="s">
+        <v>843</v>
+      </c>
+      <c r="F10" t="s">
+        <v>605</v>
+      </c>
+      <c r="G10" t="s">
+        <v>256</v>
+      </c>
+      <c r="H10" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" t="s">
+        <v>595</v>
+      </c>
+      <c r="C11" t="s">
+        <v>595</v>
+      </c>
+      <c r="D11" t="s">
+        <v>595</v>
+      </c>
+      <c r="E11" t="s">
+        <v>595</v>
+      </c>
+      <c r="F11" t="s">
+        <v>596</v>
+      </c>
+      <c r="G11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H11" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>277</v>
+      </c>
+      <c r="B12" t="s">
+        <v>886</v>
+      </c>
+      <c r="C12" t="s">
+        <v>887</v>
+      </c>
+      <c r="D12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E12" t="s">
+        <v>595</v>
+      </c>
+      <c r="F12" t="s">
+        <v>595</v>
+      </c>
+      <c r="G12" t="s">
+        <v>595</v>
+      </c>
+      <c r="H12" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>280</v>
+      </c>
+      <c r="B13" t="s">
+        <v>280</v>
+      </c>
+      <c r="C13" t="s">
+        <v>892</v>
+      </c>
+      <c r="D13" t="s">
+        <v>893</v>
+      </c>
+      <c r="E13" t="s">
+        <v>595</v>
+      </c>
+      <c r="F13" t="s">
+        <v>595</v>
+      </c>
+      <c r="G13" t="s">
+        <v>595</v>
+      </c>
+      <c r="H13" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" t="s">
+        <v>595</v>
+      </c>
+      <c r="C14" t="s">
+        <v>595</v>
+      </c>
+      <c r="D14" t="s">
+        <v>595</v>
+      </c>
+      <c r="E14" t="s">
+        <v>595</v>
+      </c>
+      <c r="F14" t="s">
+        <v>595</v>
+      </c>
+      <c r="G14" t="s">
+        <v>595</v>
+      </c>
+      <c r="H14" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>300</v>
+      </c>
+      <c r="B15" t="s">
+        <v>933</v>
+      </c>
+      <c r="C15" t="s">
+        <v>877</v>
+      </c>
+      <c r="D15" t="s">
+        <v>934</v>
+      </c>
+      <c r="E15" t="s">
+        <v>878</v>
+      </c>
+      <c r="F15" t="s">
+        <v>596</v>
+      </c>
+      <c r="G15" t="s">
+        <v>300</v>
+      </c>
+      <c r="H15" t="s">
+        <v>595</v>
+      </c>
+      <c r="I15" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>261</v>
+      </c>
+      <c r="B16" t="s">
+        <v>850</v>
+      </c>
+      <c r="C16" t="s">
+        <v>642</v>
+      </c>
+      <c r="D16" t="s">
+        <v>851</v>
+      </c>
+      <c r="E16" t="s">
+        <v>595</v>
+      </c>
+      <c r="F16" t="s">
+        <v>595</v>
+      </c>
+      <c r="G16" t="s">
+        <v>595</v>
+      </c>
+      <c r="H16" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>223</v>
+      </c>
+      <c r="B17" t="s">
+        <v>595</v>
+      </c>
+      <c r="C17" t="s">
+        <v>595</v>
+      </c>
+      <c r="D17" t="s">
+        <v>595</v>
+      </c>
+      <c r="E17" t="s">
+        <v>595</v>
+      </c>
+      <c r="F17" t="s">
+        <v>595</v>
+      </c>
+      <c r="G17" t="s">
+        <v>595</v>
+      </c>
+      <c r="H17" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>278</v>
+      </c>
+      <c r="B18" t="s">
+        <v>889</v>
+      </c>
+      <c r="C18" t="s">
+        <v>890</v>
+      </c>
+      <c r="D18" t="s">
+        <v>891</v>
+      </c>
+      <c r="E18" t="s">
+        <v>595</v>
+      </c>
+      <c r="F18" t="s">
+        <v>595</v>
+      </c>
+      <c r="G18" t="s">
+        <v>595</v>
+      </c>
+      <c r="H18" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" t="s">
+        <v>595</v>
+      </c>
+      <c r="C19" t="s">
+        <v>595</v>
+      </c>
+      <c r="D19" t="s">
+        <v>595</v>
+      </c>
+      <c r="E19" t="s">
+        <v>595</v>
+      </c>
+      <c r="F19" t="s">
+        <v>595</v>
+      </c>
+      <c r="G19" t="s">
+        <v>595</v>
+      </c>
+      <c r="H19" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>262</v>
+      </c>
+      <c r="B20" t="s">
+        <v>852</v>
+      </c>
+      <c r="C20" t="s">
+        <v>679</v>
+      </c>
+      <c r="D20" t="s">
+        <v>853</v>
+      </c>
+      <c r="E20" t="s">
+        <v>680</v>
+      </c>
+      <c r="F20" t="s">
+        <v>596</v>
+      </c>
+      <c r="G20" t="s">
+        <v>262</v>
+      </c>
+      <c r="H20" t="s">
+        <v>598</v>
+      </c>
+      <c r="I20" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>240</v>
+      </c>
+      <c r="B21" t="s">
+        <v>595</v>
+      </c>
+      <c r="C21" t="s">
+        <v>595</v>
+      </c>
+      <c r="D21" t="s">
+        <v>595</v>
+      </c>
+      <c r="E21" t="s">
+        <v>595</v>
+      </c>
+      <c r="F21" t="s">
+        <v>595</v>
+      </c>
+      <c r="G21" t="s">
+        <v>595</v>
+      </c>
+      <c r="H21" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>283</v>
+      </c>
+      <c r="B22" t="s">
+        <v>899</v>
+      </c>
+      <c r="C22" t="s">
+        <v>900</v>
+      </c>
+      <c r="D22" t="s">
+        <v>901</v>
+      </c>
+      <c r="E22" t="s">
+        <v>595</v>
+      </c>
+      <c r="F22" t="s">
+        <v>595</v>
+      </c>
+      <c r="G22" t="s">
+        <v>595</v>
+      </c>
+      <c r="H22" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>229</v>
+      </c>
+      <c r="B23" t="s">
+        <v>595</v>
+      </c>
+      <c r="C23" t="s">
+        <v>595</v>
+      </c>
+      <c r="D23" t="s">
+        <v>595</v>
+      </c>
+      <c r="E23" t="s">
+        <v>595</v>
+      </c>
+      <c r="F23" t="s">
+        <v>595</v>
+      </c>
+      <c r="G23" t="s">
+        <v>595</v>
+      </c>
+      <c r="H23" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" t="s">
+        <v>595</v>
+      </c>
+      <c r="C24" t="s">
+        <v>595</v>
+      </c>
+      <c r="D24" t="s">
+        <v>595</v>
+      </c>
+      <c r="E24" t="s">
+        <v>595</v>
+      </c>
+      <c r="F24" t="s">
+        <v>595</v>
+      </c>
+      <c r="G24" t="s">
+        <v>595</v>
+      </c>
+      <c r="H24" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>225</v>
+      </c>
+      <c r="B25" t="s">
+        <v>595</v>
+      </c>
+      <c r="C25" t="s">
+        <v>595</v>
+      </c>
+      <c r="D25" t="s">
+        <v>595</v>
+      </c>
+      <c r="E25" t="s">
+        <v>595</v>
+      </c>
+      <c r="F25" t="s">
+        <v>595</v>
+      </c>
+      <c r="G25" t="s">
+        <v>595</v>
+      </c>
+      <c r="H25" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>249</v>
+      </c>
+      <c r="B26" t="s">
+        <v>595</v>
+      </c>
+      <c r="C26" t="s">
+        <v>595</v>
+      </c>
+      <c r="D26" t="s">
+        <v>595</v>
+      </c>
+      <c r="E26" t="s">
+        <v>595</v>
+      </c>
+      <c r="F26" t="s">
+        <v>595</v>
+      </c>
+      <c r="G26" t="s">
+        <v>595</v>
+      </c>
+      <c r="H26" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" t="s">
+        <v>595</v>
+      </c>
+      <c r="C27" t="s">
+        <v>595</v>
+      </c>
+      <c r="D27" t="s">
+        <v>595</v>
+      </c>
+      <c r="E27" t="s">
+        <v>595</v>
+      </c>
+      <c r="F27" t="s">
+        <v>595</v>
+      </c>
+      <c r="G27" t="s">
+        <v>595</v>
+      </c>
+      <c r="H27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>224</v>
+      </c>
+      <c r="B28" t="s">
+        <v>595</v>
+      </c>
+      <c r="C28" t="s">
+        <v>595</v>
+      </c>
+      <c r="D28" t="s">
+        <v>595</v>
+      </c>
+      <c r="E28" t="s">
+        <v>595</v>
+      </c>
+      <c r="F28" t="s">
+        <v>595</v>
+      </c>
+      <c r="G28" t="s">
+        <v>595</v>
+      </c>
+      <c r="H28" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>260</v>
+      </c>
+      <c r="B29" t="s">
+        <v>847</v>
+      </c>
+      <c r="C29" t="s">
+        <v>595</v>
+      </c>
+      <c r="D29" t="s">
+        <v>848</v>
+      </c>
+      <c r="E29" t="s">
+        <v>595</v>
+      </c>
+      <c r="F29" t="s">
+        <v>601</v>
+      </c>
+      <c r="G29" t="s">
+        <v>849</v>
+      </c>
+      <c r="H29" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" t="s">
+        <v>830</v>
+      </c>
+      <c r="C30" t="s">
+        <v>595</v>
+      </c>
+      <c r="D30" t="s">
+        <v>831</v>
+      </c>
+      <c r="E30" t="s">
+        <v>595</v>
+      </c>
+      <c r="F30" t="s">
+        <v>635</v>
+      </c>
+      <c r="G30" t="s">
+        <v>832</v>
+      </c>
+      <c r="H30" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>599</v>
+      </c>
+      <c r="C31" t="s">
+        <v>595</v>
+      </c>
+      <c r="D31" t="s">
+        <v>600</v>
+      </c>
+      <c r="E31" t="s">
+        <v>595</v>
+      </c>
+      <c r="F31" t="s">
+        <v>601</v>
+      </c>
+      <c r="G31" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>643</v>
+      </c>
+      <c r="C32" t="s">
+        <v>595</v>
+      </c>
+      <c r="D32" t="s">
+        <v>644</v>
+      </c>
+      <c r="E32" t="s">
+        <v>595</v>
+      </c>
+      <c r="F32" t="s">
+        <v>645</v>
+      </c>
+      <c r="G32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>152</v>
+      </c>
+      <c r="B33" t="s">
+        <v>833</v>
+      </c>
+      <c r="C33" t="s">
+        <v>595</v>
+      </c>
+      <c r="D33" t="s">
+        <v>834</v>
+      </c>
+      <c r="E33" t="s">
+        <v>595</v>
+      </c>
+      <c r="F33" t="s">
+        <v>753</v>
+      </c>
+      <c r="G33" t="s">
+        <v>835</v>
+      </c>
+      <c r="H33" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>259</v>
+      </c>
+      <c r="B34" t="s">
+        <v>844</v>
+      </c>
+      <c r="C34" t="s">
+        <v>595</v>
+      </c>
+      <c r="D34" t="s">
+        <v>846</v>
+      </c>
+      <c r="E34" t="s">
+        <v>595</v>
+      </c>
+      <c r="F34" t="s">
+        <v>618</v>
+      </c>
+      <c r="G34" t="s">
+        <v>845</v>
+      </c>
+      <c r="H34" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>299</v>
+      </c>
+      <c r="B35" t="s">
+        <v>930</v>
+      </c>
+      <c r="C35" t="s">
+        <v>595</v>
+      </c>
+      <c r="D35" t="s">
+        <v>931</v>
+      </c>
+      <c r="E35" t="s">
+        <v>595</v>
+      </c>
+      <c r="F35" t="s">
+        <v>618</v>
+      </c>
+      <c r="G35" t="s">
+        <v>932</v>
+      </c>
+      <c r="H35" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" t="s">
+        <v>613</v>
+      </c>
+      <c r="C36" t="s">
+        <v>595</v>
+      </c>
+      <c r="D36" t="s">
+        <v>614</v>
+      </c>
+      <c r="E36" t="s">
+        <v>595</v>
+      </c>
+      <c r="F36" t="s">
+        <v>615</v>
+      </c>
+      <c r="G36" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" t="s">
+        <v>616</v>
+      </c>
+      <c r="C37" t="s">
+        <v>595</v>
+      </c>
+      <c r="D37" t="s">
+        <v>617</v>
+      </c>
+      <c r="E37" t="s">
+        <v>595</v>
+      </c>
+      <c r="F37" t="s">
+        <v>618</v>
+      </c>
+      <c r="G37" t="s">
+        <v>619</v>
+      </c>
+      <c r="H37" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" t="s">
+        <v>822</v>
+      </c>
+      <c r="C38" t="s">
+        <v>595</v>
+      </c>
+      <c r="D38" t="s">
+        <v>823</v>
+      </c>
+      <c r="E38" t="s">
+        <v>595</v>
+      </c>
+      <c r="F38" t="s">
+        <v>635</v>
+      </c>
+      <c r="G38" t="s">
+        <v>824</v>
+      </c>
+      <c r="H38" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>281</v>
+      </c>
+      <c r="B39" t="s">
+        <v>894</v>
+      </c>
+      <c r="C39" t="s">
+        <v>595</v>
+      </c>
+      <c r="D39" t="s">
+        <v>895</v>
+      </c>
+      <c r="E39" t="s">
+        <v>595</v>
+      </c>
+      <c r="F39" t="s">
+        <v>873</v>
+      </c>
+      <c r="G39" t="s">
+        <v>269</v>
+      </c>
+      <c r="H39" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>610</v>
+      </c>
+      <c r="C40" t="s">
+        <v>595</v>
+      </c>
+      <c r="D40" t="s">
+        <v>611</v>
+      </c>
+      <c r="E40" t="s">
+        <v>595</v>
+      </c>
+      <c r="F40" t="s">
+        <v>612</v>
+      </c>
+      <c r="G40" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" t="s">
+        <v>633</v>
+      </c>
+      <c r="C41" t="s">
+        <v>595</v>
+      </c>
+      <c r="D41" t="s">
+        <v>634</v>
+      </c>
+      <c r="E41" t="s">
+        <v>595</v>
+      </c>
+      <c r="F41" t="s">
+        <v>635</v>
+      </c>
+      <c r="G41" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>296</v>
+      </c>
+      <c r="B42" t="s">
+        <v>921</v>
+      </c>
+      <c r="C42" t="s">
+        <v>595</v>
+      </c>
+      <c r="D42" t="s">
+        <v>922</v>
+      </c>
+      <c r="E42" t="s">
+        <v>595</v>
+      </c>
+      <c r="F42" t="s">
+        <v>601</v>
+      </c>
+      <c r="G42" t="s">
+        <v>923</v>
+      </c>
+      <c r="H42" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" t="s">
+        <v>708</v>
+      </c>
+      <c r="C43" t="s">
+        <v>709</v>
+      </c>
+      <c r="D43" t="s">
+        <v>710</v>
+      </c>
+      <c r="E43" t="s">
+        <v>595</v>
+      </c>
+      <c r="F43" t="s">
+        <v>595</v>
+      </c>
+      <c r="G43" t="s">
+        <v>595</v>
+      </c>
+      <c r="H43" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>285</v>
+      </c>
+      <c r="B44" t="s">
+        <v>285</v>
+      </c>
+      <c r="C44" t="s">
+        <v>902</v>
+      </c>
+      <c r="D44" t="s">
+        <v>903</v>
+      </c>
+      <c r="E44" t="s">
+        <v>595</v>
+      </c>
+      <c r="F44" t="s">
+        <v>595</v>
+      </c>
+      <c r="G44" t="s">
+        <v>595</v>
+      </c>
+      <c r="H44" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>210</v>
+      </c>
+      <c r="B45" t="s">
+        <v>595</v>
+      </c>
+      <c r="C45" t="s">
+        <v>595</v>
+      </c>
+      <c r="D45" t="s">
+        <v>595</v>
+      </c>
+      <c r="E45" t="s">
+        <v>595</v>
+      </c>
+      <c r="F45" t="s">
+        <v>595</v>
+      </c>
+      <c r="G45" t="s">
+        <v>595</v>
+      </c>
+      <c r="H45" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>274</v>
+      </c>
+      <c r="B46" t="s">
+        <v>879</v>
+      </c>
+      <c r="C46" t="s">
+        <v>880</v>
+      </c>
+      <c r="D46" t="s">
+        <v>881</v>
+      </c>
+      <c r="E46" t="s">
+        <v>882</v>
+      </c>
+      <c r="F46" t="s">
+        <v>609</v>
+      </c>
+      <c r="G46" t="s">
+        <v>274</v>
+      </c>
+      <c r="H46" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" t="s">
+        <v>661</v>
+      </c>
+      <c r="D47" t="s">
+        <v>662</v>
+      </c>
+      <c r="E47" t="s">
+        <v>595</v>
+      </c>
+      <c r="F47" t="s">
+        <v>595</v>
+      </c>
+      <c r="G47" t="s">
+        <v>595</v>
+      </c>
+      <c r="H47" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48" t="s">
+        <v>595</v>
+      </c>
+      <c r="C48" t="s">
+        <v>595</v>
+      </c>
+      <c r="D48" t="s">
+        <v>595</v>
+      </c>
+      <c r="E48" t="s">
+        <v>595</v>
+      </c>
+      <c r="F48" t="s">
+        <v>595</v>
+      </c>
+      <c r="G48" t="s">
+        <v>595</v>
+      </c>
+      <c r="H48" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>124</v>
+      </c>
+      <c r="B49" t="s">
+        <v>595</v>
+      </c>
+      <c r="C49" t="s">
+        <v>595</v>
+      </c>
+      <c r="D49" t="s">
+        <v>595</v>
+      </c>
+      <c r="E49" t="s">
+        <v>595</v>
+      </c>
+      <c r="F49" t="s">
+        <v>595</v>
+      </c>
+      <c r="G49" t="s">
+        <v>595</v>
+      </c>
+      <c r="H49" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>268</v>
+      </c>
+      <c r="B50" t="s">
+        <v>869</v>
+      </c>
+      <c r="C50" t="s">
+        <v>866</v>
+      </c>
+      <c r="D50" t="s">
+        <v>870</v>
+      </c>
+      <c r="E50" t="s">
+        <v>867</v>
+      </c>
+      <c r="F50" t="s">
+        <v>596</v>
+      </c>
+      <c r="G50" t="s">
+        <v>268</v>
+      </c>
+      <c r="H50" t="s">
+        <v>598</v>
+      </c>
+      <c r="I50" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>190</v>
+      </c>
+      <c r="B51" t="s">
+        <v>595</v>
+      </c>
+      <c r="C51" t="s">
+        <v>595</v>
+      </c>
+      <c r="D51" t="s">
+        <v>595</v>
+      </c>
+      <c r="E51" t="s">
+        <v>595</v>
+      </c>
+      <c r="F51" t="s">
+        <v>595</v>
+      </c>
+      <c r="G51" t="s">
+        <v>595</v>
+      </c>
+      <c r="H51" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>266</v>
+      </c>
+      <c r="B52" t="s">
+        <v>862</v>
+      </c>
+      <c r="C52" t="s">
+        <v>863</v>
+      </c>
+      <c r="D52" t="s">
+        <v>864</v>
+      </c>
+      <c r="E52" t="s">
+        <v>865</v>
+      </c>
+      <c r="F52" t="s">
+        <v>645</v>
+      </c>
+      <c r="G52" t="s">
+        <v>266</v>
+      </c>
+      <c r="H52" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>265</v>
+      </c>
+      <c r="B53" t="s">
+        <v>858</v>
+      </c>
+      <c r="C53" t="s">
+        <v>859</v>
+      </c>
+      <c r="D53" t="s">
+        <v>860</v>
+      </c>
+      <c r="E53" t="s">
+        <v>861</v>
+      </c>
+      <c r="F53" t="s">
+        <v>829</v>
+      </c>
+      <c r="G53" t="s">
+        <v>265</v>
+      </c>
+      <c r="H53" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>166</v>
+      </c>
+      <c r="B54" t="s">
+        <v>595</v>
+      </c>
+      <c r="C54" t="s">
+        <v>595</v>
+      </c>
+      <c r="D54" t="s">
+        <v>595</v>
+      </c>
+      <c r="E54" t="s">
+        <v>595</v>
+      </c>
+      <c r="F54" t="s">
+        <v>595</v>
+      </c>
+      <c r="G54" t="s">
+        <v>595</v>
+      </c>
+      <c r="H54" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>201</v>
+      </c>
+      <c r="B55" t="s">
+        <v>595</v>
+      </c>
+      <c r="C55" t="s">
+        <v>595</v>
+      </c>
+      <c r="D55" t="s">
+        <v>595</v>
+      </c>
+      <c r="E55" t="s">
+        <v>595</v>
+      </c>
+      <c r="F55" t="s">
+        <v>595</v>
+      </c>
+      <c r="G55" t="s">
+        <v>595</v>
+      </c>
+      <c r="H55" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>258</v>
+      </c>
+      <c r="B56" t="s">
+        <v>595</v>
+      </c>
+      <c r="C56" t="s">
+        <v>595</v>
+      </c>
+      <c r="D56" t="s">
+        <v>595</v>
+      </c>
+      <c r="E56" t="s">
+        <v>595</v>
+      </c>
+      <c r="F56" t="s">
+        <v>595</v>
+      </c>
+      <c r="G56" t="s">
+        <v>595</v>
+      </c>
+      <c r="H56" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>145</v>
+      </c>
+      <c r="B57" t="s">
+        <v>595</v>
+      </c>
+      <c r="C57" t="s">
+        <v>595</v>
+      </c>
+      <c r="D57" t="s">
+        <v>595</v>
+      </c>
+      <c r="E57" t="s">
+        <v>595</v>
+      </c>
+      <c r="F57" t="s">
+        <v>669</v>
+      </c>
+      <c r="G57" t="s">
+        <v>145</v>
+      </c>
+      <c r="H57" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>169</v>
+      </c>
+      <c r="B58" t="s">
+        <v>595</v>
+      </c>
+      <c r="C58" t="s">
+        <v>595</v>
+      </c>
+      <c r="D58" t="s">
+        <v>595</v>
+      </c>
+      <c r="E58" t="s">
+        <v>595</v>
+      </c>
+      <c r="F58" t="s">
+        <v>595</v>
+      </c>
+      <c r="G58" t="s">
+        <v>595</v>
+      </c>
+      <c r="H58" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>168</v>
+      </c>
+      <c r="B59" t="s">
+        <v>595</v>
+      </c>
+      <c r="C59" t="s">
+        <v>595</v>
+      </c>
+      <c r="D59" t="s">
+        <v>595</v>
+      </c>
+      <c r="E59" t="s">
+        <v>595</v>
+      </c>
+      <c r="F59" t="s">
+        <v>595</v>
+      </c>
+      <c r="G59" t="s">
+        <v>595</v>
+      </c>
+      <c r="H59" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>231</v>
+      </c>
+      <c r="B60" t="s">
+        <v>595</v>
+      </c>
+      <c r="C60" t="s">
+        <v>595</v>
+      </c>
+      <c r="D60" t="s">
+        <v>595</v>
+      </c>
+      <c r="E60" t="s">
+        <v>595</v>
+      </c>
+      <c r="F60" t="s">
+        <v>595</v>
+      </c>
+      <c r="G60" t="s">
+        <v>595</v>
+      </c>
+      <c r="H60" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" t="s">
+        <v>740</v>
+      </c>
+      <c r="C61" t="s">
+        <v>741</v>
+      </c>
+      <c r="D61" t="s">
+        <v>742</v>
+      </c>
+      <c r="E61" t="s">
+        <v>743</v>
+      </c>
+      <c r="F61" t="s">
+        <v>596</v>
+      </c>
+      <c r="G61" t="s">
+        <v>78</v>
+      </c>
+      <c r="H61" t="s">
+        <v>598</v>
+      </c>
+      <c r="I61" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>126</v>
+      </c>
+      <c r="B62" t="s">
+        <v>595</v>
+      </c>
+      <c r="C62" t="s">
+        <v>595</v>
+      </c>
+      <c r="D62" t="s">
+        <v>595</v>
+      </c>
+      <c r="E62" t="s">
+        <v>595</v>
+      </c>
+      <c r="F62" t="s">
+        <v>595</v>
+      </c>
+      <c r="G62" t="s">
+        <v>595</v>
+      </c>
+      <c r="H62" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>287</v>
+      </c>
+      <c r="B63" t="s">
+        <v>904</v>
+      </c>
+      <c r="C63" t="s">
+        <v>905</v>
+      </c>
+      <c r="D63" t="s">
+        <v>906</v>
+      </c>
+      <c r="E63" t="s">
+        <v>595</v>
+      </c>
+      <c r="F63" t="s">
+        <v>595</v>
+      </c>
+      <c r="G63" t="s">
+        <v>595</v>
+      </c>
+      <c r="H63" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>275</v>
+      </c>
+      <c r="B64" t="s">
+        <v>883</v>
+      </c>
+      <c r="C64" t="s">
+        <v>778</v>
+      </c>
+      <c r="D64" t="s">
+        <v>884</v>
+      </c>
+      <c r="E64" t="s">
+        <v>885</v>
+      </c>
+      <c r="F64" t="s">
+        <v>605</v>
+      </c>
+      <c r="G64" t="s">
+        <v>275</v>
+      </c>
+      <c r="H64" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>171</v>
+      </c>
+      <c r="B65" t="s">
+        <v>595</v>
+      </c>
+      <c r="C65" t="s">
+        <v>595</v>
+      </c>
+      <c r="D65" t="s">
+        <v>595</v>
+      </c>
+      <c r="E65" t="s">
+        <v>595</v>
+      </c>
+      <c r="F65" t="s">
+        <v>595</v>
+      </c>
+      <c r="G65" t="s">
+        <v>595</v>
+      </c>
+      <c r="H65" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>175</v>
+      </c>
+      <c r="B66" t="s">
+        <v>595</v>
+      </c>
+      <c r="C66" t="s">
+        <v>595</v>
+      </c>
+      <c r="D66" t="s">
+        <v>595</v>
+      </c>
+      <c r="E66" t="s">
+        <v>595</v>
+      </c>
+      <c r="F66" t="s">
+        <v>595</v>
+      </c>
+      <c r="G66" t="s">
+        <v>595</v>
+      </c>
+      <c r="H66" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" t="s">
+        <v>595</v>
+      </c>
+      <c r="C67" t="s">
+        <v>595</v>
+      </c>
+      <c r="D67" t="s">
+        <v>595</v>
+      </c>
+      <c r="E67" t="s">
+        <v>595</v>
+      </c>
+      <c r="F67" t="s">
+        <v>595</v>
+      </c>
+      <c r="G67" t="s">
+        <v>595</v>
+      </c>
+      <c r="H67" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>115</v>
+      </c>
+      <c r="B68" t="s">
+        <v>794</v>
+      </c>
+      <c r="C68" t="s">
+        <v>795</v>
+      </c>
+      <c r="D68" t="s">
+        <v>796</v>
+      </c>
+      <c r="E68" t="s">
+        <v>797</v>
+      </c>
+      <c r="F68" t="s">
+        <v>605</v>
+      </c>
+      <c r="G68" t="s">
+        <v>115</v>
+      </c>
+      <c r="H68" t="s">
+        <v>598</v>
+      </c>
+      <c r="I68" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>47</v>
+      </c>
+      <c r="B69" t="s">
+        <v>673</v>
+      </c>
+      <c r="C69" t="s">
+        <v>674</v>
+      </c>
+      <c r="D69" t="s">
+        <v>675</v>
+      </c>
+      <c r="E69" t="s">
+        <v>676</v>
+      </c>
+      <c r="F69" t="s">
+        <v>658</v>
+      </c>
+      <c r="G69" t="s">
+        <v>47</v>
+      </c>
+      <c r="H69" t="s">
+        <v>598</v>
+      </c>
+      <c r="I69" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>288</v>
+      </c>
+      <c r="B70" t="s">
+        <v>907</v>
+      </c>
+      <c r="C70" t="s">
+        <v>811</v>
+      </c>
+      <c r="D70" t="s">
+        <v>908</v>
+      </c>
+      <c r="E70" t="s">
+        <v>595</v>
+      </c>
+      <c r="F70" t="s">
+        <v>595</v>
+      </c>
+      <c r="G70" t="s">
+        <v>595</v>
+      </c>
+      <c r="H70" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>56</v>
+      </c>
+      <c r="B71" t="s">
+        <v>698</v>
+      </c>
+      <c r="C71" t="s">
+        <v>699</v>
+      </c>
+      <c r="D71" t="s">
+        <v>700</v>
+      </c>
+      <c r="E71" t="s">
+        <v>595</v>
+      </c>
+      <c r="F71" t="s">
+        <v>595</v>
+      </c>
+      <c r="G71" t="s">
+        <v>595</v>
+      </c>
+      <c r="H71" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>55</v>
+      </c>
+      <c r="B72" t="s">
+        <v>693</v>
+      </c>
+      <c r="C72" t="s">
+        <v>694</v>
+      </c>
+      <c r="D72" t="s">
+        <v>695</v>
+      </c>
+      <c r="E72" t="s">
+        <v>696</v>
+      </c>
+      <c r="F72" t="s">
+        <v>628</v>
+      </c>
+      <c r="G72" t="s">
+        <v>55</v>
+      </c>
+      <c r="H72" t="s">
+        <v>598</v>
+      </c>
+      <c r="I72" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>42</v>
+      </c>
+      <c r="B73" t="s">
+        <v>595</v>
+      </c>
+      <c r="C73" t="s">
+        <v>595</v>
+      </c>
+      <c r="D73" t="s">
+        <v>595</v>
+      </c>
+      <c r="E73" t="s">
+        <v>595</v>
+      </c>
+      <c r="F73" t="s">
+        <v>595</v>
+      </c>
+      <c r="G73" t="s">
+        <v>595</v>
+      </c>
+      <c r="H73" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>156</v>
+      </c>
+      <c r="B74" t="s">
+        <v>595</v>
+      </c>
+      <c r="C74" t="s">
+        <v>595</v>
+      </c>
+      <c r="D74" t="s">
+        <v>595</v>
+      </c>
+      <c r="E74" t="s">
+        <v>595</v>
+      </c>
+      <c r="F74" t="s">
+        <v>595</v>
+      </c>
+      <c r="G74" t="s">
+        <v>595</v>
+      </c>
+      <c r="H74" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>212</v>
+      </c>
+      <c r="B75" t="s">
+        <v>595</v>
+      </c>
+      <c r="C75" t="s">
+        <v>595</v>
+      </c>
+      <c r="D75" t="s">
+        <v>595</v>
+      </c>
+      <c r="E75" t="s">
+        <v>595</v>
+      </c>
+      <c r="F75" t="s">
+        <v>595</v>
+      </c>
+      <c r="G75" t="s">
+        <v>595</v>
+      </c>
+      <c r="H75" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>146</v>
+      </c>
+      <c r="B76" t="s">
+        <v>595</v>
+      </c>
+      <c r="C76" t="s">
+        <v>595</v>
+      </c>
+      <c r="D76" t="s">
+        <v>595</v>
+      </c>
+      <c r="E76" t="s">
+        <v>595</v>
+      </c>
+      <c r="F76" t="s">
+        <v>595</v>
+      </c>
+      <c r="G76" t="s">
+        <v>595</v>
+      </c>
+      <c r="H76" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>87</v>
+      </c>
+      <c r="B77" t="s">
+        <v>595</v>
+      </c>
+      <c r="C77" t="s">
+        <v>595</v>
+      </c>
+      <c r="D77" t="s">
+        <v>595</v>
+      </c>
+      <c r="E77" t="s">
+        <v>595</v>
+      </c>
+      <c r="F77" t="s">
+        <v>595</v>
+      </c>
+      <c r="G77" t="s">
+        <v>595</v>
+      </c>
+      <c r="H77" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" t="s">
+        <v>595</v>
+      </c>
+      <c r="C78" t="s">
+        <v>595</v>
+      </c>
+      <c r="D78" t="s">
+        <v>595</v>
+      </c>
+      <c r="E78" t="s">
+        <v>595</v>
+      </c>
+      <c r="F78" t="s">
+        <v>595</v>
+      </c>
+      <c r="G78" t="s">
+        <v>595</v>
+      </c>
+      <c r="H78" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>272</v>
+      </c>
+      <c r="B79" t="s">
+        <v>595</v>
+      </c>
+      <c r="C79" t="s">
+        <v>595</v>
+      </c>
+      <c r="D79" t="s">
+        <v>595</v>
+      </c>
+      <c r="E79" t="s">
+        <v>595</v>
+      </c>
+      <c r="F79" t="s">
+        <v>595</v>
+      </c>
+      <c r="G79" t="s">
+        <v>595</v>
+      </c>
+      <c r="H79" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>182</v>
+      </c>
+      <c r="B80" t="s">
+        <v>595</v>
+      </c>
+      <c r="C80" t="s">
+        <v>595</v>
+      </c>
+      <c r="D80" t="s">
+        <v>595</v>
+      </c>
+      <c r="E80" t="s">
+        <v>595</v>
+      </c>
+      <c r="F80" t="s">
+        <v>595</v>
+      </c>
+      <c r="G80" t="s">
+        <v>595</v>
+      </c>
+      <c r="H80" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>183</v>
+      </c>
+      <c r="B81" t="s">
+        <v>595</v>
+      </c>
+      <c r="C81" t="s">
+        <v>595</v>
+      </c>
+      <c r="D81" t="s">
+        <v>595</v>
+      </c>
+      <c r="E81" t="s">
+        <v>595</v>
+      </c>
+      <c r="F81" t="s">
+        <v>595</v>
+      </c>
+      <c r="G81" t="s">
+        <v>595</v>
+      </c>
+      <c r="H81" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>37</v>
+      </c>
+      <c r="B82" t="s">
+        <v>595</v>
+      </c>
+      <c r="C82" t="s">
+        <v>595</v>
+      </c>
+      <c r="D82" t="s">
+        <v>595</v>
+      </c>
+      <c r="E82" t="s">
+        <v>595</v>
+      </c>
+      <c r="F82" t="s">
+        <v>595</v>
+      </c>
+      <c r="G82" t="s">
+        <v>595</v>
+      </c>
+      <c r="H82" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>149</v>
+      </c>
+      <c r="B83" t="s">
+        <v>825</v>
+      </c>
+      <c r="C83" t="s">
+        <v>826</v>
+      </c>
+      <c r="D83" t="s">
+        <v>827</v>
+      </c>
+      <c r="E83" t="s">
+        <v>828</v>
+      </c>
+      <c r="F83" t="s">
+        <v>829</v>
+      </c>
+      <c r="G83" t="s">
+        <v>149</v>
+      </c>
+      <c r="H83" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>199</v>
+      </c>
+      <c r="B84" t="s">
+        <v>595</v>
+      </c>
+      <c r="C84" t="s">
+        <v>595</v>
+      </c>
+      <c r="D84" t="s">
+        <v>595</v>
+      </c>
+      <c r="E84" t="s">
+        <v>595</v>
+      </c>
+      <c r="F84" t="s">
+        <v>595</v>
+      </c>
+      <c r="G84" t="s">
+        <v>595</v>
+      </c>
+      <c r="H84" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>206</v>
+      </c>
+      <c r="B85" t="s">
+        <v>595</v>
+      </c>
+      <c r="C85" t="s">
+        <v>595</v>
+      </c>
+      <c r="D85" t="s">
+        <v>595</v>
+      </c>
+      <c r="E85" t="s">
+        <v>595</v>
+      </c>
+      <c r="F85" t="s">
+        <v>595</v>
+      </c>
+      <c r="G85" t="s">
+        <v>595</v>
+      </c>
+      <c r="H85" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>135</v>
+      </c>
+      <c r="B86" t="s">
+        <v>818</v>
+      </c>
+      <c r="C86" t="s">
+        <v>652</v>
+      </c>
+      <c r="D86" t="s">
+        <v>819</v>
+      </c>
+      <c r="E86" t="s">
+        <v>595</v>
+      </c>
+      <c r="F86" t="s">
+        <v>596</v>
+      </c>
+      <c r="G86" t="s">
+        <v>135</v>
+      </c>
+      <c r="H86" t="s">
+        <v>598</v>
+      </c>
+      <c r="I86" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>133</v>
+      </c>
+      <c r="B87" t="s">
+        <v>816</v>
+      </c>
+      <c r="C87" t="s">
+        <v>681</v>
+      </c>
+      <c r="D87" t="s">
+        <v>817</v>
+      </c>
+      <c r="E87" t="s">
+        <v>595</v>
+      </c>
+      <c r="F87" t="s">
+        <v>596</v>
+      </c>
+      <c r="G87" t="s">
+        <v>133</v>
+      </c>
+      <c r="H87" t="s">
+        <v>598</v>
+      </c>
+      <c r="I87" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>289</v>
+      </c>
+      <c r="B88" t="s">
+        <v>909</v>
+      </c>
+      <c r="C88" t="s">
+        <v>910</v>
+      </c>
+      <c r="D88" t="s">
+        <v>911</v>
+      </c>
+      <c r="E88" t="s">
+        <v>595</v>
+      </c>
+      <c r="F88" t="s">
+        <v>595</v>
+      </c>
+      <c r="G88" t="s">
+        <v>595</v>
+      </c>
+      <c r="H88" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" t="s">
+        <v>595</v>
+      </c>
+      <c r="C89" t="s">
+        <v>595</v>
+      </c>
+      <c r="D89" t="s">
+        <v>595</v>
+      </c>
+      <c r="E89" t="s">
+        <v>595</v>
+      </c>
+      <c r="F89" t="s">
+        <v>595</v>
+      </c>
+      <c r="G89" t="s">
+        <v>595</v>
+      </c>
+      <c r="H89" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>142</v>
+      </c>
+      <c r="B90" t="s">
+        <v>820</v>
+      </c>
+      <c r="C90" t="s">
+        <v>821</v>
+      </c>
+      <c r="D90" t="s">
+        <v>595</v>
+      </c>
+      <c r="E90" t="s">
+        <v>595</v>
+      </c>
+      <c r="F90" t="s">
+        <v>605</v>
+      </c>
+      <c r="G90" t="s">
+        <v>142</v>
+      </c>
+      <c r="H90" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>290</v>
+      </c>
+      <c r="B91" t="s">
+        <v>912</v>
+      </c>
+      <c r="C91" t="s">
+        <v>745</v>
+      </c>
+      <c r="D91" t="s">
+        <v>913</v>
+      </c>
+      <c r="E91" t="s">
+        <v>595</v>
+      </c>
+      <c r="F91" t="s">
+        <v>605</v>
+      </c>
+      <c r="G91" t="s">
+        <v>290</v>
+      </c>
+      <c r="H91" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>291</v>
+      </c>
+      <c r="B92" t="s">
+        <v>914</v>
+      </c>
+      <c r="C92" t="s">
+        <v>719</v>
+      </c>
+      <c r="D92" t="s">
+        <v>915</v>
+      </c>
+      <c r="E92" t="s">
+        <v>595</v>
+      </c>
+      <c r="F92" t="s">
+        <v>605</v>
+      </c>
+      <c r="G92" t="s">
+        <v>291</v>
+      </c>
+      <c r="H92" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>177</v>
+      </c>
+      <c r="B93" t="s">
+        <v>595</v>
+      </c>
+      <c r="C93" t="s">
+        <v>595</v>
+      </c>
+      <c r="D93" t="s">
+        <v>595</v>
+      </c>
+      <c r="E93" t="s">
+        <v>595</v>
+      </c>
+      <c r="F93" t="s">
+        <v>595</v>
+      </c>
+      <c r="G93" t="s">
+        <v>595</v>
+      </c>
+      <c r="H93" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>228</v>
+      </c>
+      <c r="B94" t="s">
+        <v>595</v>
+      </c>
+      <c r="C94" t="s">
+        <v>595</v>
+      </c>
+      <c r="D94" t="s">
+        <v>595</v>
+      </c>
+      <c r="E94" t="s">
+        <v>595</v>
+      </c>
+      <c r="F94" t="s">
+        <v>595</v>
+      </c>
+      <c r="G94" t="s">
+        <v>595</v>
+      </c>
+      <c r="H94" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>213</v>
+      </c>
+      <c r="B95" t="s">
+        <v>595</v>
+      </c>
+      <c r="C95" t="s">
+        <v>595</v>
+      </c>
+      <c r="D95" t="s">
+        <v>595</v>
+      </c>
+      <c r="E95" t="s">
+        <v>595</v>
+      </c>
+      <c r="F95" t="s">
+        <v>595</v>
+      </c>
+      <c r="G95" t="s">
+        <v>595</v>
+      </c>
+      <c r="H95" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>123</v>
+      </c>
+      <c r="B96" t="s">
+        <v>595</v>
+      </c>
+      <c r="C96" t="s">
+        <v>595</v>
+      </c>
+      <c r="D96" t="s">
+        <v>595</v>
+      </c>
+      <c r="E96" t="s">
+        <v>595</v>
+      </c>
+      <c r="F96" t="s">
+        <v>595</v>
+      </c>
+      <c r="G96" t="s">
+        <v>595</v>
+      </c>
+      <c r="H96" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>188</v>
+      </c>
+      <c r="B97" t="s">
+        <v>595</v>
+      </c>
+      <c r="C97" t="s">
+        <v>595</v>
+      </c>
+      <c r="D97" t="s">
+        <v>595</v>
+      </c>
+      <c r="E97" t="s">
+        <v>595</v>
+      </c>
+      <c r="F97" t="s">
+        <v>595</v>
+      </c>
+      <c r="G97" t="s">
+        <v>595</v>
+      </c>
+      <c r="H97" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>170</v>
+      </c>
+      <c r="B98" t="s">
+        <v>595</v>
+      </c>
+      <c r="C98" t="s">
+        <v>595</v>
+      </c>
+      <c r="D98" t="s">
+        <v>595</v>
+      </c>
+      <c r="E98" t="s">
+        <v>595</v>
+      </c>
+      <c r="F98" t="s">
+        <v>595</v>
+      </c>
+      <c r="G98" t="s">
+        <v>595</v>
+      </c>
+      <c r="H98" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>248</v>
+      </c>
+      <c r="B99" t="s">
+        <v>595</v>
+      </c>
+      <c r="C99" t="s">
+        <v>595</v>
+      </c>
+      <c r="D99" t="s">
+        <v>595</v>
+      </c>
+      <c r="E99" t="s">
+        <v>595</v>
+      </c>
+      <c r="F99" t="s">
+        <v>595</v>
+      </c>
+      <c r="G99" t="s">
+        <v>595</v>
+      </c>
+      <c r="H99" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>233</v>
+      </c>
+      <c r="B100" t="s">
+        <v>595</v>
+      </c>
+      <c r="C100" t="s">
+        <v>595</v>
+      </c>
+      <c r="D100" t="s">
+        <v>595</v>
+      </c>
+      <c r="E100" t="s">
+        <v>595</v>
+      </c>
+      <c r="F100" t="s">
+        <v>595</v>
+      </c>
+      <c r="G100" t="s">
+        <v>595</v>
+      </c>
+      <c r="H100" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>181</v>
+      </c>
+      <c r="B101" t="s">
+        <v>595</v>
+      </c>
+      <c r="C101" t="s">
+        <v>595</v>
+      </c>
+      <c r="D101" t="s">
+        <v>595</v>
+      </c>
+      <c r="E101" t="s">
+        <v>595</v>
+      </c>
+      <c r="F101" t="s">
+        <v>595</v>
+      </c>
+      <c r="G101" t="s">
+        <v>595</v>
+      </c>
+      <c r="H101" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>58</v>
+      </c>
+      <c r="B102" t="s">
+        <v>595</v>
+      </c>
+      <c r="C102" t="s">
+        <v>595</v>
+      </c>
+      <c r="D102" t="s">
+        <v>595</v>
+      </c>
+      <c r="E102" t="s">
+        <v>595</v>
+      </c>
+      <c r="F102" t="s">
+        <v>595</v>
+      </c>
+      <c r="G102" t="s">
+        <v>595</v>
+      </c>
+      <c r="H102" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>180</v>
+      </c>
+      <c r="B103" t="s">
+        <v>595</v>
+      </c>
+      <c r="C103" t="s">
+        <v>595</v>
+      </c>
+      <c r="D103" t="s">
+        <v>595</v>
+      </c>
+      <c r="E103" t="s">
+        <v>595</v>
+      </c>
+      <c r="F103" t="s">
+        <v>595</v>
+      </c>
+      <c r="G103" t="s">
+        <v>595</v>
+      </c>
+      <c r="H103" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>68</v>
+      </c>
+      <c r="B104" t="s">
+        <v>720</v>
+      </c>
+      <c r="C104" t="s">
+        <v>721</v>
+      </c>
+      <c r="D104" t="s">
+        <v>722</v>
+      </c>
+      <c r="E104" t="s">
+        <v>595</v>
+      </c>
+      <c r="F104" t="s">
+        <v>605</v>
+      </c>
+      <c r="G104" t="s">
+        <v>68</v>
+      </c>
+      <c r="H104" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>292</v>
+      </c>
+      <c r="B105" t="s">
+        <v>916</v>
+      </c>
+      <c r="C105" t="s">
+        <v>749</v>
+      </c>
+      <c r="D105" t="s">
+        <v>917</v>
+      </c>
+      <c r="E105" t="s">
+        <v>595</v>
+      </c>
+      <c r="F105" t="s">
+        <v>605</v>
+      </c>
+      <c r="G105" t="s">
+        <v>292</v>
+      </c>
+      <c r="H105" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>143</v>
+      </c>
+      <c r="B106" t="s">
+        <v>595</v>
+      </c>
+      <c r="C106" t="s">
+        <v>595</v>
+      </c>
+      <c r="D106" t="s">
+        <v>595</v>
+      </c>
+      <c r="E106" t="s">
+        <v>595</v>
+      </c>
+      <c r="F106" t="s">
+        <v>605</v>
+      </c>
+      <c r="G106" t="s">
+        <v>143</v>
+      </c>
+      <c r="H106" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>294</v>
+      </c>
+      <c r="B107" t="s">
+        <v>294</v>
+      </c>
+      <c r="C107" t="s">
+        <v>919</v>
+      </c>
+      <c r="D107" t="s">
+        <v>920</v>
+      </c>
+      <c r="E107" t="s">
+        <v>595</v>
+      </c>
+      <c r="F107" t="s">
+        <v>595</v>
+      </c>
+      <c r="G107" t="s">
+        <v>595</v>
+      </c>
+      <c r="H107" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>26</v>
+      </c>
+      <c r="B108" t="s">
+        <v>636</v>
+      </c>
+      <c r="C108" t="s">
+        <v>637</v>
+      </c>
+      <c r="D108" t="s">
+        <v>638</v>
+      </c>
+      <c r="E108" t="s">
+        <v>595</v>
+      </c>
+      <c r="F108" t="s">
+        <v>605</v>
+      </c>
+      <c r="G108" t="s">
+        <v>26</v>
+      </c>
+      <c r="H108" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>264</v>
+      </c>
+      <c r="B109" t="s">
+        <v>855</v>
+      </c>
+      <c r="C109" t="s">
+        <v>759</v>
+      </c>
+      <c r="D109" t="s">
+        <v>856</v>
+      </c>
+      <c r="E109" t="s">
+        <v>760</v>
+      </c>
+      <c r="F109" t="s">
+        <v>596</v>
+      </c>
+      <c r="G109" t="s">
+        <v>264</v>
+      </c>
+      <c r="H109" t="s">
+        <v>595</v>
+      </c>
+      <c r="I109" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>103</v>
+      </c>
+      <c r="B110" t="s">
+        <v>773</v>
+      </c>
+      <c r="C110" t="s">
+        <v>754</v>
+      </c>
+      <c r="D110" t="s">
+        <v>774</v>
+      </c>
+      <c r="E110" t="s">
+        <v>595</v>
+      </c>
+      <c r="F110" t="s">
+        <v>605</v>
+      </c>
+      <c r="G110" t="s">
+        <v>103</v>
+      </c>
+      <c r="H110" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>93</v>
+      </c>
+      <c r="B111" t="s">
+        <v>761</v>
+      </c>
+      <c r="C111" t="s">
+        <v>726</v>
+      </c>
+      <c r="D111" t="s">
+        <v>762</v>
+      </c>
+      <c r="E111" t="s">
+        <v>595</v>
+      </c>
+      <c r="F111" t="s">
+        <v>605</v>
+      </c>
+      <c r="G111" t="s">
+        <v>93</v>
+      </c>
+      <c r="H111" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>208</v>
+      </c>
+      <c r="B112" t="s">
+        <v>595</v>
+      </c>
+      <c r="C112" t="s">
+        <v>595</v>
+      </c>
+      <c r="D112" t="s">
+        <v>595</v>
+      </c>
+      <c r="E112" t="s">
+        <v>595</v>
+      </c>
+      <c r="F112" t="s">
+        <v>595</v>
+      </c>
+      <c r="G112" t="s">
+        <v>595</v>
+      </c>
+      <c r="H112" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>167</v>
+      </c>
+      <c r="B113" t="s">
+        <v>595</v>
+      </c>
+      <c r="C113" t="s">
+        <v>595</v>
+      </c>
+      <c r="D113" t="s">
+        <v>595</v>
+      </c>
+      <c r="E113" t="s">
+        <v>595</v>
+      </c>
+      <c r="F113" t="s">
+        <v>595</v>
+      </c>
+      <c r="G113" t="s">
+        <v>595</v>
+      </c>
+      <c r="H113" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>302</v>
+      </c>
+      <c r="B114" t="s">
+        <v>939</v>
+      </c>
+      <c r="C114" t="s">
+        <v>918</v>
+      </c>
+      <c r="D114" t="s">
+        <v>940</v>
+      </c>
+      <c r="E114" t="s">
+        <v>595</v>
+      </c>
+      <c r="F114" t="s">
+        <v>595</v>
+      </c>
+      <c r="G114" t="s">
+        <v>595</v>
+      </c>
+      <c r="H114" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>125</v>
+      </c>
+      <c r="B115" t="s">
+        <v>808</v>
+      </c>
+      <c r="C115" t="s">
+        <v>809</v>
+      </c>
+      <c r="D115" t="s">
+        <v>810</v>
+      </c>
+      <c r="E115" t="s">
+        <v>595</v>
+      </c>
+      <c r="F115" t="s">
+        <v>595</v>
+      </c>
+      <c r="G115" t="s">
+        <v>595</v>
+      </c>
+      <c r="H115" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>297</v>
+      </c>
+      <c r="B116" t="s">
+        <v>924</v>
+      </c>
+      <c r="C116" t="s">
+        <v>925</v>
+      </c>
+      <c r="D116" t="s">
+        <v>926</v>
+      </c>
+      <c r="E116" t="s">
+        <v>595</v>
+      </c>
+      <c r="F116" t="s">
+        <v>595</v>
+      </c>
+      <c r="G116" t="s">
+        <v>595</v>
+      </c>
+      <c r="H116" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>263</v>
+      </c>
+      <c r="B117" t="s">
+        <v>595</v>
+      </c>
+      <c r="C117" t="s">
+        <v>595</v>
+      </c>
+      <c r="D117" t="s">
+        <v>595</v>
+      </c>
+      <c r="E117" t="s">
+        <v>595</v>
+      </c>
+      <c r="F117" t="s">
+        <v>595</v>
+      </c>
+      <c r="G117" t="s">
+        <v>595</v>
+      </c>
+      <c r="H117" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>303</v>
+      </c>
+      <c r="B118" t="s">
+        <v>941</v>
+      </c>
+      <c r="C118" t="s">
+        <v>650</v>
+      </c>
+      <c r="D118" t="s">
+        <v>942</v>
+      </c>
+      <c r="E118" t="s">
+        <v>595</v>
+      </c>
+      <c r="F118" t="s">
+        <v>595</v>
+      </c>
+      <c r="G118" t="s">
+        <v>595</v>
+      </c>
+      <c r="H118" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>97</v>
+      </c>
+      <c r="B119" t="s">
+        <v>595</v>
+      </c>
+      <c r="C119" t="s">
+        <v>595</v>
+      </c>
+      <c r="D119" t="s">
+        <v>595</v>
+      </c>
+      <c r="E119" t="s">
+        <v>595</v>
+      </c>
+      <c r="F119" t="s">
+        <v>595</v>
+      </c>
+      <c r="G119" t="s">
+        <v>595</v>
+      </c>
+      <c r="H119" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>60</v>
+      </c>
+      <c r="B120" t="s">
+        <v>60</v>
+      </c>
+      <c r="C120" t="s">
+        <v>706</v>
+      </c>
+      <c r="D120" t="s">
+        <v>707</v>
+      </c>
+      <c r="E120" t="s">
+        <v>595</v>
+      </c>
+      <c r="F120" t="s">
+        <v>595</v>
+      </c>
+      <c r="G120" t="s">
+        <v>595</v>
+      </c>
+      <c r="H120" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>298</v>
+      </c>
+      <c r="B121" t="s">
+        <v>927</v>
+      </c>
+      <c r="C121" t="s">
+        <v>928</v>
+      </c>
+      <c r="D121" t="s">
+        <v>929</v>
+      </c>
+      <c r="E121" t="s">
+        <v>595</v>
+      </c>
+      <c r="F121" t="s">
+        <v>595</v>
+      </c>
+      <c r="G121" t="s">
+        <v>595</v>
+      </c>
+      <c r="H121" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>162</v>
+      </c>
+      <c r="B122" t="s">
+        <v>595</v>
+      </c>
+      <c r="C122" t="s">
+        <v>595</v>
+      </c>
+      <c r="D122" t="s">
+        <v>595</v>
+      </c>
+      <c r="E122" t="s">
+        <v>595</v>
+      </c>
+      <c r="F122" t="s">
+        <v>595</v>
+      </c>
+      <c r="G122" t="s">
+        <v>595</v>
+      </c>
+      <c r="H122" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>111</v>
+      </c>
+      <c r="B123" t="s">
+        <v>786</v>
+      </c>
+      <c r="C123" t="s">
+        <v>766</v>
+      </c>
+      <c r="D123" t="s">
+        <v>787</v>
+      </c>
+      <c r="E123" t="s">
+        <v>595</v>
+      </c>
+      <c r="F123" t="s">
+        <v>605</v>
+      </c>
+      <c r="G123" t="s">
+        <v>111</v>
+      </c>
+      <c r="H123" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>227</v>
+      </c>
+      <c r="B124" t="s">
+        <v>595</v>
+      </c>
+      <c r="C124" t="s">
+        <v>595</v>
+      </c>
+      <c r="D124" t="s">
+        <v>595</v>
+      </c>
+      <c r="E124" t="s">
+        <v>595</v>
+      </c>
+      <c r="F124" t="s">
+        <v>595</v>
+      </c>
+      <c r="G124" t="s">
+        <v>595</v>
+      </c>
+      <c r="H124" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>151</v>
+      </c>
+      <c r="B125" t="s">
+        <v>595</v>
+      </c>
+      <c r="C125" t="s">
+        <v>595</v>
+      </c>
+      <c r="D125" t="s">
+        <v>595</v>
+      </c>
+      <c r="E125" t="s">
+        <v>595</v>
+      </c>
+      <c r="F125" t="s">
+        <v>595</v>
+      </c>
+      <c r="G125" t="s">
+        <v>595</v>
+      </c>
+      <c r="H125" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>247</v>
+      </c>
+      <c r="B126" t="s">
+        <v>595</v>
+      </c>
+      <c r="C126" t="s">
+        <v>595</v>
+      </c>
+      <c r="D126" t="s">
+        <v>595</v>
+      </c>
+      <c r="E126" t="s">
+        <v>595</v>
+      </c>
+      <c r="F126" t="s">
+        <v>595</v>
+      </c>
+      <c r="G126" t="s">
+        <v>595</v>
+      </c>
+      <c r="H126" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>200</v>
+      </c>
+      <c r="B127" t="s">
+        <v>595</v>
+      </c>
+      <c r="C127" t="s">
+        <v>595</v>
+      </c>
+      <c r="D127" t="s">
+        <v>595</v>
+      </c>
+      <c r="E127" t="s">
+        <v>595</v>
+      </c>
+      <c r="F127" t="s">
+        <v>595</v>
+      </c>
+      <c r="G127" t="s">
+        <v>595</v>
+      </c>
+      <c r="H127" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>10</v>
+      </c>
+      <c r="B128" t="s">
+        <v>606</v>
+      </c>
+      <c r="C128" t="s">
+        <v>607</v>
+      </c>
+      <c r="D128" t="s">
+        <v>608</v>
+      </c>
+      <c r="E128" t="s">
+        <v>595</v>
+      </c>
+      <c r="F128" t="s">
+        <v>609</v>
+      </c>
+      <c r="G128" t="s">
+        <v>10</v>
+      </c>
+      <c r="H128" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>41</v>
+      </c>
+      <c r="B129" t="s">
+        <v>666</v>
+      </c>
+      <c r="C129" t="s">
+        <v>667</v>
+      </c>
+      <c r="D129" t="s">
+        <v>668</v>
+      </c>
+      <c r="E129" t="s">
+        <v>595</v>
+      </c>
+      <c r="F129" t="s">
+        <v>669</v>
+      </c>
+      <c r="G129" t="s">
+        <v>41</v>
+      </c>
+      <c r="H129" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>144</v>
+      </c>
+      <c r="B130" t="s">
+        <v>595</v>
+      </c>
+      <c r="C130" t="s">
+        <v>595</v>
+      </c>
+      <c r="D130" t="s">
+        <v>595</v>
+      </c>
+      <c r="E130" t="s">
+        <v>595</v>
+      </c>
+      <c r="F130" t="s">
+        <v>605</v>
+      </c>
+      <c r="G130" t="s">
+        <v>144</v>
+      </c>
+      <c r="H130" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131" t="s">
+        <v>813</v>
+      </c>
+      <c r="C131" t="s">
+        <v>814</v>
+      </c>
+      <c r="D131" t="s">
+        <v>815</v>
+      </c>
+      <c r="E131" t="s">
+        <v>595</v>
+      </c>
+      <c r="F131" t="s">
+        <v>692</v>
+      </c>
+      <c r="G131" t="s">
+        <v>132</v>
+      </c>
+      <c r="H131" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>74</v>
+      </c>
+      <c r="B132" t="s">
+        <v>730</v>
+      </c>
+      <c r="C132" t="s">
+        <v>731</v>
+      </c>
+      <c r="D132" t="s">
+        <v>732</v>
+      </c>
+      <c r="E132" t="s">
+        <v>595</v>
+      </c>
+      <c r="F132" t="s">
+        <v>692</v>
+      </c>
+      <c r="G132" t="s">
+        <v>74</v>
+      </c>
+      <c r="H132" t="s">
+        <v>598</v>
+      </c>
+      <c r="I132" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>105</v>
+      </c>
+      <c r="B133" t="s">
+        <v>775</v>
+      </c>
+      <c r="C133" t="s">
+        <v>776</v>
+      </c>
+      <c r="D133" t="s">
+        <v>777</v>
+      </c>
+      <c r="E133" t="s">
+        <v>595</v>
+      </c>
+      <c r="F133" t="s">
+        <v>595</v>
+      </c>
+      <c r="G133" t="s">
+        <v>595</v>
+      </c>
+      <c r="H133" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>282</v>
+      </c>
+      <c r="B134" t="s">
+        <v>896</v>
+      </c>
+      <c r="C134" t="s">
+        <v>897</v>
+      </c>
+      <c r="D134" t="s">
+        <v>898</v>
+      </c>
+      <c r="E134" t="s">
+        <v>595</v>
+      </c>
+      <c r="F134" t="s">
+        <v>595</v>
+      </c>
+      <c r="G134" t="s">
+        <v>595</v>
+      </c>
+      <c r="H134" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>209</v>
+      </c>
+      <c r="B135" t="s">
+        <v>595</v>
+      </c>
+      <c r="C135" t="s">
+        <v>595</v>
+      </c>
+      <c r="D135" t="s">
+        <v>595</v>
+      </c>
+      <c r="E135" t="s">
+        <v>595</v>
+      </c>
+      <c r="F135" t="s">
+        <v>595</v>
+      </c>
+      <c r="G135" t="s">
+        <v>595</v>
+      </c>
+      <c r="H135" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>137</v>
+      </c>
+      <c r="B136" t="s">
+        <v>595</v>
+      </c>
+      <c r="C136" t="s">
+        <v>595</v>
+      </c>
+      <c r="D136" t="s">
+        <v>595</v>
+      </c>
+      <c r="E136" t="s">
+        <v>595</v>
+      </c>
+      <c r="F136" t="s">
+        <v>669</v>
+      </c>
+      <c r="G136" t="s">
+        <v>137</v>
+      </c>
+      <c r="H136" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>191</v>
+      </c>
+      <c r="B137" t="s">
+        <v>595</v>
+      </c>
+      <c r="C137" t="s">
+        <v>595</v>
+      </c>
+      <c r="D137" t="s">
+        <v>595</v>
+      </c>
+      <c r="E137" t="s">
+        <v>595</v>
+      </c>
+      <c r="F137" t="s">
+        <v>595</v>
+      </c>
+      <c r="G137" t="s">
+        <v>595</v>
+      </c>
+      <c r="H137" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>27</v>
+      </c>
+      <c r="B138" t="s">
+        <v>639</v>
+      </c>
+      <c r="C138" t="s">
+        <v>640</v>
+      </c>
+      <c r="D138" t="s">
+        <v>641</v>
+      </c>
+      <c r="E138" t="s">
+        <v>595</v>
+      </c>
+      <c r="F138" t="s">
+        <v>595</v>
+      </c>
+      <c r="G138" t="s">
+        <v>595</v>
+      </c>
+      <c r="H138" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>202</v>
+      </c>
+      <c r="B139" t="s">
+        <v>595</v>
+      </c>
+      <c r="C139" t="s">
+        <v>595</v>
+      </c>
+      <c r="D139" t="s">
+        <v>595</v>
+      </c>
+      <c r="E139" t="s">
+        <v>595</v>
+      </c>
+      <c r="F139" t="s">
+        <v>595</v>
+      </c>
+      <c r="G139" t="s">
+        <v>595</v>
+      </c>
+      <c r="H139" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>271</v>
+      </c>
+      <c r="B140" t="s">
+        <v>595</v>
+      </c>
+      <c r="C140" t="s">
+        <v>595</v>
+      </c>
+      <c r="D140" t="s">
+        <v>595</v>
+      </c>
+      <c r="E140" t="s">
+        <v>595</v>
+      </c>
+      <c r="F140" t="s">
+        <v>595</v>
+      </c>
+      <c r="G140" t="s">
+        <v>595</v>
+      </c>
+      <c r="H140" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>198</v>
+      </c>
+      <c r="B141" t="s">
+        <v>595</v>
+      </c>
+      <c r="C141" t="s">
+        <v>595</v>
+      </c>
+      <c r="D141" t="s">
+        <v>595</v>
+      </c>
+      <c r="E141" t="s">
+        <v>595</v>
+      </c>
+      <c r="F141" t="s">
+        <v>595</v>
+      </c>
+      <c r="G141" t="s">
+        <v>595</v>
+      </c>
+      <c r="H141" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>30</v>
+      </c>
+      <c r="B142" t="s">
+        <v>646</v>
+      </c>
+      <c r="C142" t="s">
+        <v>647</v>
+      </c>
+      <c r="D142" t="s">
+        <v>648</v>
+      </c>
+      <c r="E142" t="s">
+        <v>595</v>
+      </c>
+      <c r="F142" t="s">
+        <v>596</v>
+      </c>
+      <c r="G142" t="s">
+        <v>30</v>
+      </c>
+      <c r="H142" t="s">
+        <v>598</v>
+      </c>
+      <c r="I142" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>94</v>
+      </c>
+      <c r="B143" t="s">
+        <v>763</v>
+      </c>
+      <c r="C143" t="s">
+        <v>764</v>
+      </c>
+      <c r="D143" t="s">
+        <v>765</v>
+      </c>
+      <c r="E143" t="s">
+        <v>765</v>
+      </c>
+      <c r="F143" t="s">
+        <v>595</v>
+      </c>
+      <c r="G143" t="s">
+        <v>595</v>
+      </c>
+      <c r="H143" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>197</v>
+      </c>
+      <c r="B144" t="s">
+        <v>595</v>
+      </c>
+      <c r="C144" t="s">
+        <v>595</v>
+      </c>
+      <c r="D144" t="s">
+        <v>595</v>
+      </c>
+      <c r="E144" t="s">
+        <v>595</v>
+      </c>
+      <c r="F144" t="s">
+        <v>595</v>
+      </c>
+      <c r="G144" t="s">
+        <v>595</v>
+      </c>
+      <c r="H144" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>35</v>
+      </c>
+      <c r="B145" t="s">
+        <v>654</v>
+      </c>
+      <c r="C145" t="s">
+        <v>655</v>
+      </c>
+      <c r="D145" t="s">
+        <v>656</v>
+      </c>
+      <c r="E145" t="s">
+        <v>595</v>
+      </c>
+      <c r="F145" t="s">
+        <v>595</v>
+      </c>
+      <c r="G145" t="s">
+        <v>595</v>
+      </c>
+      <c r="H145" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>215</v>
+      </c>
+      <c r="B146" t="s">
+        <v>595</v>
+      </c>
+      <c r="C146" t="s">
+        <v>595</v>
+      </c>
+      <c r="D146" t="s">
+        <v>595</v>
+      </c>
+      <c r="E146" t="s">
+        <v>595</v>
+      </c>
+      <c r="F146" t="s">
+        <v>595</v>
+      </c>
+      <c r="G146" t="s">
+        <v>595</v>
+      </c>
+      <c r="H146" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>33</v>
+      </c>
+      <c r="B147" t="s">
+        <v>651</v>
+      </c>
+      <c r="C147" t="s">
+        <v>595</v>
+      </c>
+      <c r="D147" t="s">
+        <v>595</v>
+      </c>
+      <c r="E147" t="s">
+        <v>595</v>
+      </c>
+      <c r="F147" t="s">
+        <v>605</v>
+      </c>
+      <c r="G147" t="s">
+        <v>33</v>
+      </c>
+      <c r="H147" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>9</v>
+      </c>
+      <c r="B148" t="s">
+        <v>595</v>
+      </c>
+      <c r="C148" t="s">
+        <v>595</v>
+      </c>
+      <c r="D148" t="s">
+        <v>595</v>
+      </c>
+      <c r="E148" t="s">
+        <v>595</v>
+      </c>
+      <c r="F148" t="s">
+        <v>595</v>
+      </c>
+      <c r="G148" t="s">
+        <v>595</v>
+      </c>
+      <c r="H148" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>52</v>
+      </c>
+      <c r="B149" t="s">
+        <v>595</v>
+      </c>
+      <c r="C149" t="s">
+        <v>595</v>
+      </c>
+      <c r="D149" t="s">
+        <v>595</v>
+      </c>
+      <c r="E149" t="s">
+        <v>595</v>
+      </c>
+      <c r="F149" t="s">
+        <v>595</v>
+      </c>
+      <c r="G149" t="s">
+        <v>595</v>
+      </c>
+      <c r="H149" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>44</v>
+      </c>
+      <c r="B150" t="s">
+        <v>670</v>
+      </c>
+      <c r="C150" t="s">
+        <v>671</v>
+      </c>
+      <c r="D150" t="s">
+        <v>672</v>
+      </c>
+      <c r="E150" t="s">
+        <v>595</v>
+      </c>
+      <c r="F150" t="s">
+        <v>595</v>
+      </c>
+      <c r="G150" t="s">
+        <v>595</v>
+      </c>
+      <c r="H150" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>112</v>
+      </c>
+      <c r="B151" t="s">
+        <v>788</v>
+      </c>
+      <c r="C151" t="s">
+        <v>789</v>
+      </c>
+      <c r="D151" t="s">
+        <v>790</v>
+      </c>
+      <c r="E151" t="s">
+        <v>595</v>
+      </c>
+      <c r="F151" t="s">
+        <v>609</v>
+      </c>
+      <c r="G151" t="s">
+        <v>112</v>
+      </c>
+      <c r="H151" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>216</v>
+      </c>
+      <c r="B152" t="s">
+        <v>595</v>
+      </c>
+      <c r="C152" t="s">
+        <v>595</v>
+      </c>
+      <c r="D152" t="s">
+        <v>595</v>
+      </c>
+      <c r="E152" t="s">
+        <v>595</v>
+      </c>
+      <c r="F152" t="s">
+        <v>595</v>
+      </c>
+      <c r="G152" t="s">
+        <v>595</v>
+      </c>
+      <c r="H152" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>38</v>
+      </c>
+      <c r="B153" t="s">
+        <v>659</v>
+      </c>
+      <c r="C153" t="s">
+        <v>657</v>
+      </c>
+      <c r="D153" t="s">
+        <v>660</v>
+      </c>
+      <c r="E153" t="s">
+        <v>595</v>
+      </c>
+      <c r="F153" t="s">
+        <v>605</v>
+      </c>
+      <c r="G153" t="s">
+        <v>38</v>
+      </c>
+      <c r="H153" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>211</v>
+      </c>
+      <c r="B154" t="s">
+        <v>595</v>
+      </c>
+      <c r="C154" t="s">
+        <v>595</v>
+      </c>
+      <c r="D154" t="s">
+        <v>595</v>
+      </c>
+      <c r="E154" t="s">
+        <v>595</v>
+      </c>
+      <c r="F154" t="s">
+        <v>595</v>
+      </c>
+      <c r="G154" t="s">
+        <v>595</v>
+      </c>
+      <c r="H154" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>139</v>
+      </c>
+      <c r="B155" t="s">
+        <v>595</v>
+      </c>
+      <c r="C155" t="s">
+        <v>595</v>
+      </c>
+      <c r="D155" t="s">
+        <v>595</v>
+      </c>
+      <c r="E155" t="s">
+        <v>595</v>
+      </c>
+      <c r="F155" t="s">
+        <v>595</v>
+      </c>
+      <c r="G155" t="s">
+        <v>595</v>
+      </c>
+      <c r="H155" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>235</v>
+      </c>
+      <c r="B156" t="s">
+        <v>595</v>
+      </c>
+      <c r="C156" t="s">
+        <v>595</v>
+      </c>
+      <c r="D156" t="s">
+        <v>595</v>
+      </c>
+      <c r="E156" t="s">
+        <v>595</v>
+      </c>
+      <c r="F156" t="s">
+        <v>595</v>
+      </c>
+      <c r="G156" t="s">
+        <v>595</v>
+      </c>
+      <c r="H156" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>147</v>
+      </c>
+      <c r="B157" t="s">
+        <v>595</v>
+      </c>
+      <c r="C157" t="s">
+        <v>595</v>
+      </c>
+      <c r="D157" t="s">
+        <v>595</v>
+      </c>
+      <c r="E157" t="s">
+        <v>595</v>
+      </c>
+      <c r="F157" t="s">
+        <v>595</v>
+      </c>
+      <c r="G157" t="s">
+        <v>595</v>
+      </c>
+      <c r="H157" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>269</v>
+      </c>
+      <c r="B158" t="s">
+        <v>269</v>
+      </c>
+      <c r="C158" t="s">
+        <v>871</v>
+      </c>
+      <c r="D158" t="s">
+        <v>872</v>
+      </c>
+      <c r="E158" t="s">
+        <v>595</v>
+      </c>
+      <c r="F158" t="s">
+        <v>873</v>
+      </c>
+      <c r="G158" t="s">
+        <v>595</v>
+      </c>
+      <c r="H158" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>53</v>
+      </c>
+      <c r="B159" t="s">
+        <v>686</v>
+      </c>
+      <c r="C159" t="s">
+        <v>687</v>
+      </c>
+      <c r="D159" t="s">
+        <v>688</v>
+      </c>
+      <c r="E159" t="s">
+        <v>595</v>
+      </c>
+      <c r="F159" t="s">
+        <v>605</v>
+      </c>
+      <c r="G159" t="s">
+        <v>53</v>
+      </c>
+      <c r="H159" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>24</v>
+      </c>
+      <c r="B160" t="s">
+        <v>629</v>
+      </c>
+      <c r="C160" t="s">
+        <v>630</v>
+      </c>
+      <c r="D160" t="s">
+        <v>631</v>
+      </c>
+      <c r="E160" t="s">
+        <v>595</v>
+      </c>
+      <c r="F160" t="s">
+        <v>596</v>
+      </c>
+      <c r="G160" t="s">
+        <v>24</v>
+      </c>
+      <c r="H160" t="s">
+        <v>598</v>
+      </c>
+      <c r="I160" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>63</v>
+      </c>
+      <c r="B161" t="s">
+        <v>711</v>
+      </c>
+      <c r="C161" t="s">
+        <v>647</v>
+      </c>
+      <c r="D161" t="s">
+        <v>712</v>
+      </c>
+      <c r="E161" t="s">
+        <v>595</v>
+      </c>
+      <c r="F161" t="s">
+        <v>595</v>
+      </c>
+      <c r="G161" t="s">
+        <v>595</v>
+      </c>
+      <c r="H161" t="s">
+        <v>595</v>
+      </c>
+      <c r="I161" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>218</v>
+      </c>
+      <c r="B162" t="s">
+        <v>595</v>
+      </c>
+      <c r="C162" t="s">
+        <v>595</v>
+      </c>
+      <c r="D162" t="s">
+        <v>595</v>
+      </c>
+      <c r="E162" t="s">
+        <v>595</v>
+      </c>
+      <c r="F162" t="s">
+        <v>595</v>
+      </c>
+      <c r="G162" t="s">
+        <v>595</v>
+      </c>
+      <c r="H162" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>83</v>
+      </c>
+      <c r="B163" t="s">
+        <v>595</v>
+      </c>
+      <c r="C163" t="s">
+        <v>595</v>
+      </c>
+      <c r="D163" t="s">
+        <v>595</v>
+      </c>
+      <c r="E163" t="s">
+        <v>595</v>
+      </c>
+      <c r="F163" t="s">
+        <v>595</v>
+      </c>
+      <c r="G163" t="s">
+        <v>595</v>
+      </c>
+      <c r="H163" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>154</v>
+      </c>
+      <c r="B164" t="s">
+        <v>595</v>
+      </c>
+      <c r="C164" t="s">
+        <v>595</v>
+      </c>
+      <c r="D164" t="s">
+        <v>595</v>
+      </c>
+      <c r="E164" t="s">
+        <v>595</v>
+      </c>
+      <c r="F164" t="s">
+        <v>595</v>
+      </c>
+      <c r="G164" t="s">
+        <v>595</v>
+      </c>
+      <c r="H164" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>116</v>
+      </c>
+      <c r="B165" t="s">
+        <v>799</v>
+      </c>
+      <c r="C165" t="s">
+        <v>800</v>
+      </c>
+      <c r="D165" t="s">
+        <v>801</v>
+      </c>
+      <c r="E165" t="s">
+        <v>595</v>
+      </c>
+      <c r="F165" t="s">
+        <v>595</v>
+      </c>
+      <c r="G165" t="s">
+        <v>595</v>
+      </c>
+      <c r="H165" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>226</v>
+      </c>
+      <c r="B166" t="s">
+        <v>595</v>
+      </c>
+      <c r="C166" t="s">
+        <v>595</v>
+      </c>
+      <c r="D166" t="s">
+        <v>595</v>
+      </c>
+      <c r="E166" t="s">
+        <v>595</v>
+      </c>
+      <c r="F166" t="s">
+        <v>595</v>
+      </c>
+      <c r="G166" t="s">
+        <v>595</v>
+      </c>
+      <c r="H166" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>31</v>
+      </c>
+      <c r="B167" t="s">
+        <v>595</v>
+      </c>
+      <c r="C167" t="s">
+        <v>595</v>
+      </c>
+      <c r="D167" t="s">
+        <v>595</v>
+      </c>
+      <c r="E167" t="s">
+        <v>595</v>
+      </c>
+      <c r="F167" t="s">
+        <v>595</v>
+      </c>
+      <c r="G167" t="s">
+        <v>595</v>
+      </c>
+      <c r="H167" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>66</v>
+      </c>
+      <c r="B168" t="s">
+        <v>715</v>
+      </c>
+      <c r="C168" t="s">
+        <v>716</v>
+      </c>
+      <c r="D168" t="s">
+        <v>717</v>
+      </c>
+      <c r="E168" t="s">
+        <v>595</v>
+      </c>
+      <c r="F168" t="s">
+        <v>692</v>
+      </c>
+      <c r="G168" t="s">
+        <v>66</v>
+      </c>
+      <c r="H168" t="s">
+        <v>598</v>
+      </c>
+      <c r="I168" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>51</v>
+      </c>
+      <c r="B169" t="s">
+        <v>683</v>
+      </c>
+      <c r="C169" t="s">
+        <v>684</v>
+      </c>
+      <c r="D169" t="s">
+        <v>685</v>
+      </c>
+      <c r="E169" t="s">
+        <v>595</v>
+      </c>
+      <c r="F169" t="s">
+        <v>595</v>
+      </c>
+      <c r="G169" t="s">
+        <v>595</v>
+      </c>
+      <c r="H169" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>276</v>
+      </c>
+      <c r="B170" t="s">
+        <v>595</v>
+      </c>
+      <c r="C170" t="s">
+        <v>595</v>
+      </c>
+      <c r="D170" t="s">
+        <v>595</v>
+      </c>
+      <c r="E170" t="s">
+        <v>595</v>
+      </c>
+      <c r="F170" t="s">
+        <v>595</v>
+      </c>
+      <c r="G170" t="s">
+        <v>595</v>
+      </c>
+      <c r="H170" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>207</v>
+      </c>
+      <c r="B171" t="s">
+        <v>595</v>
+      </c>
+      <c r="C171" t="s">
+        <v>595</v>
+      </c>
+      <c r="D171" t="s">
+        <v>595</v>
+      </c>
+      <c r="E171" t="s">
+        <v>595</v>
+      </c>
+      <c r="F171" t="s">
+        <v>595</v>
+      </c>
+      <c r="G171" t="s">
+        <v>595</v>
+      </c>
+      <c r="H171" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>241</v>
+      </c>
+      <c r="B172" t="s">
+        <v>595</v>
+      </c>
+      <c r="C172" t="s">
+        <v>595</v>
+      </c>
+      <c r="D172" t="s">
+        <v>595</v>
+      </c>
+      <c r="E172" t="s">
+        <v>595</v>
+      </c>
+      <c r="F172" t="s">
+        <v>595</v>
+      </c>
+      <c r="G172" t="s">
+        <v>595</v>
+      </c>
+      <c r="H172" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>163</v>
+      </c>
+      <c r="B173" t="s">
+        <v>595</v>
+      </c>
+      <c r="C173" t="s">
+        <v>595</v>
+      </c>
+      <c r="D173" t="s">
+        <v>595</v>
+      </c>
+      <c r="E173" t="s">
+        <v>595</v>
+      </c>
+      <c r="F173" t="s">
+        <v>595</v>
+      </c>
+      <c r="G173" t="s">
+        <v>595</v>
+      </c>
+      <c r="H173" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>595</v>
+      </c>
+      <c r="C174" t="s">
+        <v>595</v>
+      </c>
+      <c r="D174" t="s">
+        <v>595</v>
+      </c>
+      <c r="E174" t="s">
+        <v>595</v>
+      </c>
+      <c r="F174" t="s">
+        <v>595</v>
+      </c>
+      <c r="G174" t="s">
+        <v>595</v>
+      </c>
+      <c r="H174" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>217</v>
+      </c>
+      <c r="B175" t="s">
+        <v>595</v>
+      </c>
+      <c r="C175" t="s">
+        <v>595</v>
+      </c>
+      <c r="D175" t="s">
+        <v>595</v>
+      </c>
+      <c r="E175" t="s">
+        <v>595</v>
+      </c>
+      <c r="F175" t="s">
+        <v>595</v>
+      </c>
+      <c r="G175" t="s">
+        <v>595</v>
+      </c>
+      <c r="H175" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>185</v>
+      </c>
+      <c r="B176" t="s">
+        <v>595</v>
+      </c>
+      <c r="C176" t="s">
+        <v>595</v>
+      </c>
+      <c r="D176" t="s">
+        <v>595</v>
+      </c>
+      <c r="E176" t="s">
+        <v>595</v>
+      </c>
+      <c r="F176" t="s">
+        <v>595</v>
+      </c>
+      <c r="G176" t="s">
+        <v>595</v>
+      </c>
+      <c r="H176" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>153</v>
+      </c>
+      <c r="B177" t="s">
+        <v>595</v>
+      </c>
+      <c r="C177" t="s">
+        <v>595</v>
+      </c>
+      <c r="D177" t="s">
+        <v>595</v>
+      </c>
+      <c r="E177" t="s">
+        <v>595</v>
+      </c>
+      <c r="F177" t="s">
+        <v>595</v>
+      </c>
+      <c r="G177" t="s">
+        <v>595</v>
+      </c>
+      <c r="H177" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>119</v>
+      </c>
+      <c r="B178" t="s">
+        <v>803</v>
+      </c>
+      <c r="C178" t="s">
+        <v>802</v>
+      </c>
+      <c r="D178" t="s">
+        <v>804</v>
+      </c>
+      <c r="E178" t="s">
+        <v>595</v>
+      </c>
+      <c r="F178" t="s">
+        <v>605</v>
+      </c>
+      <c r="G178" t="s">
+        <v>119</v>
+      </c>
+      <c r="H178" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>236</v>
+      </c>
+      <c r="B179" t="s">
+        <v>595</v>
+      </c>
+      <c r="C179" t="s">
+        <v>595</v>
+      </c>
+      <c r="D179" t="s">
+        <v>595</v>
+      </c>
+      <c r="E179" t="s">
+        <v>595</v>
+      </c>
+      <c r="F179" t="s">
+        <v>595</v>
+      </c>
+      <c r="G179" t="s">
+        <v>595</v>
+      </c>
+      <c r="H179" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>164</v>
+      </c>
+      <c r="B180" t="s">
+        <v>595</v>
+      </c>
+      <c r="C180" t="s">
+        <v>595</v>
+      </c>
+      <c r="D180" t="s">
+        <v>595</v>
+      </c>
+      <c r="E180" t="s">
+        <v>595</v>
+      </c>
+      <c r="F180" t="s">
+        <v>595</v>
+      </c>
+      <c r="G180" t="s">
+        <v>595</v>
+      </c>
+      <c r="H180" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>165</v>
+      </c>
+      <c r="B181" t="s">
+        <v>595</v>
+      </c>
+      <c r="C181" t="s">
+        <v>595</v>
+      </c>
+      <c r="D181" t="s">
+        <v>595</v>
+      </c>
+      <c r="E181" t="s">
+        <v>595</v>
+      </c>
+      <c r="F181" t="s">
+        <v>595</v>
+      </c>
+      <c r="G181" t="s">
+        <v>595</v>
+      </c>
+      <c r="H181" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>160</v>
+      </c>
+      <c r="B182" t="s">
+        <v>595</v>
+      </c>
+      <c r="C182" t="s">
+        <v>595</v>
+      </c>
+      <c r="D182" t="s">
+        <v>595</v>
+      </c>
+      <c r="E182" t="s">
+        <v>595</v>
+      </c>
+      <c r="F182" t="s">
+        <v>595</v>
+      </c>
+      <c r="G182" t="s">
+        <v>595</v>
+      </c>
+      <c r="H182" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>242</v>
+      </c>
+      <c r="B183" t="s">
+        <v>595</v>
+      </c>
+      <c r="C183" t="s">
+        <v>595</v>
+      </c>
+      <c r="D183" t="s">
+        <v>595</v>
+      </c>
+      <c r="E183" t="s">
+        <v>595</v>
+      </c>
+      <c r="F183" t="s">
+        <v>595</v>
+      </c>
+      <c r="G183" t="s">
+        <v>595</v>
+      </c>
+      <c r="H183" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>232</v>
+      </c>
+      <c r="B184" t="s">
+        <v>595</v>
+      </c>
+      <c r="C184" t="s">
+        <v>595</v>
+      </c>
+      <c r="D184" t="s">
+        <v>595</v>
+      </c>
+      <c r="E184" t="s">
+        <v>595</v>
+      </c>
+      <c r="F184" t="s">
+        <v>595</v>
+      </c>
+      <c r="G184" t="s">
+        <v>595</v>
+      </c>
+      <c r="H184" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>234</v>
+      </c>
+      <c r="B185" t="s">
+        <v>595</v>
+      </c>
+      <c r="C185" t="s">
+        <v>595</v>
+      </c>
+      <c r="D185" t="s">
+        <v>595</v>
+      </c>
+      <c r="E185" t="s">
+        <v>595</v>
+      </c>
+      <c r="F185" t="s">
+        <v>595</v>
+      </c>
+      <c r="G185" t="s">
+        <v>595</v>
+      </c>
+      <c r="H185" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>220</v>
+      </c>
+      <c r="B186" t="s">
+        <v>595</v>
+      </c>
+      <c r="C186" t="s">
+        <v>595</v>
+      </c>
+      <c r="D186" t="s">
+        <v>595</v>
+      </c>
+      <c r="E186" t="s">
+        <v>595</v>
+      </c>
+      <c r="F186" t="s">
+        <v>595</v>
+      </c>
+      <c r="G186" t="s">
+        <v>595</v>
+      </c>
+      <c r="H186" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>73</v>
+      </c>
+      <c r="B187" t="s">
+        <v>73</v>
+      </c>
+      <c r="C187" t="s">
+        <v>727</v>
+      </c>
+      <c r="D187" t="s">
+        <v>728</v>
+      </c>
+      <c r="E187" t="s">
+        <v>595</v>
+      </c>
+      <c r="F187" t="s">
+        <v>692</v>
+      </c>
+      <c r="G187" t="s">
+        <v>73</v>
+      </c>
+      <c r="H187" t="s">
+        <v>598</v>
+      </c>
+      <c r="I187" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>157</v>
+      </c>
+      <c r="B188" t="s">
+        <v>595</v>
+      </c>
+      <c r="C188" t="s">
+        <v>595</v>
+      </c>
+      <c r="D188" t="s">
+        <v>595</v>
+      </c>
+      <c r="E188" t="s">
+        <v>595</v>
+      </c>
+      <c r="F188" t="s">
+        <v>595</v>
+      </c>
+      <c r="G188" t="s">
+        <v>595</v>
+      </c>
+      <c r="H188" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>176</v>
+      </c>
+      <c r="B189" t="s">
+        <v>595</v>
+      </c>
+      <c r="C189" t="s">
+        <v>595</v>
+      </c>
+      <c r="D189" t="s">
+        <v>595</v>
+      </c>
+      <c r="E189" t="s">
+        <v>595</v>
+      </c>
+      <c r="F189" t="s">
+        <v>595</v>
+      </c>
+      <c r="G189" t="s">
+        <v>595</v>
+      </c>
+      <c r="H189" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>110</v>
+      </c>
+      <c r="B190" t="s">
+        <v>782</v>
+      </c>
+      <c r="C190" t="s">
+        <v>783</v>
+      </c>
+      <c r="D190" t="s">
+        <v>784</v>
+      </c>
+      <c r="E190" t="s">
+        <v>785</v>
+      </c>
+      <c r="F190" t="s">
+        <v>595</v>
+      </c>
+      <c r="G190" t="s">
+        <v>595</v>
+      </c>
+      <c r="H190" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>239</v>
+      </c>
+      <c r="B191" t="s">
+        <v>595</v>
+      </c>
+      <c r="C191" t="s">
+        <v>595</v>
+      </c>
+      <c r="D191" t="s">
+        <v>595</v>
+      </c>
+      <c r="E191" t="s">
+        <v>595</v>
+      </c>
+      <c r="F191" t="s">
+        <v>595</v>
+      </c>
+      <c r="G191" t="s">
+        <v>595</v>
+      </c>
+      <c r="H191" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>76</v>
+      </c>
+      <c r="B192" t="s">
+        <v>734</v>
+      </c>
+      <c r="C192" t="s">
+        <v>735</v>
+      </c>
+      <c r="D192" t="s">
+        <v>736</v>
+      </c>
+      <c r="E192" t="s">
+        <v>595</v>
+      </c>
+      <c r="F192" t="s">
+        <v>595</v>
+      </c>
+      <c r="G192" t="s">
+        <v>595</v>
+      </c>
+      <c r="H192" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>257</v>
+      </c>
+      <c r="B193" t="s">
+        <v>595</v>
+      </c>
+      <c r="C193" t="s">
+        <v>595</v>
+      </c>
+      <c r="D193" t="s">
+        <v>595</v>
+      </c>
+      <c r="E193" t="s">
+        <v>595</v>
+      </c>
+      <c r="F193" t="s">
+        <v>595</v>
+      </c>
+      <c r="G193" t="s">
+        <v>595</v>
+      </c>
+      <c r="H193" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>3</v>
+      </c>
+      <c r="B194" t="s">
+        <v>592</v>
+      </c>
+      <c r="C194" t="s">
+        <v>593</v>
+      </c>
+      <c r="D194" t="s">
+        <v>594</v>
+      </c>
+      <c r="E194" t="s">
+        <v>595</v>
+      </c>
+      <c r="F194" t="s">
+        <v>596</v>
+      </c>
+      <c r="G194" t="s">
+        <v>3</v>
+      </c>
+      <c r="H194" t="s">
+        <v>598</v>
+      </c>
+      <c r="I194" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>186</v>
+      </c>
+      <c r="B195" t="s">
+        <v>595</v>
+      </c>
+      <c r="C195" t="s">
+        <v>595</v>
+      </c>
+      <c r="D195" t="s">
+        <v>595</v>
+      </c>
+      <c r="E195" t="s">
+        <v>595</v>
+      </c>
+      <c r="F195" t="s">
+        <v>595</v>
+      </c>
+      <c r="G195" t="s">
+        <v>595</v>
+      </c>
+      <c r="H195" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>194</v>
+      </c>
+      <c r="B196" t="s">
+        <v>595</v>
+      </c>
+      <c r="C196" t="s">
+        <v>595</v>
+      </c>
+      <c r="D196" t="s">
+        <v>595</v>
+      </c>
+      <c r="E196" t="s">
+        <v>595</v>
+      </c>
+      <c r="F196" t="s">
+        <v>595</v>
+      </c>
+      <c r="G196" t="s">
+        <v>595</v>
+      </c>
+      <c r="H196" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>192</v>
+      </c>
+      <c r="B197" t="s">
+        <v>595</v>
+      </c>
+      <c r="C197" t="s">
+        <v>595</v>
+      </c>
+      <c r="D197" t="s">
+        <v>595</v>
+      </c>
+      <c r="E197" t="s">
+        <v>595</v>
+      </c>
+      <c r="F197" t="s">
+        <v>595</v>
+      </c>
+      <c r="G197" t="s">
+        <v>595</v>
+      </c>
+      <c r="H197" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>193</v>
+      </c>
+      <c r="B198" t="s">
+        <v>595</v>
+      </c>
+      <c r="C198" t="s">
+        <v>595</v>
+      </c>
+      <c r="D198" t="s">
+        <v>595</v>
+      </c>
+      <c r="E198" t="s">
+        <v>595</v>
+      </c>
+      <c r="F198" t="s">
+        <v>595</v>
+      </c>
+      <c r="G198" t="s">
+        <v>595</v>
+      </c>
+      <c r="H198" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>195</v>
+      </c>
+      <c r="B199" t="s">
+        <v>595</v>
+      </c>
+      <c r="C199" t="s">
+        <v>595</v>
+      </c>
+      <c r="D199" t="s">
+        <v>595</v>
+      </c>
+      <c r="E199" t="s">
+        <v>595</v>
+      </c>
+      <c r="F199" t="s">
+        <v>595</v>
+      </c>
+      <c r="G199" t="s">
+        <v>595</v>
+      </c>
+      <c r="H199" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>91</v>
+      </c>
+      <c r="B200" t="s">
+        <v>755</v>
+      </c>
+      <c r="C200" t="s">
+        <v>756</v>
+      </c>
+      <c r="D200" t="s">
+        <v>757</v>
+      </c>
+      <c r="E200" t="s">
+        <v>595</v>
+      </c>
+      <c r="F200" t="s">
+        <v>595</v>
+      </c>
+      <c r="G200" t="s">
+        <v>595</v>
+      </c>
+      <c r="H200" t="s">
+        <v>595</v>
+      </c>
+      <c r="I200" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>100</v>
+      </c>
+      <c r="B201" t="s">
+        <v>770</v>
+      </c>
+      <c r="C201" t="s">
+        <v>771</v>
+      </c>
+      <c r="D201" t="s">
+        <v>772</v>
+      </c>
+      <c r="E201" t="s">
+        <v>595</v>
+      </c>
+      <c r="F201" t="s">
+        <v>596</v>
+      </c>
+      <c r="G201" t="s">
+        <v>100</v>
+      </c>
+      <c r="H201" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>20</v>
+      </c>
+      <c r="B202" t="s">
+        <v>595</v>
+      </c>
+      <c r="C202" t="s">
+        <v>595</v>
+      </c>
+      <c r="D202" t="s">
+        <v>595</v>
+      </c>
+      <c r="E202" t="s">
+        <v>595</v>
+      </c>
+      <c r="F202" t="s">
+        <v>595</v>
+      </c>
+      <c r="G202" t="s">
+        <v>595</v>
+      </c>
+      <c r="H202" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>86</v>
+      </c>
+      <c r="B203" t="s">
+        <v>750</v>
+      </c>
+      <c r="C203" t="s">
+        <v>751</v>
+      </c>
+      <c r="D203" t="s">
+        <v>752</v>
+      </c>
+      <c r="E203" t="s">
+        <v>595</v>
+      </c>
+      <c r="F203" t="s">
+        <v>753</v>
+      </c>
+      <c r="G203" t="s">
+        <v>86</v>
+      </c>
+      <c r="H203" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>108</v>
+      </c>
+      <c r="B204" t="s">
+        <v>779</v>
+      </c>
+      <c r="C204" t="s">
+        <v>780</v>
+      </c>
+      <c r="D204" t="s">
+        <v>781</v>
+      </c>
+      <c r="E204" t="s">
+        <v>595</v>
+      </c>
+      <c r="F204" t="s">
+        <v>595</v>
+      </c>
+      <c r="G204" t="s">
+        <v>595</v>
+      </c>
+      <c r="H204" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>59</v>
+      </c>
+      <c r="B205" t="s">
+        <v>701</v>
+      </c>
+      <c r="C205" t="s">
+        <v>702</v>
+      </c>
+      <c r="D205" t="s">
+        <v>703</v>
+      </c>
+      <c r="E205" t="s">
+        <v>595</v>
+      </c>
+      <c r="F205" t="s">
+        <v>704</v>
+      </c>
+      <c r="G205" t="s">
+        <v>59</v>
+      </c>
+      <c r="H205" t="s">
+        <v>595</v>
+      </c>
+      <c r="I205" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>40</v>
+      </c>
+      <c r="B206" t="s">
+        <v>663</v>
+      </c>
+      <c r="C206" t="s">
+        <v>664</v>
+      </c>
+      <c r="D206" t="s">
+        <v>665</v>
+      </c>
+      <c r="E206" t="s">
+        <v>595</v>
+      </c>
+      <c r="F206" t="s">
+        <v>628</v>
+      </c>
+      <c r="G206" t="s">
+        <v>40</v>
+      </c>
+      <c r="H206" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>23</v>
+      </c>
+      <c r="B207" t="s">
+        <v>625</v>
+      </c>
+      <c r="C207" t="s">
+        <v>626</v>
+      </c>
+      <c r="D207" t="s">
+        <v>627</v>
+      </c>
+      <c r="E207" t="s">
+        <v>595</v>
+      </c>
+      <c r="F207" t="s">
+        <v>628</v>
+      </c>
+      <c r="G207" t="s">
+        <v>23</v>
+      </c>
+      <c r="H207" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>204</v>
+      </c>
+      <c r="B208" t="s">
+        <v>595</v>
+      </c>
+      <c r="C208" t="s">
+        <v>595</v>
+      </c>
+      <c r="D208" t="s">
+        <v>595</v>
+      </c>
+      <c r="E208" t="s">
+        <v>595</v>
+      </c>
+      <c r="F208" t="s">
+        <v>595</v>
+      </c>
+      <c r="G208" t="s">
+        <v>595</v>
+      </c>
+      <c r="H208" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>245</v>
+      </c>
+      <c r="B209" t="s">
+        <v>595</v>
+      </c>
+      <c r="C209" t="s">
+        <v>595</v>
+      </c>
+      <c r="D209" t="s">
+        <v>595</v>
+      </c>
+      <c r="E209" t="s">
+        <v>595</v>
+      </c>
+      <c r="F209" t="s">
+        <v>595</v>
+      </c>
+      <c r="G209" t="s">
+        <v>595</v>
+      </c>
+      <c r="H209" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>81</v>
+      </c>
+      <c r="B210" t="s">
+        <v>746</v>
+      </c>
+      <c r="C210" t="s">
+        <v>747</v>
+      </c>
+      <c r="D210" t="s">
+        <v>748</v>
+      </c>
+      <c r="E210" t="s">
+        <v>595</v>
+      </c>
+      <c r="F210" t="s">
+        <v>595</v>
+      </c>
+      <c r="G210" t="s">
+        <v>595</v>
+      </c>
+      <c r="H210" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>237</v>
+      </c>
+      <c r="B211" t="s">
+        <v>595</v>
+      </c>
+      <c r="C211" t="s">
+        <v>595</v>
+      </c>
+      <c r="D211" t="s">
+        <v>595</v>
+      </c>
+      <c r="E211" t="s">
+        <v>595</v>
+      </c>
+      <c r="F211" t="s">
+        <v>595</v>
+      </c>
+      <c r="G211" t="s">
+        <v>595</v>
+      </c>
+      <c r="H211" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>5</v>
+      </c>
+      <c r="B212" t="s">
+        <v>602</v>
+      </c>
+      <c r="C212" t="s">
+        <v>603</v>
+      </c>
+      <c r="D212" t="s">
+        <v>604</v>
+      </c>
+      <c r="E212" t="s">
+        <v>595</v>
+      </c>
+      <c r="F212" t="s">
+        <v>605</v>
+      </c>
+      <c r="G212" t="s">
+        <v>5</v>
+      </c>
+      <c r="H212" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>251</v>
+      </c>
+      <c r="B213" t="s">
+        <v>595</v>
+      </c>
+      <c r="C213" t="s">
+        <v>595</v>
+      </c>
+      <c r="D213" t="s">
+        <v>595</v>
+      </c>
+      <c r="E213" t="s">
+        <v>595</v>
+      </c>
+      <c r="F213" t="s">
+        <v>595</v>
+      </c>
+      <c r="G213" t="s">
+        <v>595</v>
+      </c>
+      <c r="H213" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>250</v>
+      </c>
+      <c r="B214" t="s">
+        <v>595</v>
+      </c>
+      <c r="C214" t="s">
+        <v>595</v>
+      </c>
+      <c r="D214" t="s">
+        <v>595</v>
+      </c>
+      <c r="E214" t="s">
+        <v>595</v>
+      </c>
+      <c r="F214" t="s">
+        <v>595</v>
+      </c>
+      <c r="G214" t="s">
+        <v>595</v>
+      </c>
+      <c r="H214" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>595</v>
+      </c>
+      <c r="C215" t="s">
+        <v>595</v>
+      </c>
+      <c r="D215" t="s">
+        <v>595</v>
+      </c>
+      <c r="E215" t="s">
+        <v>595</v>
+      </c>
+      <c r="F215" t="s">
+        <v>595</v>
+      </c>
+      <c r="G215" t="s">
+        <v>595</v>
+      </c>
+      <c r="H215" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>90</v>
+      </c>
+      <c r="B216" t="s">
+        <v>595</v>
+      </c>
+      <c r="C216" t="s">
+        <v>595</v>
+      </c>
+      <c r="D216" t="s">
+        <v>595</v>
+      </c>
+      <c r="E216" t="s">
+        <v>595</v>
+      </c>
+      <c r="F216" t="s">
+        <v>595</v>
+      </c>
+      <c r="G216" t="s">
+        <v>595</v>
+      </c>
+      <c r="H216" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>301</v>
+      </c>
+      <c r="B217" t="s">
+        <v>936</v>
+      </c>
+      <c r="C217" t="s">
+        <v>678</v>
+      </c>
+      <c r="D217" t="s">
+        <v>937</v>
+      </c>
+      <c r="E217" t="s">
+        <v>595</v>
+      </c>
+      <c r="F217" t="s">
+        <v>596</v>
+      </c>
+      <c r="G217" t="s">
+        <v>301</v>
+      </c>
+      <c r="H217" t="s">
+        <v>595</v>
+      </c>
+      <c r="I217" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>71</v>
+      </c>
+      <c r="B218" t="s">
+        <v>723</v>
+      </c>
+      <c r="C218" t="s">
+        <v>724</v>
+      </c>
+      <c r="D218" t="s">
+        <v>725</v>
+      </c>
+      <c r="E218" t="s">
+        <v>595</v>
+      </c>
+      <c r="F218" t="s">
+        <v>596</v>
+      </c>
+      <c r="G218" t="s">
+        <v>71</v>
+      </c>
+      <c r="H218" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>246</v>
+      </c>
+      <c r="B219" t="s">
+        <v>595</v>
+      </c>
+      <c r="C219" t="s">
+        <v>595</v>
+      </c>
+      <c r="D219" t="s">
+        <v>595</v>
+      </c>
+      <c r="E219" t="s">
+        <v>595</v>
+      </c>
+      <c r="F219" t="s">
+        <v>595</v>
+      </c>
+      <c r="G219" t="s">
+        <v>595</v>
+      </c>
+      <c r="H219" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>203</v>
+      </c>
+      <c r="B220" t="s">
+        <v>595</v>
+      </c>
+      <c r="C220" t="s">
+        <v>595</v>
+      </c>
+      <c r="D220" t="s">
+        <v>595</v>
+      </c>
+      <c r="E220" t="s">
+        <v>595</v>
+      </c>
+      <c r="F220" t="s">
+        <v>595</v>
+      </c>
+      <c r="G220" t="s">
+        <v>595</v>
+      </c>
+      <c r="H220" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>238</v>
+      </c>
+      <c r="B221" t="s">
+        <v>595</v>
+      </c>
+      <c r="C221" t="s">
+        <v>595</v>
+      </c>
+      <c r="D221" t="s">
+        <v>595</v>
+      </c>
+      <c r="E221" t="s">
+        <v>595</v>
+      </c>
+      <c r="F221" t="s">
+        <v>595</v>
+      </c>
+      <c r="G221" t="s">
+        <v>595</v>
+      </c>
+      <c r="H221" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>96</v>
+      </c>
+      <c r="B222" t="s">
+        <v>767</v>
+      </c>
+      <c r="C222" t="s">
+        <v>768</v>
+      </c>
+      <c r="D222" t="s">
+        <v>769</v>
+      </c>
+      <c r="E222" t="s">
+        <v>595</v>
+      </c>
+      <c r="F222" t="s">
+        <v>595</v>
+      </c>
+      <c r="G222" t="s">
+        <v>595</v>
+      </c>
+      <c r="H222" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>102</v>
+      </c>
+      <c r="B223" t="s">
+        <v>595</v>
+      </c>
+      <c r="C223" t="s">
+        <v>595</v>
+      </c>
+      <c r="D223" t="s">
+        <v>595</v>
+      </c>
+      <c r="E223" t="s">
+        <v>595</v>
+      </c>
+      <c r="F223" t="s">
+        <v>595</v>
+      </c>
+      <c r="G223" t="s">
+        <v>595</v>
+      </c>
+      <c r="H223" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>155</v>
+      </c>
+      <c r="B224" t="s">
+        <v>595</v>
+      </c>
+      <c r="C224" t="s">
+        <v>595</v>
+      </c>
+      <c r="D224" t="s">
+        <v>595</v>
+      </c>
+      <c r="E224" t="s">
+        <v>595</v>
+      </c>
+      <c r="F224" t="s">
+        <v>595</v>
+      </c>
+      <c r="G224" t="s">
+        <v>595</v>
+      </c>
+      <c r="H224" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>178</v>
+      </c>
+      <c r="B225" t="s">
+        <v>595</v>
+      </c>
+      <c r="C225" t="s">
+        <v>595</v>
+      </c>
+      <c r="D225" t="s">
+        <v>595</v>
+      </c>
+      <c r="E225" t="s">
+        <v>595</v>
+      </c>
+      <c r="F225" t="s">
+        <v>595</v>
+      </c>
+      <c r="G225" t="s">
+        <v>595</v>
+      </c>
+      <c r="H225" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>136</v>
+      </c>
+      <c r="B226" t="s">
+        <v>595</v>
+      </c>
+      <c r="C226" t="s">
+        <v>595</v>
+      </c>
+      <c r="D226" t="s">
+        <v>595</v>
+      </c>
+      <c r="E226" t="s">
+        <v>595</v>
+      </c>
+      <c r="F226" t="s">
+        <v>595</v>
+      </c>
+      <c r="G226" t="s">
+        <v>595</v>
+      </c>
+      <c r="H226" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>230</v>
+      </c>
+      <c r="B227" t="s">
+        <v>595</v>
+      </c>
+      <c r="C227" t="s">
+        <v>595</v>
+      </c>
+      <c r="D227" t="s">
+        <v>595</v>
+      </c>
+      <c r="E227" t="s">
+        <v>595</v>
+      </c>
+      <c r="F227" t="s">
+        <v>595</v>
+      </c>
+      <c r="G227" t="s">
+        <v>595</v>
+      </c>
+      <c r="H227" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>158</v>
+      </c>
+      <c r="B228" t="s">
+        <v>595</v>
+      </c>
+      <c r="C228" t="s">
+        <v>595</v>
+      </c>
+      <c r="D228" t="s">
+        <v>595</v>
+      </c>
+      <c r="E228" t="s">
+        <v>595</v>
+      </c>
+      <c r="F228" t="s">
+        <v>595</v>
+      </c>
+      <c r="G228" t="s">
+        <v>595</v>
+      </c>
+      <c r="H228" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>130</v>
+      </c>
+      <c r="B229" t="s">
+        <v>595</v>
+      </c>
+      <c r="C229" t="s">
+        <v>595</v>
+      </c>
+      <c r="D229" t="s">
+        <v>595</v>
+      </c>
+      <c r="E229" t="s">
+        <v>595</v>
+      </c>
+      <c r="F229" t="s">
+        <v>595</v>
+      </c>
+      <c r="G229" t="s">
+        <v>595</v>
+      </c>
+      <c r="H229" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>45</v>
+      </c>
+      <c r="B230" t="s">
+        <v>595</v>
+      </c>
+      <c r="C230" t="s">
+        <v>595</v>
+      </c>
+      <c r="D230" t="s">
+        <v>595</v>
+      </c>
+      <c r="E230" t="s">
+        <v>595</v>
+      </c>
+      <c r="F230" t="s">
+        <v>595</v>
+      </c>
+      <c r="G230" t="s">
+        <v>595</v>
+      </c>
+      <c r="H230" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>121</v>
+      </c>
+      <c r="B231" t="s">
+        <v>595</v>
+      </c>
+      <c r="C231" t="s">
+        <v>595</v>
+      </c>
+      <c r="D231" t="s">
+        <v>595</v>
+      </c>
+      <c r="E231" t="s">
+        <v>595</v>
+      </c>
+      <c r="F231" t="s">
+        <v>121</v>
+      </c>
+      <c r="G231" t="s">
+        <v>605</v>
+      </c>
+      <c r="H231" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>253</v>
+      </c>
+      <c r="B232" t="s">
+        <v>595</v>
+      </c>
+      <c r="C232" t="s">
+        <v>595</v>
+      </c>
+      <c r="D232" t="s">
+        <v>595</v>
+      </c>
+      <c r="E232" t="s">
+        <v>595</v>
+      </c>
+      <c r="F232" t="s">
+        <v>595</v>
+      </c>
+      <c r="G232" t="s">
+        <v>595</v>
+      </c>
+      <c r="H232" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>114</v>
+      </c>
+      <c r="B233" t="s">
+        <v>791</v>
+      </c>
+      <c r="C233" t="s">
+        <v>792</v>
+      </c>
+      <c r="D233" t="s">
+        <v>793</v>
+      </c>
+      <c r="E233" t="s">
+        <v>595</v>
+      </c>
+      <c r="F233" t="s">
+        <v>692</v>
+      </c>
+      <c r="G233" t="s">
+        <v>114</v>
+      </c>
+      <c r="H233" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>54</v>
+      </c>
+      <c r="B234" t="s">
+        <v>689</v>
+      </c>
+      <c r="C234" t="s">
+        <v>690</v>
+      </c>
+      <c r="D234" t="s">
+        <v>691</v>
+      </c>
+      <c r="E234" t="s">
+        <v>595</v>
+      </c>
+      <c r="F234" t="s">
+        <v>692</v>
+      </c>
+      <c r="G234" t="s">
+        <v>54</v>
+      </c>
+      <c r="H234" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>243</v>
+      </c>
+      <c r="B235" t="s">
+        <v>595</v>
+      </c>
+      <c r="C235" t="s">
+        <v>595</v>
+      </c>
+      <c r="D235" t="s">
+        <v>595</v>
+      </c>
+      <c r="E235" t="s">
+        <v>595</v>
+      </c>
+      <c r="F235" t="s">
+        <v>595</v>
+      </c>
+      <c r="G235" t="s">
+        <v>595</v>
+      </c>
+      <c r="H235" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>8</v>
+      </c>
+      <c r="B236" t="s">
+        <v>595</v>
+      </c>
+      <c r="C236" t="s">
+        <v>595</v>
+      </c>
+      <c r="D236" t="s">
+        <v>595</v>
+      </c>
+      <c r="E236" t="s">
+        <v>595</v>
+      </c>
+      <c r="F236" t="s">
+        <v>595</v>
+      </c>
+      <c r="G236" t="s">
+        <v>595</v>
+      </c>
+      <c r="H236" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>221</v>
+      </c>
+      <c r="B237" t="s">
+        <v>595</v>
+      </c>
+      <c r="C237" t="s">
+        <v>595</v>
+      </c>
+      <c r="D237" t="s">
+        <v>595</v>
+      </c>
+      <c r="E237" t="s">
+        <v>595</v>
+      </c>
+      <c r="F237" t="s">
+        <v>595</v>
+      </c>
+      <c r="G237" t="s">
+        <v>595</v>
+      </c>
+      <c r="H237" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>141</v>
+      </c>
+      <c r="B238" t="s">
+        <v>595</v>
+      </c>
+      <c r="C238" t="s">
+        <v>595</v>
+      </c>
+      <c r="D238" t="s">
+        <v>595</v>
+      </c>
+      <c r="E238" t="s">
+        <v>595</v>
+      </c>
+      <c r="F238" t="s">
+        <v>595</v>
+      </c>
+      <c r="G238" t="s">
+        <v>595</v>
+      </c>
+      <c r="H238" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>219</v>
+      </c>
+      <c r="B239" t="s">
+        <v>595</v>
+      </c>
+      <c r="C239" t="s">
+        <v>595</v>
+      </c>
+      <c r="D239" t="s">
+        <v>595</v>
+      </c>
+      <c r="E239" t="s">
+        <v>595</v>
+      </c>
+      <c r="F239" t="s">
+        <v>595</v>
+      </c>
+      <c r="G239" t="s">
+        <v>595</v>
+      </c>
+      <c r="H239" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>244</v>
+      </c>
+      <c r="B240" t="s">
+        <v>595</v>
+      </c>
+      <c r="C240" t="s">
+        <v>595</v>
+      </c>
+      <c r="D240" t="s">
+        <v>595</v>
+      </c>
+      <c r="E240" t="s">
+        <v>595</v>
+      </c>
+      <c r="F240" t="s">
+        <v>595</v>
+      </c>
+      <c r="G240" t="s">
+        <v>595</v>
+      </c>
+      <c r="H240" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>187</v>
+      </c>
+      <c r="B241" t="s">
+        <v>595</v>
+      </c>
+      <c r="C241" t="s">
+        <v>595</v>
+      </c>
+      <c r="D241" t="s">
+        <v>595</v>
+      </c>
+      <c r="E241" t="s">
+        <v>595</v>
+      </c>
+      <c r="F241" t="s">
+        <v>595</v>
+      </c>
+      <c r="G241" t="s">
+        <v>595</v>
+      </c>
+      <c r="H241" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>159</v>
+      </c>
+      <c r="B242" t="s">
+        <v>595</v>
+      </c>
+      <c r="C242" t="s">
+        <v>595</v>
+      </c>
+      <c r="D242" t="s">
+        <v>595</v>
+      </c>
+      <c r="E242" t="s">
+        <v>595</v>
+      </c>
+      <c r="F242" t="s">
+        <v>595</v>
+      </c>
+      <c r="G242" t="s">
+        <v>595</v>
+      </c>
+      <c r="H242" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>205</v>
+      </c>
+      <c r="B243" t="s">
+        <v>595</v>
+      </c>
+      <c r="C243" t="s">
+        <v>595</v>
+      </c>
+      <c r="D243" t="s">
+        <v>595</v>
+      </c>
+      <c r="E243" t="s">
+        <v>595</v>
+      </c>
+      <c r="F243" t="s">
+        <v>595</v>
+      </c>
+      <c r="G243" t="s">
+        <v>595</v>
+      </c>
+      <c r="H243" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>6</v>
+      </c>
+      <c r="B244" t="s">
+        <v>595</v>
+      </c>
+      <c r="C244" t="s">
+        <v>595</v>
+      </c>
+      <c r="D244" t="s">
+        <v>595</v>
+      </c>
+      <c r="E244" t="s">
+        <v>595</v>
+      </c>
+      <c r="F244" t="s">
+        <v>595</v>
+      </c>
+      <c r="G244" t="s">
+        <v>6</v>
+      </c>
+      <c r="H244" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>120</v>
+      </c>
+      <c r="B245" t="s">
+        <v>805</v>
+      </c>
+      <c r="C245" t="s">
+        <v>806</v>
+      </c>
+      <c r="D245" t="s">
+        <v>807</v>
+      </c>
+      <c r="E245" t="s">
+        <v>595</v>
+      </c>
+      <c r="F245" t="s">
+        <v>595</v>
+      </c>
+      <c r="G245" t="s">
+        <v>595</v>
+      </c>
+      <c r="H245" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>174</v>
+      </c>
+      <c r="B246" t="s">
+        <v>595</v>
+      </c>
+      <c r="C246" t="s">
+        <v>595</v>
+      </c>
+      <c r="D246" t="s">
+        <v>595</v>
+      </c>
+      <c r="E246" t="s">
+        <v>595</v>
+      </c>
+      <c r="F246" t="s">
+        <v>595</v>
+      </c>
+      <c r="G246" t="s">
+        <v>595</v>
+      </c>
+      <c r="H246" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>77</v>
+      </c>
+      <c r="B247" t="s">
+        <v>737</v>
+      </c>
+      <c r="C247" t="s">
+        <v>738</v>
+      </c>
+      <c r="D247" t="s">
+        <v>739</v>
+      </c>
+      <c r="E247" t="s">
+        <v>595</v>
+      </c>
+      <c r="F247" t="s">
+        <v>595</v>
+      </c>
+      <c r="G247" t="s">
+        <v>595</v>
+      </c>
+      <c r="H247" t="s">
+        <v>595</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
